--- a/Tester Results/CORRELATIONS_BY_SEX_DATE.xlsx
+++ b/Tester Results/CORRELATIONS_BY_SEX_DATE.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.09755658272663048</v>
+        <v>-0.1147072757380191</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4828077401859805</v>
+        <v>0.4088433946915686</v>
       </c>
       <c r="G2" t="n">
         <v>54</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.8084176445515988</v>
+        <v>-0.8108492471152043</v>
       </c>
       <c r="F3" t="n">
-        <v>1.448963674061664e-13</v>
+        <v>1.073403332699949e-13</v>
       </c>
       <c r="G3" t="n">
         <v>54</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.6332001839618925</v>
+        <v>-0.6060438751739555</v>
       </c>
       <c r="F4" t="n">
-        <v>2.774499792199732e-07</v>
+        <v>1.19607357147525e-06</v>
       </c>
       <c r="G4" t="n">
         <v>54</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.6354782247571885</v>
+        <v>-0.6085264440847995</v>
       </c>
       <c r="F5" t="n">
-        <v>2.438625782160787e-07</v>
+        <v>1.052441868984258e-06</v>
       </c>
       <c r="G5" t="n">
         <v>54</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.6267725135680527</v>
+        <v>-0.590893600562993</v>
       </c>
       <c r="F6" t="n">
-        <v>3.970809836132787e-07</v>
+        <v>2.551759285524689e-06</v>
       </c>
       <c r="G6" t="n">
         <v>54</v>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.6797419296477283</v>
+        <v>-0.6613863061337237</v>
       </c>
       <c r="F7" t="n">
-        <v>1.584502255272803e-08</v>
+        <v>5.201631499650993e-08</v>
       </c>
       <c r="G7" t="n">
         <v>54</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.290383833219843</v>
+        <v>-0.2912899347582636</v>
       </c>
       <c r="F8" t="n">
-        <v>0.033164999239499</v>
+        <v>0.03259552876625069</v>
       </c>
       <c r="G8" t="n">
         <v>54</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.7035762322810958</v>
+        <v>-0.6791351552050159</v>
       </c>
       <c r="F9" t="n">
-        <v>2.963581373385151e-09</v>
+        <v>1.650236478581612e-08</v>
       </c>
       <c r="G9" t="n">
         <v>54</v>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4462084841122757</v>
+        <v>0.4717576069815456</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001031208164458672</v>
+        <v>0.0004746257307461619</v>
       </c>
       <c r="G10" t="n">
         <v>51</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.09755658272663048</v>
+        <v>-0.1147072757380191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4828077401859805</v>
+        <v>0.4088433946915686</v>
       </c>
       <c r="G11" t="n">
         <v>54</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5776229711921197</v>
+        <v>0.5774714575757699</v>
       </c>
       <c r="F12" t="n">
-        <v>4.804644126956747e-06</v>
+        <v>4.838710029206074e-06</v>
       </c>
       <c r="G12" t="n">
         <v>54</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.03338014303366481</v>
+        <v>0.01847632047732883</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8106247713421173</v>
+        <v>0.894504193146118</v>
       </c>
       <c r="G13" t="n">
         <v>54</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.03203557464358047</v>
+        <v>0.01865889872247367</v>
       </c>
       <c r="F14" t="n">
-        <v>0.818120498747801</v>
+        <v>0.8934677174592276</v>
       </c>
       <c r="G14" t="n">
         <v>54</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0006920009770531994</v>
+        <v>-0.0421959409018032</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9960375948240344</v>
+        <v>0.7619240660049236</v>
       </c>
       <c r="G15" t="n">
         <v>54</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.09048930423466249</v>
+        <v>0.08398536984886841</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5152171241316059</v>
+        <v>0.5459824352621201</v>
       </c>
       <c r="G16" t="n">
         <v>54</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1644927028395282</v>
+        <v>0.1766700955291298</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2345960170890373</v>
+        <v>0.2012646201947388</v>
       </c>
       <c r="G17" t="n">
         <v>54</v>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1416566705967726</v>
+        <v>0.1320757340943724</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3068915166324117</v>
+        <v>0.3410848731517471</v>
       </c>
       <c r="G18" t="n">
         <v>54</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.007288934516791171</v>
+        <v>0.02395738795164773</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9595139132937442</v>
+        <v>0.867470511418018</v>
       </c>
       <c r="G19" t="n">
         <v>51</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.8084176445515988</v>
+        <v>-0.8108492471152043</v>
       </c>
       <c r="F20" t="n">
-        <v>1.448963674061664e-13</v>
+        <v>1.073403332699949e-13</v>
       </c>
       <c r="G20" t="n">
         <v>54</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5776229711921198</v>
+        <v>0.5774714575757699</v>
       </c>
       <c r="F21" t="n">
-        <v>4.804644126956729e-06</v>
+        <v>4.838710029206074e-06</v>
       </c>
       <c r="G21" t="n">
         <v>54</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5358764600046356</v>
+        <v>0.5013397555463839</v>
       </c>
       <c r="F22" t="n">
-        <v>2.967526939499799e-05</v>
+        <v>0.0001126430546746295</v>
       </c>
       <c r="G22" t="n">
         <v>54</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.537474817563098</v>
+        <v>0.5040346638331349</v>
       </c>
       <c r="F23" t="n">
-        <v>2.779910370747038e-05</v>
+        <v>0.0001020264101333588</v>
       </c>
       <c r="G23" t="n">
         <v>54</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5202463311198781</v>
+        <v>0.4695334408680122</v>
       </c>
       <c r="F24" t="n">
-        <v>5.525144986351399e-05</v>
+        <v>0.0003412085417923039</v>
       </c>
       <c r="G24" t="n">
         <v>54</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5885821397637915</v>
+        <v>0.5622578922860348</v>
       </c>
       <c r="F25" t="n">
-        <v>2.854866642157795e-06</v>
+        <v>9.664682538683457e-06</v>
       </c>
       <c r="G25" t="n">
         <v>54</v>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.3897800523496315</v>
+        <v>0.3928425925076893</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003574509799531435</v>
+        <v>0.003299403072422453</v>
       </c>
       <c r="G26" t="n">
         <v>54</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6362591816659465</v>
+        <v>0.6015112433863311</v>
       </c>
       <c r="F27" t="n">
-        <v>2.332536496980518e-07</v>
+        <v>1.506572593393028e-06</v>
       </c>
       <c r="G27" t="n">
         <v>54</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.3186553401291561</v>
+        <v>-0.3185161991899284</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02266675803723636</v>
+        <v>0.02272927353342134</v>
       </c>
       <c r="G28" t="n">
         <v>51</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.6332001839618925</v>
+        <v>-0.6060438751739556</v>
       </c>
       <c r="F29" t="n">
-        <v>2.774499792199732e-07</v>
+        <v>1.196073571475245e-06</v>
       </c>
       <c r="G29" t="n">
         <v>54</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.03338014303366481</v>
+        <v>0.01847632047732883</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8106247713421173</v>
+        <v>0.894504193146118</v>
       </c>
       <c r="G30" t="n">
         <v>54</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.5358764600046356</v>
+        <v>0.5013397555463839</v>
       </c>
       <c r="F31" t="n">
-        <v>2.967526939499799e-05</v>
+        <v>0.0001126430546746295</v>
       </c>
       <c r="G31" t="n">
         <v>54</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.9996950529485943</v>
+        <v>0.9998284703258649</v>
       </c>
       <c r="F32" t="n">
-        <v>2.863331232627529e-85</v>
+        <v>9.131761293014849e-92</v>
       </c>
       <c r="G32" t="n">
         <v>54</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9821986741907431</v>
+        <v>0.9749375823684576</v>
       </c>
       <c r="F33" t="n">
-        <v>1.936178162470816e-39</v>
+        <v>1.292530112910958e-35</v>
       </c>
       <c r="G33" t="n">
         <v>54</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.9804071059954947</v>
+        <v>0.9757761727743733</v>
       </c>
       <c r="F34" t="n">
-        <v>2.292449198857029e-38</v>
+        <v>5.390016379797268e-36</v>
       </c>
       <c r="G34" t="n">
         <v>54</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.07250133419920027</v>
+        <v>0.07478701710939178</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6023709395308028</v>
+        <v>0.5909468498790506</v>
       </c>
       <c r="G35" t="n">
         <v>54</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.9441564388958947</v>
+        <v>0.9304160553634782</v>
       </c>
       <c r="F36" t="n">
-        <v>9.866076403582992e-27</v>
+        <v>2.535671566990708e-24</v>
       </c>
       <c r="G36" t="n">
         <v>54</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.3733737584954628</v>
+        <v>-0.4023258970994162</v>
       </c>
       <c r="F37" t="n">
-        <v>0.006961564872868474</v>
+        <v>0.003425441286326963</v>
       </c>
       <c r="G37" t="n">
         <v>51</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.6354782247571885</v>
+        <v>-0.6085264440847995</v>
       </c>
       <c r="F38" t="n">
-        <v>2.438625782160787e-07</v>
+        <v>1.052441868984258e-06</v>
       </c>
       <c r="G38" t="n">
         <v>54</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.03203557464358047</v>
+        <v>0.01865889872247367</v>
       </c>
       <c r="F39" t="n">
-        <v>0.818120498747801</v>
+        <v>0.8934677174592276</v>
       </c>
       <c r="G39" t="n">
         <v>54</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.5374748175630981</v>
+        <v>0.5040346638331348</v>
       </c>
       <c r="F40" t="n">
-        <v>2.779910370747033e-05</v>
+        <v>0.0001020264101333588</v>
       </c>
       <c r="G40" t="n">
         <v>54</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9996950529485943</v>
+        <v>0.9998284703258647</v>
       </c>
       <c r="F41" t="n">
-        <v>2.863331232627529e-85</v>
+        <v>9.13176129316876e-92</v>
       </c>
       <c r="G41" t="n">
         <v>54</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.9818562988374308</v>
+        <v>0.9741566609491136</v>
       </c>
       <c r="F42" t="n">
-        <v>3.164115515173558e-39</v>
+        <v>2.842998416039245e-35</v>
       </c>
       <c r="G42" t="n">
         <v>54</v>
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9804078521059651</v>
+        <v>0.9761387459500666</v>
       </c>
       <c r="F43" t="n">
-        <v>2.290201288451873e-38</v>
+        <v>3.6578006806963e-36</v>
       </c>
       <c r="G43" t="n">
         <v>54</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.07383266628549646</v>
+        <v>0.07756813417190775</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5957050354027522</v>
+        <v>0.5771785896196067</v>
       </c>
       <c r="G44" t="n">
         <v>54</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.9445778540118162</v>
+        <v>0.9316943015056222</v>
       </c>
       <c r="F45" t="n">
-        <v>8.144642090323908e-27</v>
+        <v>1.590894953347864e-24</v>
       </c>
       <c r="G45" t="n">
         <v>54</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.3738998620835252</v>
+        <v>-0.4033122922365315</v>
       </c>
       <c r="F46" t="n">
-        <v>0.006876195533612486</v>
+        <v>0.003339952494763174</v>
       </c>
       <c r="G46" t="n">
         <v>51</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.6267725135680527</v>
+        <v>-0.590893600562993</v>
       </c>
       <c r="F47" t="n">
-        <v>3.970809836132787e-07</v>
+        <v>2.551759285524689e-06</v>
       </c>
       <c r="G47" t="n">
         <v>54</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.0006920009770531994</v>
+        <v>-0.0421959409018032</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9960375948240344</v>
+        <v>0.7619240660049236</v>
       </c>
       <c r="G48" t="n">
         <v>54</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.5202463311198781</v>
+        <v>0.4695334408680122</v>
       </c>
       <c r="F49" t="n">
-        <v>5.525144986351399e-05</v>
+        <v>0.0003412085417923039</v>
       </c>
       <c r="G49" t="n">
         <v>54</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.9821986741907431</v>
+        <v>0.9749375823684576</v>
       </c>
       <c r="F50" t="n">
-        <v>1.936178162470816e-39</v>
+        <v>1.292530112910958e-35</v>
       </c>
       <c r="G50" t="n">
         <v>54</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.9818562988374308</v>
+        <v>0.9741566609491136</v>
       </c>
       <c r="F51" t="n">
-        <v>3.164115515173558e-39</v>
+        <v>2.842998416039245e-35</v>
       </c>
       <c r="G51" t="n">
         <v>54</v>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9551743853630645</v>
+        <v>0.9459500667047835</v>
       </c>
       <c r="F52" t="n">
-        <v>3.728242438991514e-29</v>
+        <v>4.316583195899348e-27</v>
       </c>
       <c r="G52" t="n">
         <v>54</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.04532113588717361</v>
+        <v>0.05911949685534591</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7448666486246772</v>
+        <v>0.6710960490110992</v>
       </c>
       <c r="G53" t="n">
         <v>54</v>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9085953878406707</v>
+        <v>0.8920526014865636</v>
       </c>
       <c r="F54" t="n">
-        <v>2.320211738248817e-21</v>
+        <v>1.422980409276759e-19</v>
       </c>
       <c r="G54" t="n">
         <v>54</v>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-0.3652571326077956</v>
+        <v>-0.3953483111489484</v>
       </c>
       <c r="F55" t="n">
-        <v>0.008400406706026705</v>
+        <v>0.004087263368548886</v>
       </c>
       <c r="G55" t="n">
         <v>51</v>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-0.6797419296477282</v>
+        <v>-0.6613863061337237</v>
       </c>
       <c r="F56" t="n">
-        <v>1.584502255272803e-08</v>
+        <v>5.201631499650993e-08</v>
       </c>
       <c r="G56" t="n">
         <v>54</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.09048930423466249</v>
+        <v>0.08398536984886841</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5152171241316059</v>
+        <v>0.5459824352621201</v>
       </c>
       <c r="G57" t="n">
         <v>54</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.5885821397637915</v>
+        <v>0.5622578922860348</v>
       </c>
       <c r="F58" t="n">
-        <v>2.854866642157795e-06</v>
+        <v>9.664682538683457e-06</v>
       </c>
       <c r="G58" t="n">
         <v>54</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.9804071059954947</v>
+        <v>0.9757761727743733</v>
       </c>
       <c r="F59" t="n">
-        <v>2.292449198857029e-38</v>
+        <v>5.390016379797268e-36</v>
       </c>
       <c r="G59" t="n">
         <v>54</v>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.9804078521059651</v>
+        <v>0.9761387459500666</v>
       </c>
       <c r="F60" t="n">
-        <v>2.290201288451873e-38</v>
+        <v>3.6578006806963e-36</v>
       </c>
       <c r="G60" t="n">
         <v>54</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.9551743853630645</v>
+        <v>0.9459500667047835</v>
       </c>
       <c r="F61" t="n">
-        <v>3.728242438991514e-29</v>
+        <v>4.316583195899348e-27</v>
       </c>
       <c r="G61" t="n">
         <v>54</v>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1642462359443491</v>
+        <v>0.1813226605679436</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2353076241199137</v>
+        <v>0.1894614988346374</v>
       </c>
       <c r="G62" t="n">
         <v>54</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.9817038307604344</v>
+        <v>0.9786544692205068</v>
       </c>
       <c r="F63" t="n">
-        <v>3.925905762910163e-39</v>
+        <v>2.08193469598647e-37</v>
       </c>
       <c r="G63" t="n">
         <v>54</v>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>-0.433810719810572</v>
+        <v>-0.4558926673715983</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001471340519269523</v>
+        <v>0.000773881342225616</v>
       </c>
       <c r="G64" t="n">
         <v>51</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.290383833219843</v>
+        <v>-0.2912899347582636</v>
       </c>
       <c r="F65" t="n">
-        <v>0.033164999239499</v>
+        <v>0.03259552876625069</v>
       </c>
       <c r="G65" t="n">
         <v>54</v>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1644927028395282</v>
+        <v>0.1766700955291298</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2345960170890373</v>
+        <v>0.2012646201947388</v>
       </c>
       <c r="G66" t="n">
         <v>54</v>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.3897800523496315</v>
+        <v>0.3928425925076894</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003574509799531443</v>
+        <v>0.003299403072422447</v>
       </c>
       <c r="G67" t="n">
         <v>54</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.07250133419920028</v>
+        <v>0.07478701710939178</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6023709395308028</v>
+        <v>0.5909468498790506</v>
       </c>
       <c r="G68" t="n">
         <v>54</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.07383266628549646</v>
+        <v>0.07756813417190775</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5957050354027522</v>
+        <v>0.5771785896196067</v>
       </c>
       <c r="G69" t="n">
         <v>54</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.04532113588717361</v>
+        <v>0.05911949685534591</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7448666486246772</v>
+        <v>0.6710960490110992</v>
       </c>
       <c r="G70" t="n">
         <v>54</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1642462359443491</v>
+        <v>0.1813226605679436</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2353076241199137</v>
+        <v>0.1894614988346374</v>
       </c>
       <c r="G71" t="n">
         <v>54</v>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.2407089765580331</v>
+        <v>0.2741757194587383</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07954456741089778</v>
+        <v>0.04482906187522447</v>
       </c>
       <c r="G72" t="n">
         <v>54</v>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.2908663092669612</v>
+        <v>-0.2835358266749812</v>
       </c>
       <c r="F73" t="n">
-        <v>0.03838591142900333</v>
+        <v>0.04377508711569677</v>
       </c>
       <c r="G73" t="n">
         <v>51</v>
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.7035762322810957</v>
+        <v>-0.6791351552050159</v>
       </c>
       <c r="F74" t="n">
-        <v>2.963581373385193e-09</v>
+        <v>1.650236478581612e-08</v>
       </c>
       <c r="G74" t="n">
         <v>54</v>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1416566705967726</v>
+        <v>0.1320757340943725</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3068915166324118</v>
+        <v>0.3410848731517471</v>
       </c>
       <c r="G75" t="n">
         <v>54</v>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.6362591816659465</v>
+        <v>0.6015112433863311</v>
       </c>
       <c r="F76" t="n">
-        <v>2.332536496980518e-07</v>
+        <v>1.506572593393028e-06</v>
       </c>
       <c r="G76" t="n">
         <v>54</v>
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.9441564388958946</v>
+        <v>0.9304160553634782</v>
       </c>
       <c r="F77" t="n">
-        <v>9.866076403583414e-27</v>
+        <v>2.535671566990708e-24</v>
       </c>
       <c r="G77" t="n">
         <v>54</v>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.9445778540118162</v>
+        <v>0.9316943015056222</v>
       </c>
       <c r="F78" t="n">
-        <v>8.144642090323908e-27</v>
+        <v>1.590894953347864e-24</v>
       </c>
       <c r="G78" t="n">
         <v>54</v>
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.9085953878406707</v>
+        <v>0.8920526014865636</v>
       </c>
       <c r="F79" t="n">
-        <v>2.320211738248817e-21</v>
+        <v>1.422980409276759e-19</v>
       </c>
       <c r="G79" t="n">
         <v>54</v>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.9817038307604344</v>
+        <v>0.9786544692205068</v>
       </c>
       <c r="F80" t="n">
-        <v>3.925905762910163e-39</v>
+        <v>2.08193469598647e-37</v>
       </c>
       <c r="G80" t="n">
         <v>54</v>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.2407089765580331</v>
+        <v>0.2741757194587383</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07954456741089778</v>
+        <v>0.04482906187522447</v>
       </c>
       <c r="G81" t="n">
         <v>54</v>
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.4485169348870752</v>
+        <v>-0.4702368833077568</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0009637376521110768</v>
+        <v>0.0004979089382188495</v>
       </c>
       <c r="G82" t="n">
         <v>51</v>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.4462084841122756</v>
+        <v>0.4717576069815456</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001031208164458674</v>
+        <v>0.0004746257307461609</v>
       </c>
       <c r="G83" t="n">
         <v>51</v>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-0.007288934516791171</v>
+        <v>0.02395738795164773</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9595139132937442</v>
+        <v>0.8674705114180179</v>
       </c>
       <c r="G84" t="n">
         <v>51</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-0.3186553401291561</v>
+        <v>-0.3185161991899284</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02266675803723636</v>
+        <v>0.02272927353342134</v>
       </c>
       <c r="G85" t="n">
         <v>51</v>
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-0.3733737584954629</v>
+        <v>-0.4023258970994162</v>
       </c>
       <c r="F86" t="n">
-        <v>0.006961564872868461</v>
+        <v>0.003425441286326963</v>
       </c>
       <c r="G86" t="n">
         <v>51</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-0.3738998620835252</v>
+        <v>-0.4033122922365315</v>
       </c>
       <c r="F87" t="n">
-        <v>0.006876195533612486</v>
+        <v>0.003339952494763174</v>
       </c>
       <c r="G87" t="n">
         <v>51</v>
@@ -3158,10 +3158,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-0.3652571326077956</v>
+        <v>-0.3953483111489483</v>
       </c>
       <c r="F88" t="n">
-        <v>0.008400406706026705</v>
+        <v>0.004087263368548903</v>
       </c>
       <c r="G88" t="n">
         <v>51</v>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.433810719810572</v>
+        <v>-0.4558926673715983</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001471340519269523</v>
+        <v>0.000773881342225616</v>
       </c>
       <c r="G89" t="n">
         <v>51</v>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-0.2908663092669612</v>
+        <v>-0.2835358266749811</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03838591142900333</v>
+        <v>0.0437750871156968</v>
       </c>
       <c r="G90" t="n">
         <v>51</v>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-0.4485169348870752</v>
+        <v>-0.4702368833077568</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0009637376521110768</v>
+        <v>0.0004979089382188495</v>
       </c>
       <c r="G91" t="n">
         <v>51</v>
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-0.1577270613826065</v>
+        <v>-0.08661513089441732</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2546700551993977</v>
+        <v>0.5334372322015588</v>
       </c>
       <c r="G92" t="n">
         <v>54</v>
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-0.8114716851691869</v>
+        <v>-0.7989707542641168</v>
       </c>
       <c r="F93" t="n">
-        <v>9.933664994360861e-14</v>
+        <v>4.46930134278483e-13</v>
       </c>
       <c r="G93" t="n">
         <v>54</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-0.4981895553086759</v>
+        <v>-0.4752250647314447</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0001263300630769568</v>
+        <v>0.0002820372275323338</v>
       </c>
       <c r="G94" t="n">
         <v>54</v>
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-0.4989457472173677</v>
+        <v>-0.4759510520902678</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0001229125222185343</v>
+        <v>0.0002752023047897876</v>
       </c>
       <c r="G95" t="n">
         <v>54</v>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-0.4990232653945164</v>
+        <v>-0.4750894604547879</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0001225670086736881</v>
+        <v>0.0002833308734327162</v>
       </c>
       <c r="G96" t="n">
         <v>54</v>
@@ -3437,10 +3437,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-0.4946047292970426</v>
+        <v>-0.4781441944351254</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0001437451275006006</v>
+        <v>0.0002554594137842701</v>
       </c>
       <c r="G97" t="n">
         <v>54</v>
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-0.04496054274622439</v>
+        <v>-0.1284554801988051</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7468287646950158</v>
+        <v>0.3545984336566856</v>
       </c>
       <c r="G98" t="n">
         <v>54</v>
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-0.4861940070764127</v>
+        <v>-0.4922821299082256</v>
       </c>
       <c r="F99" t="n">
-        <v>0.000193541538102851</v>
+        <v>0.0001561713653846376</v>
       </c>
       <c r="G99" t="n">
         <v>54</v>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.09911023224878097</v>
+        <v>0.1235835497275662</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4889698110813017</v>
+        <v>0.3875867074475694</v>
       </c>
       <c r="G100" t="n">
         <v>51</v>
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-0.1577270613826066</v>
+        <v>-0.0866151308944173</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2546700551993975</v>
+        <v>0.5334372322015588</v>
       </c>
       <c r="G101" t="n">
         <v>54</v>
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.6183515244555914</v>
+        <v>0.583040752706401</v>
       </c>
       <c r="F102" t="n">
-        <v>6.274697323624238e-07</v>
+        <v>3.723289460648759e-06</v>
       </c>
       <c r="G102" t="n">
         <v>54</v>
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.2161516805043809</v>
+        <v>0.1658413671394169</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1164524928098385</v>
+        <v>0.2307283167087541</v>
       </c>
       <c r="G103" t="n">
         <v>54</v>
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.1880439538774715</v>
+        <v>0.1462115813269051</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1732974095512064</v>
+        <v>0.291437581104541</v>
       </c>
       <c r="G104" t="n">
         <v>54</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.2153874012695274</v>
+        <v>0.1668833076229087</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1177813577109111</v>
+        <v>0.227770525188446</v>
       </c>
       <c r="G105" t="n">
         <v>54</v>
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.2153453990461908</v>
+        <v>0.1527527360980543</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1178547210982763</v>
+        <v>0.2701486550959735</v>
       </c>
       <c r="G106" t="n">
         <v>54</v>
@@ -3747,10 +3747,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.1142880496985928</v>
+        <v>0.1262946036583419</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4105693277467599</v>
+        <v>0.3628186665726714</v>
       </c>
       <c r="G107" t="n">
         <v>54</v>
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.1774173913733392</v>
+        <v>0.1031070486042041</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1993345165711949</v>
+        <v>0.4581291834567802</v>
       </c>
       <c r="G108" t="n">
         <v>54</v>
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.05590554279342586</v>
+        <v>0.02501170153543364</v>
       </c>
       <c r="F109" t="n">
-        <v>0.696793410416926</v>
+        <v>0.8616939268346756</v>
       </c>
       <c r="G109" t="n">
         <v>51</v>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-0.8114716851691869</v>
+        <v>-0.7989707542641168</v>
       </c>
       <c r="F110" t="n">
-        <v>9.933664994360861e-14</v>
+        <v>4.46930134278483e-13</v>
       </c>
       <c r="G110" t="n">
         <v>54</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.6183515244555914</v>
+        <v>0.583040752706401</v>
       </c>
       <c r="F111" t="n">
-        <v>6.274697323624238e-07</v>
+        <v>3.723289460648759e-06</v>
       </c>
       <c r="G111" t="n">
         <v>54</v>
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.5140245831338056</v>
+        <v>0.4713363939257486</v>
       </c>
       <c r="F112" t="n">
-        <v>7.017244105026012e-05</v>
+        <v>0.0003213469160702562</v>
       </c>
       <c r="G112" t="n">
         <v>54</v>
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.4914071548089404</v>
+        <v>0.4549402706896568</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0001611015749285907</v>
+        <v>0.0005478257681333807</v>
       </c>
       <c r="G113" t="n">
         <v>54</v>
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.5182181453285239</v>
+        <v>0.4731040883680739</v>
       </c>
       <c r="F114" t="n">
-        <v>5.975997469649469e-05</v>
+        <v>0.0003028990789028992</v>
       </c>
       <c r="G114" t="n">
         <v>54</v>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.5076852561958304</v>
+        <v>0.4621597161939748</v>
       </c>
       <c r="F115" t="n">
-        <v>8.910427496033633e-05</v>
+        <v>0.0004345719487357415</v>
       </c>
       <c r="G115" t="n">
         <v>54</v>
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.05289425415363574</v>
+        <v>0.1198120743269798</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7040471370730997</v>
+        <v>0.3881657117294882</v>
       </c>
       <c r="G116" t="n">
         <v>54</v>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.4752056562521062</v>
+        <v>0.4394261431165479</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0002822220517749314</v>
+        <v>0.000886035550421835</v>
       </c>
       <c r="G117" t="n">
         <v>54</v>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-0.0739749841094437</v>
+        <v>-0.08438460604683197</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6059256744731121</v>
+        <v>0.556036744139055</v>
       </c>
       <c r="G118" t="n">
         <v>51</v>
@@ -4119,10 +4119,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-0.4981895553086759</v>
+        <v>-0.4752250647314447</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0001263300630769568</v>
+        <v>0.0002820372275323338</v>
       </c>
       <c r="G119" t="n">
         <v>54</v>
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.2161516805043808</v>
+        <v>0.1658413671394169</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1164524928098385</v>
+        <v>0.2307283167087541</v>
       </c>
       <c r="G120" t="n">
         <v>54</v>
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.5140245831338056</v>
+        <v>0.4713363939257486</v>
       </c>
       <c r="F121" t="n">
-        <v>7.017244105026012e-05</v>
+        <v>0.0003213469160702576</v>
       </c>
       <c r="G121" t="n">
         <v>54</v>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9977128923921493</v>
+        <v>0.9982846694757392</v>
       </c>
       <c r="F122" t="n">
-        <v>1.578045482705376e-62</v>
+        <v>8.968152592306029e-66</v>
       </c>
       <c r="G122" t="n">
         <v>54</v>
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.9863917061370691</v>
+        <v>0.9869253647484197</v>
       </c>
       <c r="F123" t="n">
-        <v>1.888690803197593e-42</v>
+        <v>6.718023798924345e-43</v>
       </c>
       <c r="G123" t="n">
         <v>54</v>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.9936342158625413</v>
+        <v>0.9911946336392243</v>
       </c>
       <c r="F124" t="n">
-        <v>5.438169627876402e-51</v>
+        <v>2.431856446173676e-47</v>
       </c>
       <c r="G124" t="n">
         <v>54</v>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-0.102881756573944</v>
+        <v>-0.09819318448850679</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4591173070163644</v>
+        <v>0.479942162761785</v>
       </c>
       <c r="G125" t="n">
         <v>54</v>
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.9562018761235219</v>
+        <v>0.9507509345932982</v>
       </c>
       <c r="F126" t="n">
-        <v>2.066089302101297e-29</v>
+        <v>4.078760930496208e-28</v>
       </c>
       <c r="G126" t="n">
         <v>54</v>
@@ -4367,10 +4367,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-0.4466819016008622</v>
+        <v>-0.449894789354247</v>
       </c>
       <c r="F127" t="n">
-        <v>0.001017035858939333</v>
+        <v>0.0009253799568665559</v>
       </c>
       <c r="G127" t="n">
         <v>51</v>
@@ -4398,10 +4398,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-0.4989457472173677</v>
+        <v>-0.4759510520902678</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0001229125222185343</v>
+        <v>0.0002752023047897876</v>
       </c>
       <c r="G128" t="n">
         <v>54</v>
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.1880439538774715</v>
+        <v>0.1462115813269052</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1732974095512063</v>
+        <v>0.2914375811045409</v>
       </c>
       <c r="G129" t="n">
         <v>54</v>
@@ -4460,10 +4460,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.4914071548089403</v>
+        <v>0.4549402706896568</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0001611015749285911</v>
+        <v>0.0005478257681333807</v>
       </c>
       <c r="G130" t="n">
         <v>54</v>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.9977128923921493</v>
+        <v>0.9982846694757392</v>
       </c>
       <c r="F131" t="n">
-        <v>1.578045482705376e-62</v>
+        <v>8.968152592306029e-66</v>
       </c>
       <c r="G131" t="n">
         <v>54</v>
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.9834572136458928</v>
+        <v>0.9861254049933293</v>
       </c>
       <c r="F132" t="n">
-        <v>2.921740192373814e-40</v>
+        <v>3.115963215955554e-42</v>
       </c>
       <c r="G132" t="n">
         <v>54</v>
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.9915380217267008</v>
+        <v>0.9897084048027442</v>
       </c>
       <c r="F133" t="n">
-        <v>8.681137791267904e-48</v>
+        <v>1.378004743069751e-45</v>
       </c>
       <c r="G133" t="n">
         <v>54</v>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-0.09632170764246235</v>
+        <v>-0.0981513245664189</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4883919918296228</v>
+        <v>0.4801303125841596</v>
       </c>
       <c r="G134" t="n">
         <v>54</v>
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.9595959595959596</v>
+        <v>0.9521250238231369</v>
       </c>
       <c r="F135" t="n">
-        <v>2.645135245357339e-30</v>
+        <v>1.987707165478244e-28</v>
       </c>
       <c r="G135" t="n">
         <v>54</v>
@@ -4646,10 +4646,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-0.4605081564109931</v>
+        <v>-0.4613226544767687</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0006729084525188068</v>
+        <v>0.0006563756199546811</v>
       </c>
       <c r="G136" t="n">
         <v>51</v>
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-0.4990232653945164</v>
+        <v>-0.475089460454788</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0001225670086736881</v>
+        <v>0.0002833308734327155</v>
       </c>
       <c r="G137" t="n">
         <v>54</v>
@@ -4708,10 +4708,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.2153874012695274</v>
+        <v>0.1668833076229087</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1177813577109111</v>
+        <v>0.227770525188446</v>
       </c>
       <c r="G138" t="n">
         <v>54</v>
@@ -4739,10 +4739,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.5182181453285239</v>
+        <v>0.4731040883680739</v>
       </c>
       <c r="F139" t="n">
-        <v>5.975997469649469e-05</v>
+        <v>0.0003028990789028992</v>
       </c>
       <c r="G139" t="n">
         <v>54</v>
@@ -4770,10 +4770,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.9863917061370691</v>
+        <v>0.9869253647484197</v>
       </c>
       <c r="F140" t="n">
-        <v>1.888690803197593e-42</v>
+        <v>6.718023798924345e-43</v>
       </c>
       <c r="G140" t="n">
         <v>54</v>
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9834572136458928</v>
+        <v>0.9861254049933293</v>
       </c>
       <c r="F141" t="n">
-        <v>2.921740192373814e-40</v>
+        <v>3.115963215955554e-42</v>
       </c>
       <c r="G141" t="n">
         <v>54</v>
@@ -4832,10 +4832,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.9800266819134742</v>
+        <v>0.9792643415284923</v>
       </c>
       <c r="F142" t="n">
-        <v>3.762139510886577e-38</v>
+        <v>9.871189637079919e-38</v>
       </c>
       <c r="G142" t="n">
         <v>54</v>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-0.1152277491900133</v>
+        <v>-0.1158376214979988</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4067064757125569</v>
+        <v>0.4042107612144887</v>
       </c>
       <c r="G143" t="n">
         <v>54</v>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.9348961311225461</v>
+        <v>0.932456641890604</v>
       </c>
       <c r="F144" t="n">
-        <v>4.751286307188935e-25</v>
+        <v>1.199568673278407e-24</v>
       </c>
       <c r="G144" t="n">
         <v>54</v>
@@ -4925,10 +4925,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-0.4539016720997024</v>
+        <v>-0.4632231499635783</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0008214959984947954</v>
+        <v>0.0006192129839314154</v>
       </c>
       <c r="G145" t="n">
         <v>51</v>
@@ -4956,10 +4956,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-0.4946047292970426</v>
+        <v>-0.4781441944351254</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0001437451275006006</v>
+        <v>0.0002554594137842701</v>
       </c>
       <c r="G146" t="n">
         <v>54</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.2153453990461908</v>
+        <v>0.1527527360980543</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1178547210982764</v>
+        <v>0.2701486550959734</v>
       </c>
       <c r="G147" t="n">
         <v>54</v>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.5076852561958304</v>
+        <v>0.4621597161939748</v>
       </c>
       <c r="F148" t="n">
-        <v>8.910427496033633e-05</v>
+        <v>0.0004345719487357415</v>
       </c>
       <c r="G148" t="n">
         <v>54</v>
@@ -5049,10 +5049,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.9936342158625413</v>
+        <v>0.9911946336392244</v>
       </c>
       <c r="F149" t="n">
-        <v>5.438169627876402e-51</v>
+        <v>2.431856446172847e-47</v>
       </c>
       <c r="G149" t="n">
         <v>54</v>
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.9915380217267008</v>
+        <v>0.9897084048027442</v>
       </c>
       <c r="F150" t="n">
-        <v>8.681137791267904e-48</v>
+        <v>1.378004743069751e-45</v>
       </c>
       <c r="G150" t="n">
         <v>54</v>
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.9800266819134742</v>
+        <v>0.9792643415284923</v>
       </c>
       <c r="F151" t="n">
-        <v>3.762139510886577e-38</v>
+        <v>9.871189637079919e-38</v>
       </c>
       <c r="G151" t="n">
         <v>54</v>
@@ -5142,10 +5142,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-0.05683247570040022</v>
+        <v>-0.04227177434724604</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6831343365418305</v>
+        <v>0.7615087954521161</v>
       </c>
       <c r="G152" t="n">
         <v>54</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.9699637888317132</v>
+        <v>0.9700400228702114</v>
       </c>
       <c r="F153" t="n">
-        <v>1.346724732520576e-33</v>
+        <v>1.26179133516004e-33</v>
       </c>
       <c r="G153" t="n">
         <v>54</v>
@@ -5204,10 +5204,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>-0.4534491731742716</v>
+        <v>-0.4598746579153899</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0008326780048695563</v>
+        <v>0.0006860255586439989</v>
       </c>
       <c r="G154" t="n">
         <v>51</v>
@@ -5235,10 +5235,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-0.04496054274622439</v>
+        <v>-0.1284554801988051</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7468287646950158</v>
+        <v>0.3545984336566856</v>
       </c>
       <c r="G155" t="n">
         <v>54</v>
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.1142880496985928</v>
+        <v>0.1262946036583419</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4105693277467599</v>
+        <v>0.3628186665726716</v>
       </c>
       <c r="G156" t="n">
         <v>54</v>
@@ -5297,10 +5297,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.05289425415363574</v>
+        <v>0.1198120743269798</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7040471370730997</v>
+        <v>0.3881657117294882</v>
       </c>
       <c r="G157" t="n">
         <v>54</v>
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.102881756573944</v>
+        <v>-0.09819318448850679</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4591173070163644</v>
+        <v>0.479942162761785</v>
       </c>
       <c r="G158" t="n">
         <v>54</v>
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-0.09632170764246235</v>
+        <v>-0.0981513245664189</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4883919918296228</v>
+        <v>0.4801303125841596</v>
       </c>
       <c r="G159" t="n">
         <v>54</v>
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>-0.1152277491900133</v>
+        <v>-0.1158376214979988</v>
       </c>
       <c r="F160" t="n">
-        <v>0.4067064757125569</v>
+        <v>0.4042107612144887</v>
       </c>
       <c r="G160" t="n">
         <v>54</v>
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-0.05683247570040022</v>
+        <v>-0.04227177434724604</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6831343365418305</v>
+        <v>0.7615087954521161</v>
       </c>
       <c r="G161" t="n">
         <v>54</v>
@@ -5452,10 +5452,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.1023441966838193</v>
+        <v>0.1115685153421002</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4614797032847169</v>
+        <v>0.4218671225360192</v>
       </c>
       <c r="G162" t="n">
         <v>54</v>
@@ -5483,10 +5483,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.09620127154660228</v>
+        <v>0.02194619788339704</v>
       </c>
       <c r="F163" t="n">
-        <v>0.501874837010799</v>
+        <v>0.8785086154319589</v>
       </c>
       <c r="G163" t="n">
         <v>51</v>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-0.4861940070764127</v>
+        <v>-0.4922821299082257</v>
       </c>
       <c r="F164" t="n">
-        <v>0.000193541538102851</v>
+        <v>0.0001561713653846376</v>
       </c>
       <c r="G164" t="n">
         <v>54</v>
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.1774173913733392</v>
+        <v>0.1031070486042041</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1993345165711949</v>
+        <v>0.4581291834567806</v>
       </c>
       <c r="G165" t="n">
         <v>54</v>
@@ -5576,10 +5576,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.4752056562521062</v>
+        <v>0.4394261431165478</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0002822220517749314</v>
+        <v>0.000886035550421835</v>
       </c>
       <c r="G166" t="n">
         <v>54</v>
@@ -5607,10 +5607,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.956201876123522</v>
+        <v>0.9507509345932982</v>
       </c>
       <c r="F167" t="n">
-        <v>2.06608930210118e-29</v>
+        <v>4.078760930496208e-28</v>
       </c>
       <c r="G167" t="n">
         <v>54</v>
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.9595959595959596</v>
+        <v>0.9521250238231369</v>
       </c>
       <c r="F168" t="n">
-        <v>2.645135245357339e-30</v>
+        <v>1.987707165478244e-28</v>
       </c>
       <c r="G168" t="n">
         <v>54</v>
@@ -5669,10 +5669,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.9348961311225461</v>
+        <v>0.932456641890604</v>
       </c>
       <c r="F169" t="n">
-        <v>4.751286307188935e-25</v>
+        <v>1.199568673278407e-24</v>
       </c>
       <c r="G169" t="n">
         <v>54</v>
@@ -5700,10 +5700,10 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.9699637888317132</v>
+        <v>0.9700400228702114</v>
       </c>
       <c r="F170" t="n">
-        <v>1.346724732520576e-33</v>
+        <v>1.26179133516004e-33</v>
       </c>
       <c r="G170" t="n">
         <v>54</v>
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.1023441966838193</v>
+        <v>0.1115685153421002</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4614797032847169</v>
+        <v>0.4218671225360192</v>
       </c>
       <c r="G171" t="n">
         <v>54</v>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-0.4803728592374081</v>
+        <v>-0.4661643929788789</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0003603169598092341</v>
+        <v>0.0005654275260421728</v>
       </c>
       <c r="G172" t="n">
         <v>51</v>
@@ -5793,10 +5793,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.09911023224878097</v>
+        <v>0.1235835497275662</v>
       </c>
       <c r="F173" t="n">
-        <v>0.4889698110813017</v>
+        <v>0.3875867074475694</v>
       </c>
       <c r="G173" t="n">
         <v>51</v>
@@ -5824,10 +5824,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.05590554279342585</v>
+        <v>0.02501170153543364</v>
       </c>
       <c r="F174" t="n">
-        <v>0.696793410416926</v>
+        <v>0.8616939268346756</v>
       </c>
       <c r="G174" t="n">
         <v>51</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-0.0739749841094437</v>
+        <v>-0.08438460604683198</v>
       </c>
       <c r="F175" t="n">
-        <v>0.6059256744731121</v>
+        <v>0.556036744139055</v>
       </c>
       <c r="G175" t="n">
         <v>51</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-0.4466819016008622</v>
+        <v>-0.449894789354247</v>
       </c>
       <c r="F176" t="n">
-        <v>0.001017035858939333</v>
+        <v>0.0009253799568665559</v>
       </c>
       <c r="G176" t="n">
         <v>51</v>
@@ -5917,10 +5917,10 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-0.4605081564109931</v>
+        <v>-0.4613226544767687</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0006729084525188068</v>
+        <v>0.0006563756199546811</v>
       </c>
       <c r="G177" t="n">
         <v>51</v>
@@ -5948,10 +5948,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-0.4539016720997025</v>
+        <v>-0.4632231499635783</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0008214959984947954</v>
+        <v>0.0006192129839314154</v>
       </c>
       <c r="G178" t="n">
         <v>51</v>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-0.4534491731742716</v>
+        <v>-0.4598746579153899</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0008326780048695563</v>
+        <v>0.0006860255586439989</v>
       </c>
       <c r="G179" t="n">
         <v>51</v>
@@ -6010,10 +6010,10 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.09620127154660228</v>
+        <v>0.02194619788339704</v>
       </c>
       <c r="F180" t="n">
-        <v>0.501874837010799</v>
+        <v>0.8785086154319589</v>
       </c>
       <c r="G180" t="n">
         <v>51</v>
@@ -6041,10 +6041,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-0.4803728592374081</v>
+        <v>-0.4661643929788789</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0003603169598092341</v>
+        <v>0.0005654275260421728</v>
       </c>
       <c r="G181" t="n">
         <v>51</v>
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.2418767936602473</v>
+        <v>0.2061461779928763</v>
       </c>
       <c r="F182" t="n">
-        <v>0.07805197273755435</v>
+        <v>0.1347766721866883</v>
       </c>
       <c r="G182" t="n">
         <v>54</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-0.6650024107546901</v>
+        <v>-0.6754793708565289</v>
       </c>
       <c r="F183" t="n">
-        <v>4.142552427928043e-08</v>
+        <v>2.10393355856169e-08</v>
       </c>
       <c r="G183" t="n">
         <v>54</v>
@@ -6134,10 +6134,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-0.3944855509191491</v>
+        <v>-0.3699638687343152</v>
       </c>
       <c r="F184" t="n">
-        <v>0.003159673538973794</v>
+        <v>0.005896258694224334</v>
       </c>
       <c r="G184" t="n">
         <v>54</v>
@@ -6165,10 +6165,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.3980928634102868</v>
+        <v>-0.377275407642108</v>
       </c>
       <c r="F185" t="n">
-        <v>0.002871099921261882</v>
+        <v>0.004919337048444358</v>
       </c>
       <c r="G185" t="n">
         <v>54</v>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-0.4220507318322931</v>
+        <v>-0.40240401241468</v>
       </c>
       <c r="F186" t="n">
-        <v>0.00147884361495673</v>
+        <v>0.002557032884536421</v>
       </c>
       <c r="G186" t="n">
         <v>54</v>
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-0.3772883580871642</v>
+        <v>-0.3641531193918062</v>
       </c>
       <c r="F187" t="n">
-        <v>0.004917741180329008</v>
+        <v>0.006789731665960817</v>
       </c>
       <c r="G187" t="n">
         <v>54</v>
@@ -6258,10 +6258,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.4152825378639575</v>
+        <v>0.3568800622677387</v>
       </c>
       <c r="F188" t="n">
-        <v>0.001792481896142164</v>
+        <v>0.008072766153633344</v>
       </c>
       <c r="G188" t="n">
         <v>54</v>
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-0.1992387099428802</v>
+        <v>-0.1722059821703828</v>
       </c>
       <c r="F189" t="n">
-        <v>0.1486356725771158</v>
+        <v>0.2130703575961676</v>
       </c>
       <c r="G189" t="n">
         <v>54</v>
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.1620856058577435</v>
+        <v>-0.1530799873196461</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2558059016467744</v>
+        <v>0.2835205688187273</v>
       </c>
       <c r="G190" t="n">
         <v>51</v>
@@ -6351,10 +6351,10 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.2418767936602473</v>
+        <v>0.2061461779928763</v>
       </c>
       <c r="F191" t="n">
-        <v>0.07805197273755436</v>
+        <v>0.1347766721866882</v>
       </c>
       <c r="G191" t="n">
         <v>54</v>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.4037915851666374</v>
+        <v>0.403968993132417</v>
       </c>
       <c r="F192" t="n">
-        <v>0.002462647433756875</v>
+        <v>0.002450805673261245</v>
       </c>
       <c r="G192" t="n">
         <v>54</v>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-0.3924727073602638</v>
+        <v>-0.4563556727212412</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00333160414235271</v>
+        <v>0.0005237175379356781</v>
       </c>
       <c r="G193" t="n">
         <v>54</v>
@@ -6444,10 +6444,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-0.4088630572271273</v>
+        <v>-0.4727104755048287</v>
       </c>
       <c r="F194" t="n">
-        <v>0.002143448440599267</v>
+        <v>0.0003069214871610402</v>
       </c>
       <c r="G194" t="n">
         <v>54</v>
@@ -6475,10 +6475,10 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-0.3597286233879886</v>
+        <v>-0.4134040743217702</v>
       </c>
       <c r="F195" t="n">
-        <v>0.007547129903039074</v>
+        <v>0.001889452464250057</v>
       </c>
       <c r="G195" t="n">
         <v>54</v>
@@ -6506,10 +6506,10 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-0.3445315949729986</v>
+        <v>-0.4012999009745111</v>
       </c>
       <c r="F196" t="n">
-        <v>0.01073609460261227</v>
+        <v>0.002634416430250981</v>
       </c>
       <c r="G196" t="n">
         <v>54</v>
@@ -6537,10 +6537,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.3009877778046595</v>
+        <v>0.2261334860126722</v>
       </c>
       <c r="F197" t="n">
-        <v>0.02699371027223033</v>
+        <v>0.1001290972423182</v>
       </c>
       <c r="G197" t="n">
         <v>54</v>
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-0.2441760886781554</v>
+        <v>-0.3429245900489341</v>
       </c>
       <c r="F198" t="n">
-        <v>0.07517797940715702</v>
+        <v>0.01113307199858376</v>
       </c>
       <c r="G198" t="n">
         <v>54</v>
@@ -6599,10 +6599,10 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-0.037808228592448</v>
+        <v>0.06323648804365274</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7922383052493436</v>
+        <v>0.6593253078948111</v>
       </c>
       <c r="G199" t="n">
         <v>51</v>
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.6650024107546901</v>
+        <v>-0.6754793708565289</v>
       </c>
       <c r="F200" t="n">
-        <v>4.142552427928043e-08</v>
+        <v>2.10393355856169e-08</v>
       </c>
       <c r="G200" t="n">
         <v>54</v>
@@ -6661,10 +6661,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.4037915851666374</v>
+        <v>0.403968993132417</v>
       </c>
       <c r="F201" t="n">
-        <v>0.002462647433756875</v>
+        <v>0.002450805673261245</v>
       </c>
       <c r="G201" t="n">
         <v>54</v>
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.1663924891575802</v>
+        <v>0.1270644180893825</v>
       </c>
       <c r="F202" t="n">
-        <v>0.2291605436053857</v>
+        <v>0.3598770166647232</v>
       </c>
       <c r="G202" t="n">
         <v>54</v>
@@ -6723,10 +6723,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.1571955835602251</v>
+        <v>0.1183808503578432</v>
       </c>
       <c r="F203" t="n">
-        <v>0.2562946590204088</v>
+        <v>0.3938997138706507</v>
       </c>
       <c r="G203" t="n">
         <v>54</v>
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.2155441273969875</v>
+        <v>0.1813559278445374</v>
       </c>
       <c r="F204" t="n">
-        <v>0.1175079182976364</v>
+        <v>0.1893789262186862</v>
       </c>
       <c r="G204" t="n">
         <v>54</v>
@@ -6785,10 +6785,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.160420108351204</v>
+        <v>0.1255659263127009</v>
       </c>
       <c r="F205" t="n">
-        <v>0.2465450327142233</v>
+        <v>0.3656165425857637</v>
       </c>
       <c r="G205" t="n">
         <v>54</v>
@@ -6816,10 +6816,10 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-0.242146456922564</v>
+        <v>-0.2783736646681512</v>
       </c>
       <c r="F206" t="n">
-        <v>0.07771048039083159</v>
+        <v>0.04152620459682583</v>
       </c>
       <c r="G206" t="n">
         <v>54</v>
@@ -6847,10 +6847,10 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.004529689587327609</v>
+        <v>-0.08629775719043031</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9740672784792185</v>
+        <v>0.5349437152736325</v>
       </c>
       <c r="G207" t="n">
         <v>54</v>
@@ -6878,10 +6878,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.181002199409946</v>
+        <v>0.2260816326363822</v>
       </c>
       <c r="F208" t="n">
-        <v>0.2036937504378548</v>
+        <v>0.1106561960294899</v>
       </c>
       <c r="G208" t="n">
         <v>51</v>
@@ -6909,10 +6909,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-0.3944855509191491</v>
+        <v>-0.3699638687343152</v>
       </c>
       <c r="F209" t="n">
-        <v>0.003159673538973794</v>
+        <v>0.005896258694224315</v>
       </c>
       <c r="G209" t="n">
         <v>54</v>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-0.3924727073602638</v>
+        <v>-0.4563556727212412</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00333160414235271</v>
+        <v>0.0005237175379356781</v>
       </c>
       <c r="G210" t="n">
         <v>54</v>
@@ -6971,10 +6971,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.1663924891575802</v>
+        <v>0.1270644180893825</v>
       </c>
       <c r="F211" t="n">
-        <v>0.2291605436053857</v>
+        <v>0.3598770166647232</v>
       </c>
       <c r="G211" t="n">
         <v>54</v>
@@ -7002,10 +7002,10 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.9990661154113959</v>
+        <v>0.9981703830760433</v>
       </c>
       <c r="F212" t="n">
-        <v>1.234158159601008e-72</v>
+        <v>4.791000600886147e-65</v>
       </c>
       <c r="G212" t="n">
         <v>54</v>
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.9864872593226603</v>
+        <v>0.9840670859538783</v>
       </c>
       <c r="F213" t="n">
-        <v>1.57433590046064e-42</v>
+        <v>1.108420143224207e-40</v>
       </c>
       <c r="G213" t="n">
         <v>54</v>
@@ -7064,10 +7064,10 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.9771865293661406</v>
+        <v>0.9759862778730702</v>
       </c>
       <c r="F214" t="n">
-        <v>1.152678132048346e-36</v>
+        <v>4.308594638528625e-36</v>
       </c>
       <c r="G214" t="n">
         <v>54</v>
@@ -7095,10 +7095,10 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-0.754960071798478</v>
+        <v>-0.7171717171717171</v>
       </c>
       <c r="F215" t="n">
-        <v>4.257513854217455e-11</v>
+        <v>1.056036198939556e-09</v>
       </c>
       <c r="G215" t="n">
         <v>54</v>
@@ -7126,10 +7126,10 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.7161562066520147</v>
+        <v>0.6826376977320372</v>
       </c>
       <c r="F216" t="n">
-        <v>1.142994553768548e-09</v>
+        <v>1.303367181232191e-08</v>
       </c>
       <c r="G216" t="n">
         <v>54</v>
@@ -7157,10 +7157,10 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-0.2818000814516494</v>
+        <v>-0.2664766171862374</v>
       </c>
       <c r="F217" t="n">
-        <v>0.04513787028798685</v>
+        <v>0.05873376613779794</v>
       </c>
       <c r="G217" t="n">
         <v>51</v>
@@ -7188,10 +7188,10 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-0.3980928634102868</v>
+        <v>-0.377275407642108</v>
       </c>
       <c r="F218" t="n">
-        <v>0.002871099921261882</v>
+        <v>0.004919337048444371</v>
       </c>
       <c r="G218" t="n">
         <v>54</v>
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-0.4088630572271273</v>
+        <v>-0.4727104755048286</v>
       </c>
       <c r="F219" t="n">
-        <v>0.002143448440599267</v>
+        <v>0.000306921487161041</v>
       </c>
       <c r="G219" t="n">
         <v>54</v>
@@ -7250,10 +7250,10 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.1571955835602251</v>
+        <v>0.1183808503578432</v>
       </c>
       <c r="F220" t="n">
-        <v>0.2562946590204088</v>
+        <v>0.3938997138706507</v>
       </c>
       <c r="G220" t="n">
         <v>54</v>
@@ -7281,10 +7281,10 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.9990661154113959</v>
+        <v>0.9981703830760433</v>
       </c>
       <c r="F221" t="n">
-        <v>1.234158159601008e-72</v>
+        <v>4.791000600886147e-65</v>
       </c>
       <c r="G221" t="n">
         <v>54</v>
@@ -7312,10 +7312,10 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.9852868305698492</v>
+        <v>0.9815513626834379</v>
       </c>
       <c r="F222" t="n">
-        <v>1.418447163178072e-41</v>
+        <v>4.86231603770672e-39</v>
       </c>
       <c r="G222" t="n">
         <v>54</v>
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.9759862778730702</v>
+        <v>0.974690299218601</v>
       </c>
       <c r="F223" t="n">
-        <v>4.308594638528625e-36</v>
+        <v>1.663404581826098e-35</v>
       </c>
       <c r="G223" t="n">
         <v>54</v>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-0.7520106727653897</v>
+        <v>-0.7140461215932913</v>
       </c>
       <c r="F224" t="n">
-        <v>5.582884722113063e-11</v>
+        <v>1.345795549629431e-09</v>
       </c>
       <c r="G224" t="n">
         <v>54</v>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.7159519725557461</v>
+        <v>0.6854583571564702</v>
       </c>
       <c r="F225" t="n">
-        <v>1.161281902866523e-09</v>
+        <v>1.075253921966091e-08</v>
       </c>
       <c r="G225" t="n">
         <v>54</v>
@@ -7436,10 +7436,10 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-0.2828570782868348</v>
+        <v>-0.2731283513900712</v>
       </c>
       <c r="F226" t="n">
-        <v>0.04430392795655118</v>
+        <v>0.05247471597015504</v>
       </c>
       <c r="G226" t="n">
         <v>51</v>
@@ -7467,10 +7467,10 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-0.4220507318322931</v>
+        <v>-0.4024040124146801</v>
       </c>
       <c r="F227" t="n">
-        <v>0.00147884361495673</v>
+        <v>0.002557032884536415</v>
       </c>
       <c r="G227" t="n">
         <v>54</v>
@@ -7498,10 +7498,10 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-0.3597286233879886</v>
+        <v>-0.4134040743217702</v>
       </c>
       <c r="F228" t="n">
-        <v>0.007547129903039074</v>
+        <v>0.001889452464250057</v>
       </c>
       <c r="G228" t="n">
         <v>54</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.2155441273969875</v>
+        <v>0.1813559278445374</v>
       </c>
       <c r="F229" t="n">
-        <v>0.1175079182976363</v>
+        <v>0.1893789262186862</v>
       </c>
       <c r="G229" t="n">
         <v>54</v>
@@ -7560,10 +7560,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.9864872593226603</v>
+        <v>0.9840670859538783</v>
       </c>
       <c r="F230" t="n">
-        <v>1.57433590046064e-42</v>
+        <v>1.108420143224207e-40</v>
       </c>
       <c r="G230" t="n">
         <v>54</v>
@@ -7591,10 +7591,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.9852868305698492</v>
+        <v>0.9815513626834379</v>
       </c>
       <c r="F231" t="n">
-        <v>1.418447163178072e-41</v>
+        <v>4.86231603770672e-39</v>
       </c>
       <c r="G231" t="n">
         <v>54</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.9667619592147892</v>
+        <v>0.9653135124833238</v>
       </c>
       <c r="F232" t="n">
-        <v>1.803174846072134e-32</v>
+        <v>5.370218702018281e-32</v>
       </c>
       <c r="G232" t="n">
         <v>54</v>
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-0.7609300552696778</v>
+        <v>-0.7126739089003239</v>
       </c>
       <c r="F233" t="n">
-        <v>2.430974215246775e-11</v>
+        <v>1.495446464654748e-09</v>
       </c>
       <c r="G233" t="n">
         <v>54</v>
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.6956737183152277</v>
+        <v>0.6691442729178577</v>
       </c>
       <c r="F234" t="n">
-        <v>5.259780389233268e-09</v>
+        <v>3.179435328117683e-08</v>
       </c>
       <c r="G234" t="n">
         <v>54</v>
@@ -7715,10 +7715,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-0.294984049488382</v>
+        <v>-0.2888753139950654</v>
       </c>
       <c r="F235" t="n">
-        <v>0.03560656140844007</v>
+        <v>0.0397925039890693</v>
       </c>
       <c r="G235" t="n">
         <v>51</v>
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-0.3772883580871642</v>
+        <v>-0.3641531193918062</v>
       </c>
       <c r="F236" t="n">
-        <v>0.004917741180329008</v>
+        <v>0.006789731665960817</v>
       </c>
       <c r="G236" t="n">
         <v>54</v>
@@ -7777,10 +7777,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-0.3445315949729986</v>
+        <v>-0.4012999009745111</v>
       </c>
       <c r="F237" t="n">
-        <v>0.01073609460261228</v>
+        <v>0.002634416430250981</v>
       </c>
       <c r="G237" t="n">
         <v>54</v>
@@ -7808,10 +7808,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.160420108351204</v>
+        <v>0.1255659263127009</v>
       </c>
       <c r="F238" t="n">
-        <v>0.2465450327142233</v>
+        <v>0.3656165425857637</v>
       </c>
       <c r="G238" t="n">
         <v>54</v>
@@ -7839,10 +7839,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.9771865293661406</v>
+        <v>0.9759862778730702</v>
       </c>
       <c r="F239" t="n">
-        <v>1.152678132048346e-36</v>
+        <v>4.308594638528625e-36</v>
       </c>
       <c r="G239" t="n">
         <v>54</v>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.9759862778730702</v>
+        <v>0.974690299218601</v>
       </c>
       <c r="F240" t="n">
-        <v>4.308594638528625e-36</v>
+        <v>1.663404581826098e-35</v>
       </c>
       <c r="G240" t="n">
         <v>54</v>
@@ -7901,10 +7901,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.9667619592147892</v>
+        <v>0.9653135124833238</v>
       </c>
       <c r="F241" t="n">
-        <v>1.803174846072134e-32</v>
+        <v>5.370218702018281e-32</v>
       </c>
       <c r="G241" t="n">
         <v>54</v>
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-0.6548122736801981</v>
+        <v>-0.6132647226986848</v>
       </c>
       <c r="F242" t="n">
-        <v>7.807218896716945e-08</v>
+        <v>8.219229814153606e-07</v>
       </c>
       <c r="G242" t="n">
         <v>54</v>
@@ -7963,10 +7963,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.8078139889460644</v>
+        <v>0.7829616923956545</v>
       </c>
       <c r="F243" t="n">
-        <v>1.55997406393211e-13</v>
+        <v>2.647322214221166e-12</v>
       </c>
       <c r="G243" t="n">
         <v>54</v>
@@ -7994,10 +7994,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-0.3837643386579181</v>
+        <v>-0.3663431300288298</v>
       </c>
       <c r="F244" t="n">
-        <v>0.005435881340026017</v>
+        <v>0.00819407277431744</v>
       </c>
       <c r="G244" t="n">
         <v>51</v>
@@ -8025,10 +8025,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.4152825378639575</v>
+        <v>0.3568800622677387</v>
       </c>
       <c r="F245" t="n">
-        <v>0.001792481896142164</v>
+        <v>0.008072766153633344</v>
       </c>
       <c r="G245" t="n">
         <v>54</v>
@@ -8056,10 +8056,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.3009877778046595</v>
+        <v>0.2261334860126721</v>
       </c>
       <c r="F246" t="n">
-        <v>0.02699371027223033</v>
+        <v>0.1001290972423183</v>
       </c>
       <c r="G246" t="n">
         <v>54</v>
@@ -8087,10 +8087,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-0.242146456922564</v>
+        <v>-0.2783736646681512</v>
       </c>
       <c r="F247" t="n">
-        <v>0.07771048039083159</v>
+        <v>0.04152620459682583</v>
       </c>
       <c r="G247" t="n">
         <v>54</v>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-0.754960071798478</v>
+        <v>-0.7171717171717171</v>
       </c>
       <c r="F248" t="n">
-        <v>4.257513854217455e-11</v>
+        <v>1.056036198939556e-09</v>
       </c>
       <c r="G248" t="n">
         <v>54</v>
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-0.7520106727653897</v>
+        <v>-0.7140461215932913</v>
       </c>
       <c r="F249" t="n">
-        <v>5.582884722113063e-11</v>
+        <v>1.345795549629431e-09</v>
       </c>
       <c r="G249" t="n">
         <v>54</v>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-0.7609300552696778</v>
+        <v>-0.7126739089003239</v>
       </c>
       <c r="F250" t="n">
-        <v>2.430974215246775e-11</v>
+        <v>1.495446464654748e-09</v>
       </c>
       <c r="G250" t="n">
         <v>54</v>
@@ -8211,10 +8211,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-0.6548122736801981</v>
+        <v>-0.6132647226986848</v>
       </c>
       <c r="F251" t="n">
-        <v>7.807218896716945e-08</v>
+        <v>8.219229814153606e-07</v>
       </c>
       <c r="G251" t="n">
         <v>54</v>
@@ -8242,10 +8242,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-0.1827711072994092</v>
+        <v>-0.1126357918810749</v>
       </c>
       <c r="F252" t="n">
-        <v>0.1858901230887528</v>
+        <v>0.4174123803606032</v>
       </c>
       <c r="G252" t="n">
         <v>54</v>
@@ -8273,10 +8273,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-0.08393855066742578</v>
+        <v>-0.06674359150105286</v>
       </c>
       <c r="F253" t="n">
-        <v>0.5581340588996386</v>
+        <v>0.6416826321326894</v>
       </c>
       <c r="G253" t="n">
         <v>51</v>
@@ -8304,10 +8304,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.1992387099428802</v>
+        <v>-0.1722059821703828</v>
       </c>
       <c r="F254" t="n">
-        <v>0.1486356725771158</v>
+        <v>0.2130703575961676</v>
       </c>
       <c r="G254" t="n">
         <v>54</v>
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-0.2441760886781554</v>
+        <v>-0.3429245900489341</v>
       </c>
       <c r="F255" t="n">
-        <v>0.07517797940715702</v>
+        <v>0.01113307199858376</v>
       </c>
       <c r="G255" t="n">
         <v>54</v>
@@ -8366,10 +8366,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.004529689587327609</v>
+        <v>-0.08629775719043031</v>
       </c>
       <c r="F256" t="n">
-        <v>0.9740672784792185</v>
+        <v>0.5349437152736325</v>
       </c>
       <c r="G256" t="n">
         <v>54</v>
@@ -8397,10 +8397,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.7161562066520148</v>
+        <v>0.6826376977320372</v>
       </c>
       <c r="F257" t="n">
-        <v>1.14299455376854e-09</v>
+        <v>1.303367181232191e-08</v>
       </c>
       <c r="G257" t="n">
         <v>54</v>
@@ -8428,10 +8428,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.7159519725557461</v>
+        <v>0.6854583571564702</v>
       </c>
       <c r="F258" t="n">
-        <v>1.161281902866523e-09</v>
+        <v>1.075253921966091e-08</v>
       </c>
       <c r="G258" t="n">
         <v>54</v>
@@ -8459,10 +8459,10 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.6956737183152277</v>
+        <v>0.6691442729178577</v>
       </c>
       <c r="F259" t="n">
-        <v>5.259780389233268e-09</v>
+        <v>3.179435328117683e-08</v>
       </c>
       <c r="G259" t="n">
         <v>54</v>
@@ -8490,10 +8490,10 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.8078139889460644</v>
+        <v>0.7829616923956545</v>
       </c>
       <c r="F260" t="n">
-        <v>1.55997406393211e-13</v>
+        <v>2.647322214221166e-12</v>
       </c>
       <c r="G260" t="n">
         <v>54</v>
@@ -8521,10 +8521,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-0.1827711072994092</v>
+        <v>-0.1126357918810749</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1858901230887528</v>
+        <v>0.4174123803606032</v>
       </c>
       <c r="G261" t="n">
         <v>54</v>
@@ -8552,10 +8552,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-0.6423222246491155</v>
+        <v>-0.6411004775504521</v>
       </c>
       <c r="F262" t="n">
-        <v>3.756233316478915e-07</v>
+        <v>4.016741336220682e-07</v>
       </c>
       <c r="G262" t="n">
         <v>51</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-0.1620856058577435</v>
+        <v>-0.1530799873196461</v>
       </c>
       <c r="F263" t="n">
-        <v>0.2558059016467744</v>
+        <v>0.2835205688187273</v>
       </c>
       <c r="G263" t="n">
         <v>51</v>
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-0.037808228592448</v>
+        <v>0.06323648804365274</v>
       </c>
       <c r="F264" t="n">
-        <v>0.7922383052493436</v>
+        <v>0.6593253078948111</v>
       </c>
       <c r="G264" t="n">
         <v>51</v>
@@ -8645,10 +8645,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.1810021994099461</v>
+        <v>0.2260816326363822</v>
       </c>
       <c r="F265" t="n">
-        <v>0.2036937504378547</v>
+        <v>0.1106561960294899</v>
       </c>
       <c r="G265" t="n">
         <v>51</v>
@@ -8676,10 +8676,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-0.2818000814516494</v>
+        <v>-0.2664766171862374</v>
       </c>
       <c r="F266" t="n">
-        <v>0.04513787028798685</v>
+        <v>0.05873376613779794</v>
       </c>
       <c r="G266" t="n">
         <v>51</v>
@@ -8707,10 +8707,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-0.2828570782868348</v>
+        <v>-0.2731283513900712</v>
       </c>
       <c r="F267" t="n">
-        <v>0.04430392795655118</v>
+        <v>0.05247471597015504</v>
       </c>
       <c r="G267" t="n">
         <v>51</v>
@@ -8738,10 +8738,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-0.2949840494883821</v>
+        <v>-0.2888753139950654</v>
       </c>
       <c r="F268" t="n">
-        <v>0.03560656140844006</v>
+        <v>0.0397925039890693</v>
       </c>
       <c r="G268" t="n">
         <v>51</v>
@@ -8769,10 +8769,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-0.3837643386579181</v>
+        <v>-0.3663431300288297</v>
       </c>
       <c r="F269" t="n">
-        <v>0.005435881340026013</v>
+        <v>0.008194072774317449</v>
       </c>
       <c r="G269" t="n">
         <v>51</v>
@@ -8800,10 +8800,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-0.08393855066742578</v>
+        <v>-0.06674359150105284</v>
       </c>
       <c r="F270" t="n">
-        <v>0.5581340588996386</v>
+        <v>0.6416826321326894</v>
       </c>
       <c r="G270" t="n">
         <v>51</v>
@@ -8831,10 +8831,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-0.6423222246491155</v>
+        <v>-0.6411004775504521</v>
       </c>
       <c r="F271" t="n">
-        <v>3.756233316478915e-07</v>
+        <v>4.016741336220682e-07</v>
       </c>
       <c r="G271" t="n">
         <v>51</v>
@@ -8862,10 +8862,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.1960477200570746</v>
+        <v>-0.1124447116570004</v>
       </c>
       <c r="F272" t="n">
-        <v>0.1553834873560665</v>
+        <v>0.4182079524913841</v>
       </c>
       <c r="G272" t="n">
         <v>54</v>
@@ -8893,10 +8893,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-0.5699622993071386</v>
+        <v>-0.5610976410256777</v>
       </c>
       <c r="F273" t="n">
-        <v>6.837543743401507e-06</v>
+        <v>1.017409167535299e-05</v>
       </c>
       <c r="G273" t="n">
         <v>54</v>
@@ -8924,10 +8924,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-0.2100944046831836</v>
+        <v>-0.2425384884732905</v>
       </c>
       <c r="F274" t="n">
-        <v>0.1273034461823657</v>
+        <v>0.07721613316183232</v>
       </c>
       <c r="G274" t="n">
         <v>54</v>
@@ -8955,10 +8955,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-0.2165361614577327</v>
+        <v>-0.2477731321094047</v>
       </c>
       <c r="F275" t="n">
-        <v>0.1157883272913114</v>
+        <v>0.07085080196055843</v>
       </c>
       <c r="G275" t="n">
         <v>54</v>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-0.2081929222617806</v>
+        <v>-0.2495567884594881</v>
       </c>
       <c r="F276" t="n">
-        <v>0.1308625272964468</v>
+        <v>0.0687798933466847</v>
       </c>
       <c r="G276" t="n">
         <v>54</v>
@@ -9017,10 +9017,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-0.1079964403829516</v>
+        <v>-0.1495944825787298</v>
       </c>
       <c r="F277" t="n">
-        <v>0.4369720857938791</v>
+        <v>0.2802946465246774</v>
       </c>
       <c r="G277" t="n">
         <v>54</v>
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.2535956657932407</v>
+        <v>0.2340855083794172</v>
       </c>
       <c r="F278" t="n">
-        <v>0.064268903002278</v>
+        <v>0.08844079219906943</v>
       </c>
       <c r="G278" t="n">
         <v>54</v>
@@ -9079,10 +9079,10 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.06348622941663989</v>
+        <v>0.01167131655163237</v>
       </c>
       <c r="F279" t="n">
-        <v>0.6483389422413909</v>
+        <v>0.9332454359025035</v>
       </c>
       <c r="G279" t="n">
         <v>54</v>
@@ -9110,10 +9110,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-0.02097648143586783</v>
+        <v>-0.05130083093609634</v>
       </c>
       <c r="F280" t="n">
-        <v>0.8838390746717304</v>
+        <v>0.7207068632799527</v>
       </c>
       <c r="G280" t="n">
         <v>51</v>
@@ -9141,10 +9141,10 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-0.1960477200570746</v>
+        <v>-0.1124447116570004</v>
       </c>
       <c r="F281" t="n">
-        <v>0.1553834873560665</v>
+        <v>0.4182079524913839</v>
       </c>
       <c r="G281" t="n">
         <v>54</v>
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.8666336325119417</v>
+        <v>0.8206527377703978</v>
       </c>
       <c r="F282" t="n">
-        <v>2.512626725824348e-17</v>
+        <v>3.060842131058644e-14</v>
       </c>
       <c r="G282" t="n">
         <v>54</v>
@@ -9203,10 +9203,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.2266917233887988</v>
+        <v>0.2600555051009776</v>
       </c>
       <c r="F283" t="n">
-        <v>0.09927142165647436</v>
+        <v>0.0575497230949104</v>
       </c>
       <c r="G283" t="n">
         <v>54</v>
@@ -9234,10 +9234,10 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.1990218846662656</v>
+        <v>0.2267469461603802</v>
       </c>
       <c r="F284" t="n">
-        <v>0.149087185173608</v>
+        <v>0.09918688770753195</v>
       </c>
       <c r="G284" t="n">
         <v>54</v>
@@ -9265,10 +9265,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.1832160689714107</v>
+        <v>0.1993849560854903</v>
       </c>
       <c r="F285" t="n">
-        <v>0.1848027639100408</v>
+        <v>0.1483317054827964</v>
       </c>
       <c r="G285" t="n">
         <v>54</v>
@@ -9296,10 +9296,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.218769493028297</v>
+        <v>0.2501834234546396</v>
       </c>
       <c r="F286" t="n">
-        <v>0.1119874079254225</v>
+        <v>0.06806390947902403</v>
       </c>
       <c r="G286" t="n">
         <v>54</v>
@@ -9327,10 +9327,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.002280056542778576</v>
+        <v>0.1695355123674286</v>
       </c>
       <c r="F287" t="n">
-        <v>0.9869448847363009</v>
+        <v>0.2203603045831969</v>
       </c>
       <c r="G287" t="n">
         <v>54</v>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.07102955806147497</v>
+        <v>0.1777752025604352</v>
       </c>
       <c r="F288" t="n">
-        <v>0.60977775020627</v>
+        <v>0.1984150306119919</v>
       </c>
       <c r="G288" t="n">
         <v>54</v>
@@ -9389,10 +9389,10 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.1238932987658585</v>
+        <v>0.01721283827532286</v>
       </c>
       <c r="F289" t="n">
-        <v>0.3863889775474323</v>
+        <v>0.9045737497867408</v>
       </c>
       <c r="G289" t="n">
         <v>51</v>
@@ -9420,10 +9420,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-0.5699622993071387</v>
+        <v>-0.5610976410256777</v>
       </c>
       <c r="F290" t="n">
-        <v>6.837543743401471e-06</v>
+        <v>1.017409167535299e-05</v>
       </c>
       <c r="G290" t="n">
         <v>54</v>
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.8666336325119417</v>
+        <v>0.8206527377703978</v>
       </c>
       <c r="F291" t="n">
-        <v>2.512626725824348e-17</v>
+        <v>3.060842131058644e-14</v>
       </c>
       <c r="G291" t="n">
         <v>54</v>
@@ -9482,10 +9482,10 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.2389599590844723</v>
+        <v>0.301652668783314</v>
       </c>
       <c r="F292" t="n">
-        <v>0.08182202714821057</v>
+        <v>0.02664120565314283</v>
       </c>
       <c r="G292" t="n">
         <v>54</v>
@@ -9513,10 +9513,10 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.217871885956634</v>
+        <v>0.2775970654822447</v>
       </c>
       <c r="F293" t="n">
-        <v>0.113503400809949</v>
+        <v>0.0421216605651406</v>
       </c>
       <c r="G293" t="n">
         <v>54</v>
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.2200494587252695</v>
+        <v>0.272962148285701</v>
       </c>
       <c r="F294" t="n">
-        <v>0.1098525180718422</v>
+        <v>0.0458229670433558</v>
       </c>
       <c r="G294" t="n">
         <v>54</v>
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.1776822973144494</v>
+        <v>0.2382577269628207</v>
       </c>
       <c r="F295" t="n">
-        <v>0.1986534841210605</v>
+        <v>0.08275074889888523</v>
       </c>
       <c r="G295" t="n">
         <v>54</v>
@@ -9606,10 +9606,10 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-0.145668157312405</v>
+        <v>-0.05435493803219334</v>
       </c>
       <c r="F296" t="n">
-        <v>0.2932541409075213</v>
+        <v>0.6962642254612352</v>
       </c>
       <c r="G296" t="n">
         <v>54</v>
@@ -9637,10 +9637,10 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-0.01822284580068638</v>
+        <v>0.08507562887209402</v>
       </c>
       <c r="F297" t="n">
-        <v>0.8959434293018811</v>
+        <v>0.540764194208964</v>
       </c>
       <c r="G297" t="n">
         <v>54</v>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.07672266495156663</v>
+        <v>0.01757035817251728</v>
       </c>
       <c r="F298" t="n">
-        <v>0.592569708976183</v>
+        <v>0.9026011674112948</v>
       </c>
       <c r="G298" t="n">
         <v>51</v>
@@ -9699,10 +9699,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-0.2100944046831836</v>
+        <v>-0.2425384884732905</v>
       </c>
       <c r="F299" t="n">
-        <v>0.1273034461823656</v>
+        <v>0.07721613316183232</v>
       </c>
       <c r="G299" t="n">
         <v>54</v>
@@ -9730,10 +9730,10 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.2266917233887988</v>
+        <v>0.2600555051009776</v>
       </c>
       <c r="F300" t="n">
-        <v>0.09927142165647436</v>
+        <v>0.0575497230949104</v>
       </c>
       <c r="G300" t="n">
         <v>54</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.2389599590844724</v>
+        <v>0.301652668783314</v>
       </c>
       <c r="F301" t="n">
-        <v>0.08182202714821048</v>
+        <v>0.02664120565314283</v>
       </c>
       <c r="G301" t="n">
         <v>54</v>
@@ -9792,10 +9792,10 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.9957308938441012</v>
+        <v>0.9956546598056031</v>
       </c>
       <c r="F302" t="n">
-        <v>1.718113267344678e-55</v>
+        <v>2.719631192284694e-55</v>
       </c>
       <c r="G302" t="n">
         <v>54</v>
@@ -9823,10 +9823,10 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.9798742138364779</v>
+        <v>0.9747665332570992</v>
       </c>
       <c r="F303" t="n">
-        <v>4.576135437367016e-38</v>
+        <v>1.539355115385187e-35</v>
       </c>
       <c r="G303" t="n">
         <v>54</v>
@@ -9854,10 +9854,10 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.9733943205641318</v>
+        <v>0.9794168096054887</v>
       </c>
       <c r="F304" t="n">
-        <v>5.998064302720991e-35</v>
+        <v>8.162827897689493e-38</v>
       </c>
       <c r="G304" t="n">
         <v>54</v>
@@ -9885,10 +9885,10 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.16378883171336</v>
+        <v>0.1865828092243186</v>
       </c>
       <c r="F305" t="n">
-        <v>0.236632183466214</v>
+        <v>0.176723196859128</v>
       </c>
       <c r="G305" t="n">
         <v>54</v>
@@ -9916,10 +9916,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.8654469220506954</v>
+        <v>0.8842767295597482</v>
       </c>
       <c r="F306" t="n">
-        <v>3.11561478477484e-17</v>
+        <v>7.86586837354123e-19</v>
       </c>
       <c r="G306" t="n">
         <v>54</v>
@@ -9947,10 +9947,10 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-0.340475598675615</v>
+        <v>-0.2968527282445554</v>
       </c>
       <c r="F307" t="n">
-        <v>0.01449590701752741</v>
+        <v>0.03440129433508995</v>
       </c>
       <c r="G307" t="n">
         <v>51</v>
@@ -9978,10 +9978,10 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-0.2165361614577327</v>
+        <v>-0.2477731321094047</v>
       </c>
       <c r="F308" t="n">
-        <v>0.1157883272913114</v>
+        <v>0.07085080196055843</v>
       </c>
       <c r="G308" t="n">
         <v>54</v>
@@ -10009,10 +10009,10 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.1990218846662656</v>
+        <v>0.2267469461603802</v>
       </c>
       <c r="F309" t="n">
-        <v>0.149087185173608</v>
+        <v>0.09918688770753195</v>
       </c>
       <c r="G309" t="n">
         <v>54</v>
@@ -10040,10 +10040,10 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.217871885956634</v>
+        <v>0.2775970654822447</v>
       </c>
       <c r="F310" t="n">
-        <v>0.113503400809949</v>
+        <v>0.0421216605651406</v>
       </c>
       <c r="G310" t="n">
         <v>54</v>
@@ -10071,10 +10071,10 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.9957308938441012</v>
+        <v>0.9956546598056031</v>
       </c>
       <c r="F311" t="n">
-        <v>1.718113267344678e-55</v>
+        <v>2.719631192284694e-55</v>
       </c>
       <c r="G311" t="n">
         <v>54</v>
@@ -10102,10 +10102,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.9796455117209832</v>
+        <v>0.9748427672955974</v>
       </c>
       <c r="F312" t="n">
-        <v>6.12184926110036e-38</v>
+        <v>1.424218646241006e-35</v>
       </c>
       <c r="G312" t="n">
         <v>54</v>
@@ -10133,10 +10133,10 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.9667619592147892</v>
+        <v>0.9742328949876118</v>
       </c>
       <c r="F313" t="n">
-        <v>1.803174846072134e-32</v>
+        <v>2.635251303798919e-35</v>
       </c>
       <c r="G313" t="n">
         <v>54</v>
@@ -10164,10 +10164,10 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.1570040022870212</v>
+        <v>0.1806365542214599</v>
       </c>
       <c r="F314" t="n">
-        <v>0.2568819879323485</v>
+        <v>0.1911702289125112</v>
       </c>
       <c r="G314" t="n">
         <v>54</v>
@@ -10195,10 +10195,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.8619401562797789</v>
+        <v>0.8835143891747664</v>
       </c>
       <c r="F315" t="n">
-        <v>5.814236462972496e-17</v>
+        <v>9.240080642317427e-19</v>
       </c>
       <c r="G315" t="n">
         <v>54</v>
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-0.329298369426163</v>
+        <v>-0.2864900339201646</v>
       </c>
       <c r="F316" t="n">
-        <v>0.01829522410534541</v>
+        <v>0.04153316201689465</v>
       </c>
       <c r="G316" t="n">
         <v>51</v>
@@ -10257,10 +10257,10 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-0.2081929222617806</v>
+        <v>-0.2495567884594881</v>
       </c>
       <c r="F317" t="n">
-        <v>0.1308625272964466</v>
+        <v>0.0687798933466847</v>
       </c>
       <c r="G317" t="n">
         <v>54</v>
@@ -10288,10 +10288,10 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.1832160689714107</v>
+        <v>0.1993849560854903</v>
       </c>
       <c r="F318" t="n">
-        <v>0.1848027639100408</v>
+        <v>0.1483317054827964</v>
       </c>
       <c r="G318" t="n">
         <v>54</v>
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.2200494587252695</v>
+        <v>0.272962148285701</v>
       </c>
       <c r="F319" t="n">
-        <v>0.1098525180718422</v>
+        <v>0.0458229670433558</v>
       </c>
       <c r="G319" t="n">
         <v>54</v>
@@ -10350,10 +10350,10 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.9798742138364779</v>
+        <v>0.9747665332570992</v>
       </c>
       <c r="F320" t="n">
-        <v>4.576135437367016e-38</v>
+        <v>1.539355115385187e-35</v>
       </c>
       <c r="G320" t="n">
         <v>54</v>
@@ -10381,10 +10381,10 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.9796455117209832</v>
+        <v>0.9748427672955974</v>
       </c>
       <c r="F321" t="n">
-        <v>6.12184926110036e-38</v>
+        <v>1.424218646241006e-35</v>
       </c>
       <c r="G321" t="n">
         <v>54</v>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.9455688965122926</v>
+        <v>0.9503716409376786</v>
       </c>
       <c r="F322" t="n">
-        <v>5.157596428139026e-27</v>
+        <v>4.955971312033414e-28</v>
       </c>
       <c r="G322" t="n">
         <v>54</v>
@@ -10443,10 +10443,10 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.1398513436249285</v>
+        <v>0.1588336192109777</v>
       </c>
       <c r="F323" t="n">
-        <v>0.3131597859841352</v>
+        <v>0.2513099166322599</v>
       </c>
       <c r="G323" t="n">
         <v>54</v>
@@ -10474,10 +10474,10 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.8502001143510577</v>
+        <v>0.8662854964741756</v>
       </c>
       <c r="F324" t="n">
-        <v>4.171394366221053e-16</v>
+        <v>2.676855936019695e-17</v>
       </c>
       <c r="G324" t="n">
         <v>54</v>
@@ -10505,10 +10505,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-0.4120641682004453</v>
+        <v>-0.3524673628501284</v>
       </c>
       <c r="F325" t="n">
-        <v>0.00266015153209496</v>
+        <v>0.01119016288776404</v>
       </c>
       <c r="G325" t="n">
         <v>51</v>
@@ -10536,10 +10536,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-0.1079964403829516</v>
+        <v>-0.1495944825787298</v>
       </c>
       <c r="F326" t="n">
-        <v>0.4369720857938791</v>
+        <v>0.2802946465246776</v>
       </c>
       <c r="G326" t="n">
         <v>54</v>
@@ -10567,10 +10567,10 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.218769493028297</v>
+        <v>0.2501834234546396</v>
       </c>
       <c r="F327" t="n">
-        <v>0.1119874079254225</v>
+        <v>0.06806390947902403</v>
       </c>
       <c r="G327" t="n">
         <v>54</v>
@@ -10598,10 +10598,10 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.1776822973144494</v>
+        <v>0.2382577269628207</v>
       </c>
       <c r="F328" t="n">
-        <v>0.1986534841210605</v>
+        <v>0.08275074889888523</v>
       </c>
       <c r="G328" t="n">
         <v>54</v>
@@ -10629,10 +10629,10 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.9733943205641318</v>
+        <v>0.9794168096054887</v>
       </c>
       <c r="F329" t="n">
-        <v>5.998064302720991e-35</v>
+        <v>8.162827897689493e-38</v>
       </c>
       <c r="G329" t="n">
         <v>54</v>
@@ -10660,10 +10660,10 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.9667619592147892</v>
+        <v>0.9742328949876118</v>
       </c>
       <c r="F330" t="n">
-        <v>1.803174846072134e-32</v>
+        <v>2.635251303798919e-35</v>
       </c>
       <c r="G330" t="n">
         <v>54</v>
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.9455688965122926</v>
+        <v>0.9503716409376786</v>
       </c>
       <c r="F331" t="n">
-        <v>5.157596428139026e-27</v>
+        <v>4.955971312033414e-28</v>
       </c>
       <c r="G331" t="n">
         <v>54</v>
@@ -10722,10 +10722,10 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.3097007813988945</v>
+        <v>0.3064989517819706</v>
       </c>
       <c r="F332" t="n">
-        <v>0.02267168837886161</v>
+        <v>0.02418664905822717</v>
       </c>
       <c r="G332" t="n">
         <v>54</v>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.9370306842004954</v>
+        <v>0.9427482370878597</v>
       </c>
       <c r="F333" t="n">
-        <v>2.050636342026631e-25</v>
+        <v>1.852652468526764e-26</v>
       </c>
       <c r="G333" t="n">
         <v>54</v>
@@ -10784,10 +10784,10 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-0.3299318965900996</v>
+        <v>-0.2810598010864228</v>
       </c>
       <c r="F334" t="n">
-        <v>0.01805930235238074</v>
+        <v>0.04572953243408251</v>
       </c>
       <c r="G334" t="n">
         <v>51</v>
@@ -10815,10 +10815,10 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.2535956657932407</v>
+        <v>0.2340855083794172</v>
       </c>
       <c r="F335" t="n">
-        <v>0.064268903002278</v>
+        <v>0.08844079219906943</v>
       </c>
       <c r="G335" t="n">
         <v>54</v>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.002280056542778577</v>
+        <v>0.1695355123674286</v>
       </c>
       <c r="F336" t="n">
-        <v>0.9869448847363009</v>
+        <v>0.2203603045831969</v>
       </c>
       <c r="G336" t="n">
         <v>54</v>
@@ -10877,10 +10877,10 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-0.145668157312405</v>
+        <v>-0.05435493803219334</v>
       </c>
       <c r="F337" t="n">
-        <v>0.2932541409075213</v>
+        <v>0.6962642254612352</v>
       </c>
       <c r="G337" t="n">
         <v>54</v>
@@ -10908,10 +10908,10 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.16378883171336</v>
+        <v>0.1865828092243186</v>
       </c>
       <c r="F338" t="n">
-        <v>0.236632183466214</v>
+        <v>0.176723196859128</v>
       </c>
       <c r="G338" t="n">
         <v>54</v>
@@ -10939,10 +10939,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.1570040022870212</v>
+        <v>0.1806365542214599</v>
       </c>
       <c r="F339" t="n">
-        <v>0.2568819879323485</v>
+        <v>0.1911702289125112</v>
       </c>
       <c r="G339" t="n">
         <v>54</v>
@@ -10970,10 +10970,10 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.1398513436249285</v>
+        <v>0.1588336192109777</v>
       </c>
       <c r="F340" t="n">
-        <v>0.3131597859841352</v>
+        <v>0.2513099166322599</v>
       </c>
       <c r="G340" t="n">
         <v>54</v>
@@ -11001,10 +11001,10 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.3097007813988945</v>
+        <v>0.3064989517819706</v>
       </c>
       <c r="F341" t="n">
-        <v>0.02267168837886161</v>
+        <v>0.02418664905822717</v>
       </c>
       <c r="G341" t="n">
         <v>54</v>
@@ -11032,10 +11032,10 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.4856489422527158</v>
+        <v>0.469258623975605</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0001972563769004793</v>
+        <v>0.0003443319757796937</v>
       </c>
       <c r="G342" t="n">
         <v>54</v>
@@ -11063,10 +11063,10 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.03629205610550814</v>
+        <v>0.02755843163123997</v>
       </c>
       <c r="F343" t="n">
-        <v>0.8003956687875562</v>
+        <v>0.8477704952931153</v>
       </c>
       <c r="G343" t="n">
         <v>51</v>
@@ -11094,10 +11094,10 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.06348622941663989</v>
+        <v>0.01167131655163237</v>
       </c>
       <c r="F344" t="n">
-        <v>0.6483389422413909</v>
+        <v>0.9332454359025035</v>
       </c>
       <c r="G344" t="n">
         <v>54</v>
@@ -11125,10 +11125,10 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.07102955806147497</v>
+        <v>0.1777752025604352</v>
       </c>
       <c r="F345" t="n">
-        <v>0.60977775020627</v>
+        <v>0.1984150306119919</v>
       </c>
       <c r="G345" t="n">
         <v>54</v>
@@ -11156,10 +11156,10 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.01822284580068638</v>
+        <v>0.08507562887209402</v>
       </c>
       <c r="F346" t="n">
-        <v>0.8959434293018811</v>
+        <v>0.540764194208964</v>
       </c>
       <c r="G346" t="n">
         <v>54</v>
@@ -11187,10 +11187,10 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.8654469220506954</v>
+        <v>0.8842767295597482</v>
       </c>
       <c r="F347" t="n">
-        <v>3.11561478477484e-17</v>
+        <v>7.86586837354123e-19</v>
       </c>
       <c r="G347" t="n">
         <v>54</v>
@@ -11218,10 +11218,10 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.8619401562797789</v>
+        <v>0.8835143891747664</v>
       </c>
       <c r="F348" t="n">
-        <v>5.814236462972496e-17</v>
+        <v>9.240080642317427e-19</v>
       </c>
       <c r="G348" t="n">
         <v>54</v>
@@ -11249,10 +11249,10 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.8502001143510577</v>
+        <v>0.8662854964741756</v>
       </c>
       <c r="F349" t="n">
-        <v>4.171394366221053e-16</v>
+        <v>2.676855936019695e-17</v>
       </c>
       <c r="G349" t="n">
         <v>54</v>
@@ -11280,10 +11280,10 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.9370306842004954</v>
+        <v>0.9427482370878597</v>
       </c>
       <c r="F350" t="n">
-        <v>2.050636342026631e-25</v>
+        <v>1.852652468526764e-26</v>
       </c>
       <c r="G350" t="n">
         <v>54</v>
@@ -11311,10 +11311,10 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.4856489422527158</v>
+        <v>0.469258623975605</v>
       </c>
       <c r="F351" t="n">
-        <v>0.0001972563769004793</v>
+        <v>0.0003443319757796937</v>
       </c>
       <c r="G351" t="n">
         <v>54</v>
@@ -11342,10 +11342,10 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-0.3436432344952978</v>
+        <v>-0.3274430398746346</v>
       </c>
       <c r="F352" t="n">
-        <v>0.01355047887445994</v>
+        <v>0.01900122901700458</v>
       </c>
       <c r="G352" t="n">
         <v>51</v>
@@ -11373,10 +11373,10 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-0.02097648143586783</v>
+        <v>-0.05130083093609634</v>
       </c>
       <c r="F353" t="n">
-        <v>0.8838390746717304</v>
+        <v>0.7207068632799527</v>
       </c>
       <c r="G353" t="n">
         <v>51</v>
@@ -11404,10 +11404,10 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.1238932987658585</v>
+        <v>0.01721283827532286</v>
       </c>
       <c r="F354" t="n">
-        <v>0.3863889775474323</v>
+        <v>0.9045737497867408</v>
       </c>
       <c r="G354" t="n">
         <v>51</v>
@@ -11435,10 +11435,10 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.07672266495156663</v>
+        <v>0.01757035817251729</v>
       </c>
       <c r="F355" t="n">
-        <v>0.592569708976183</v>
+        <v>0.9026011674112947</v>
       </c>
       <c r="G355" t="n">
         <v>51</v>
@@ -11466,10 +11466,10 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-0.340475598675615</v>
+        <v>-0.2968527282445553</v>
       </c>
       <c r="F356" t="n">
-        <v>0.01449590701752741</v>
+        <v>0.03440129433509</v>
       </c>
       <c r="G356" t="n">
         <v>51</v>
@@ -11497,10 +11497,10 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-0.329298369426163</v>
+        <v>-0.2864900339201646</v>
       </c>
       <c r="F357" t="n">
-        <v>0.01829522410534541</v>
+        <v>0.04153316201689465</v>
       </c>
       <c r="G357" t="n">
         <v>51</v>
@@ -11528,10 +11528,10 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-0.4120641682004453</v>
+        <v>-0.3524673628501284</v>
       </c>
       <c r="F358" t="n">
-        <v>0.00266015153209496</v>
+        <v>0.01119016288776404</v>
       </c>
       <c r="G358" t="n">
         <v>51</v>
@@ -11559,10 +11559,10 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-0.3299318965900996</v>
+        <v>-0.2810598010864228</v>
       </c>
       <c r="F359" t="n">
-        <v>0.01805930235238074</v>
+        <v>0.04572953243408246</v>
       </c>
       <c r="G359" t="n">
         <v>51</v>
@@ -11590,10 +11590,10 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.03629205610550814</v>
+        <v>0.02755843163123997</v>
       </c>
       <c r="F360" t="n">
-        <v>0.8003956687875562</v>
+        <v>0.8477704952931153</v>
       </c>
       <c r="G360" t="n">
         <v>51</v>
@@ -11621,10 +11621,10 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-0.3436432344952978</v>
+        <v>-0.3274430398746346</v>
       </c>
       <c r="F361" t="n">
-        <v>0.01355047887445992</v>
+        <v>0.01900122901700458</v>
       </c>
       <c r="G361" t="n">
         <v>51</v>
@@ -11652,10 +11652,10 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.6004831677288262</v>
+        <v>-0.6113917182265741</v>
       </c>
       <c r="F362" t="n">
-        <v>1.586755333900353e-06</v>
+        <v>9.067384232523167e-07</v>
       </c>
       <c r="G362" t="n">
         <v>54</v>
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-0.7428161186168747</v>
+        <v>-0.7556880338474177</v>
       </c>
       <c r="F363" t="n">
-        <v>1.269213514639116e-10</v>
+        <v>3.979704245772298e-11</v>
       </c>
       <c r="G363" t="n">
         <v>54</v>
@@ -11714,10 +11714,10 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-0.6659901054783455</v>
+        <v>-0.6736718572707597</v>
       </c>
       <c r="F364" t="n">
-        <v>3.890696863788802e-08</v>
+        <v>2.36940564210724e-08</v>
       </c>
       <c r="G364" t="n">
         <v>54</v>
@@ -11745,10 +11745,10 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.6659901054783455</v>
+        <v>-0.6730089905893332</v>
       </c>
       <c r="F365" t="n">
-        <v>3.890696863788802e-08</v>
+        <v>2.474432590473922e-08</v>
       </c>
       <c r="G365" t="n">
         <v>54</v>
@@ -11776,10 +11776,10 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-0.6522769410371</v>
+        <v>-0.6640344190548043</v>
       </c>
       <c r="F366" t="n">
-        <v>9.10685855741499e-08</v>
+        <v>4.404198314383199e-08</v>
       </c>
       <c r="G366" t="n">
         <v>54</v>
@@ -11807,10 +11807,10 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-0.6534930932352533</v>
+        <v>-0.6551437220205982</v>
       </c>
       <c r="F367" t="n">
-        <v>8.459980009023358e-08</v>
+        <v>7.650813675753759e-08</v>
       </c>
       <c r="G367" t="n">
         <v>54</v>
@@ -11838,10 +11838,10 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-0.04982030384158898</v>
+        <v>-0.03065612986794632</v>
       </c>
       <c r="F368" t="n">
-        <v>0.720523766751845</v>
+        <v>0.8258274622743329</v>
       </c>
       <c r="G368" t="n">
         <v>54</v>
@@ -11869,10 +11869,10 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-0.6575609126566626</v>
+        <v>-0.6579954550315702</v>
       </c>
       <c r="F369" t="n">
-        <v>6.596071436154738e-08</v>
+        <v>6.421589866475858e-08</v>
       </c>
       <c r="G369" t="n">
         <v>54</v>
@@ -11900,10 +11900,10 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.02221726747177072</v>
+        <v>0.01066259443445853</v>
       </c>
       <c r="F370" t="n">
-        <v>0.8770195096428672</v>
+        <v>0.9408031348449666</v>
       </c>
       <c r="G370" t="n">
         <v>51</v>
@@ -11931,10 +11931,10 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-0.6004831677288262</v>
+        <v>-0.611391718226574</v>
       </c>
       <c r="F371" t="n">
-        <v>1.586755333900353e-06</v>
+        <v>9.067384232523201e-07</v>
       </c>
       <c r="G371" t="n">
         <v>54</v>
@@ -11962,10 +11962,10 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0.9644346473533949</v>
+        <v>0.9530384278283515</v>
       </c>
       <c r="F372" t="n">
-        <v>1.018258341617995e-31</v>
+        <v>1.218205207641699e-28</v>
       </c>
       <c r="G372" t="n">
         <v>54</v>
@@ -11993,10 +11993,10 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.6766405402429333</v>
+        <v>0.7056378461054427</v>
       </c>
       <c r="F373" t="n">
-        <v>1.948447050534509e-08</v>
+        <v>2.543797798123676e-09</v>
       </c>
       <c r="G373" t="n">
         <v>54</v>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.6627638970569097</v>
+        <v>0.7007430604631162</v>
       </c>
       <c r="F374" t="n">
-        <v>4.771247092023262e-08</v>
+        <v>3.648086431198865e-09</v>
       </c>
       <c r="G374" t="n">
         <v>54</v>
@@ -12055,10 +12055,10 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.6756768844661259</v>
+        <v>0.7072515099411016</v>
       </c>
       <c r="F375" t="n">
-        <v>2.076686243642408e-08</v>
+        <v>2.255101353581473e-09</v>
       </c>
       <c r="G375" t="n">
         <v>54</v>
@@ -12086,10 +12086,10 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.683848685453451</v>
+        <v>0.7207332981455006</v>
       </c>
       <c r="F376" t="n">
-        <v>1.200348411195898e-08</v>
+        <v>7.979397891707816e-10</v>
       </c>
       <c r="G376" t="n">
         <v>54</v>
@@ -12117,10 +12117,10 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.03126099339962509</v>
+        <v>0.06028063921277137</v>
       </c>
       <c r="F377" t="n">
-        <v>0.822446035761589</v>
+        <v>0.6650150835841194</v>
       </c>
       <c r="G377" t="n">
         <v>54</v>
@@ -12148,10 +12148,10 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.6364753674656097</v>
+        <v>0.6811014897170523</v>
       </c>
       <c r="F378" t="n">
-        <v>2.303942360538848e-07</v>
+        <v>1.446060572624724e-08</v>
       </c>
       <c r="G378" t="n">
         <v>54</v>
@@ -12179,10 +12179,10 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-0.03184372936522048</v>
+        <v>-0.02184290619717483</v>
       </c>
       <c r="F379" t="n">
-        <v>0.8244476630353736</v>
+        <v>0.8790761524918784</v>
       </c>
       <c r="G379" t="n">
         <v>51</v>
@@ -12210,10 +12210,10 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.7428161186168747</v>
+        <v>-0.7556880338474177</v>
       </c>
       <c r="F380" t="n">
-        <v>1.269213514639116e-10</v>
+        <v>3.979704245772298e-11</v>
       </c>
       <c r="G380" t="n">
         <v>54</v>
@@ -12241,10 +12241,10 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.9644346473533949</v>
+        <v>0.9530384278283516</v>
       </c>
       <c r="F381" t="n">
-        <v>1.018258341617995e-31</v>
+        <v>1.218205207641612e-28</v>
       </c>
       <c r="G381" t="n">
         <v>54</v>
@@ -12272,10 +12272,10 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.6748008001945138</v>
+        <v>0.6920471639230952</v>
       </c>
       <c r="F382" t="n">
-        <v>2.200130313761877e-08</v>
+        <v>6.802454198957313e-09</v>
       </c>
       <c r="G382" t="n">
         <v>54</v>
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.661129670848438</v>
+        <v>0.6866373968786874</v>
       </c>
       <c r="F383" t="n">
-        <v>5.28573764532679e-08</v>
+        <v>9.915367509784749e-09</v>
       </c>
       <c r="G383" t="n">
         <v>54</v>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.6756072432177376</v>
+        <v>0.6960043135935318</v>
       </c>
       <c r="F384" t="n">
-        <v>2.086255216708529e-08</v>
+        <v>5.136934059594189e-09</v>
       </c>
       <c r="G384" t="n">
         <v>54</v>
@@ -12365,10 +12365,10 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.6843245082782972</v>
+        <v>0.7069516565853662</v>
       </c>
       <c r="F385" t="n">
-        <v>1.162010642315368e-08</v>
+        <v>2.306290772399066e-09</v>
       </c>
       <c r="G385" t="n">
         <v>54</v>
@@ -12396,10 +12396,10 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.07730332408328913</v>
+        <v>0.1157565880439397</v>
       </c>
       <c r="F386" t="n">
-        <v>0.5784832230395753</v>
+        <v>0.4045418521774471</v>
       </c>
       <c r="G386" t="n">
         <v>54</v>
@@ -12427,10 +12427,10 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.6400085440497251</v>
+        <v>0.6689443319728704</v>
       </c>
       <c r="F387" t="n">
-        <v>1.880752987561216e-07</v>
+        <v>3.220616746018705e-08</v>
       </c>
       <c r="G387" t="n">
         <v>54</v>
@@ -12458,10 +12458,10 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.04797402396329539</v>
+        <v>-0.03762361526439462</v>
       </c>
       <c r="F388" t="n">
-        <v>0.7381516052308199</v>
+        <v>0.7932304095411634</v>
       </c>
       <c r="G388" t="n">
         <v>51</v>
@@ -12489,10 +12489,10 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-0.6659901054783455</v>
+        <v>-0.6736718572707598</v>
       </c>
       <c r="F389" t="n">
-        <v>3.890696863788802e-08</v>
+        <v>2.369405642107228e-08</v>
       </c>
       <c r="G389" t="n">
         <v>54</v>
@@ -12520,10 +12520,10 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.6766405402429332</v>
+        <v>0.7056378461054426</v>
       </c>
       <c r="F390" t="n">
-        <v>1.948447050534509e-08</v>
+        <v>2.543797798123713e-09</v>
       </c>
       <c r="G390" t="n">
         <v>54</v>
@@ -12551,10 +12551,10 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.6748008001945139</v>
+        <v>0.6920471639230952</v>
       </c>
       <c r="F391" t="n">
-        <v>2.200130313761873e-08</v>
+        <v>6.802454198957313e-09</v>
       </c>
       <c r="G391" t="n">
         <v>54</v>
@@ -12582,10 +12582,10 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.998856489422527</v>
+        <v>0.9995235283600773</v>
       </c>
       <c r="F392" t="n">
-        <v>2.381748294386753e-70</v>
+        <v>3.126819569378448e-80</v>
       </c>
       <c r="G392" t="n">
         <v>54</v>
@@ -12613,10 +12613,10 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.9883361921097767</v>
+        <v>0.9875545562029167</v>
       </c>
       <c r="F393" t="n">
-        <v>3.510263238975373e-44</v>
+        <v>1.877808562009361e-43</v>
       </c>
       <c r="G393" t="n">
         <v>54</v>
@@ -12644,10 +12644,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.9693539165237277</v>
+        <v>0.9681145058839616</v>
       </c>
       <c r="F394" t="n">
-        <v>2.254346276465757e-33</v>
+        <v>6.224698048165651e-33</v>
       </c>
       <c r="G394" t="n">
         <v>54</v>
@@ -12675,10 +12675,10 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.3199923765961502</v>
+        <v>0.2966704149655435</v>
       </c>
       <c r="F395" t="n">
-        <v>0.01833293864231824</v>
+        <v>0.02937898533828858</v>
       </c>
       <c r="G395" t="n">
         <v>54</v>
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.9281875357347055</v>
+        <v>0.930492290854925</v>
       </c>
       <c r="F396" t="n">
-        <v>5.597678240129068e-24</v>
+        <v>2.46676073614422e-24</v>
       </c>
       <c r="G396" t="n">
         <v>54</v>
@@ -12737,10 +12737,10 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-0.28210059571289</v>
+        <v>-0.2878088517744639</v>
       </c>
       <c r="F397" t="n">
-        <v>0.04489947846833173</v>
+        <v>0.04056319346662082</v>
       </c>
       <c r="G397" t="n">
         <v>51</v>
@@ -12768,10 +12768,10 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-0.6659901054783455</v>
+        <v>-0.6730089905893331</v>
       </c>
       <c r="F398" t="n">
-        <v>3.890696863788802e-08</v>
+        <v>2.474432590473922e-08</v>
       </c>
       <c r="G398" t="n">
         <v>54</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.6627638970569096</v>
+        <v>0.7007430604631161</v>
       </c>
       <c r="F399" t="n">
-        <v>4.771247092023305e-08</v>
+        <v>3.648086431198892e-09</v>
       </c>
       <c r="G399" t="n">
         <v>54</v>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.661129670848438</v>
+        <v>0.6866373968786874</v>
       </c>
       <c r="F400" t="n">
-        <v>5.28573764532679e-08</v>
+        <v>9.915367509784749e-09</v>
       </c>
       <c r="G400" t="n">
         <v>54</v>
@@ -12861,10 +12861,10 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.998856489422527</v>
+        <v>0.9995235283600772</v>
       </c>
       <c r="F401" t="n">
-        <v>2.381748294386753e-70</v>
+        <v>3.126819569397378e-80</v>
       </c>
       <c r="G401" t="n">
         <v>54</v>
@@ -12892,10 +12892,10 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.9874213836477986</v>
+        <v>0.9874976176862968</v>
       </c>
       <c r="F402" t="n">
-        <v>2.472496190334804e-43</v>
+        <v>2.112973221035227e-43</v>
       </c>
       <c r="G402" t="n">
         <v>54</v>
@@ -12923,10 +12923,10 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.9676767676767676</v>
+        <v>0.9665332570992946</v>
       </c>
       <c r="F403" t="n">
-        <v>8.825873711231137e-33</v>
+        <v>2.149078298290958e-32</v>
       </c>
       <c r="G403" t="n">
         <v>54</v>
@@ -12954,10 +12954,10 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>0.3192300362111683</v>
+        <v>0.2936916333142748</v>
       </c>
       <c r="F404" t="n">
-        <v>0.01862811673381868</v>
+        <v>0.03112531245784838</v>
       </c>
       <c r="G404" t="n">
         <v>54</v>
@@ -12985,10 +12985,10 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>0.9267390890032398</v>
+        <v>0.9286449399656945</v>
       </c>
       <c r="F405" t="n">
-        <v>9.239672179088161e-24</v>
+        <v>4.767930472382751e-24</v>
       </c>
       <c r="G405" t="n">
         <v>54</v>
@@ -13016,10 +13016,10 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-0.2728239479552477</v>
+        <v>-0.2820553437726088</v>
       </c>
       <c r="F406" t="n">
-        <v>0.05274883676349813</v>
+        <v>0.04493530997345747</v>
       </c>
       <c r="G406" t="n">
         <v>51</v>
@@ -13047,10 +13047,10 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-0.6522769410371</v>
+        <v>-0.6640344190548043</v>
       </c>
       <c r="F407" t="n">
-        <v>9.10685855741499e-08</v>
+        <v>4.404198314383199e-08</v>
       </c>
       <c r="G407" t="n">
         <v>54</v>
@@ -13078,10 +13078,10 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>0.6756768844661259</v>
+        <v>0.7072515099411016</v>
       </c>
       <c r="F408" t="n">
-        <v>2.076686243642408e-08</v>
+        <v>2.255101353581473e-09</v>
       </c>
       <c r="G408" t="n">
         <v>54</v>
@@ -13109,10 +13109,10 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.6756072432177375</v>
+        <v>0.6960043135935318</v>
       </c>
       <c r="F409" t="n">
-        <v>2.086255216708549e-08</v>
+        <v>5.136934059594189e-09</v>
       </c>
       <c r="G409" t="n">
         <v>54</v>
@@ -13140,10 +13140,10 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.9883361921097767</v>
+        <v>0.9875545562029167</v>
       </c>
       <c r="F410" t="n">
-        <v>3.510263238975373e-44</v>
+        <v>1.877808562009361e-43</v>
       </c>
       <c r="G410" t="n">
         <v>54</v>
@@ -13171,10 +13171,10 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.9874213836477986</v>
+        <v>0.9874976176862968</v>
       </c>
       <c r="F411" t="n">
-        <v>2.472496190334804e-43</v>
+        <v>2.112973221035227e-43</v>
       </c>
       <c r="G411" t="n">
         <v>54</v>
@@ -13202,10 +13202,10 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.971031065370688</v>
+        <v>0.9692014484467313</v>
       </c>
       <c r="F412" t="n">
-        <v>5.326078140611039e-34</v>
+        <v>2.560059964435385e-33</v>
       </c>
       <c r="G412" t="n">
         <v>54</v>
@@ -13233,10 +13233,10 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.3506384600724223</v>
+        <v>0.3315037164093768</v>
       </c>
       <c r="F413" t="n">
-        <v>0.00933686377323094</v>
+        <v>0.01433634804193678</v>
       </c>
       <c r="G413" t="n">
         <v>54</v>
@@ -13264,10 +13264,10 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.9313893653516293</v>
+        <v>0.9326091099676004</v>
       </c>
       <c r="F414" t="n">
-        <v>1.779475612279073e-24</v>
+        <v>1.133261345068761e-24</v>
       </c>
       <c r="G414" t="n">
         <v>54</v>
@@ -13295,10 +13295,10 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-0.2644070870629477</v>
+        <v>-0.2703803431800638</v>
       </c>
       <c r="F415" t="n">
-        <v>0.06079919604627153</v>
+        <v>0.0549916106037381</v>
       </c>
       <c r="G415" t="n">
         <v>51</v>
@@ -13326,10 +13326,10 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-0.6534930932352533</v>
+        <v>-0.6551437220205983</v>
       </c>
       <c r="F416" t="n">
-        <v>8.459980009023358e-08</v>
+        <v>7.650813675753679e-08</v>
       </c>
       <c r="G416" t="n">
         <v>54</v>
@@ -13357,10 +13357,10 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.6838486854534509</v>
+        <v>0.7207332981455006</v>
       </c>
       <c r="F417" t="n">
-        <v>1.200348411195911e-08</v>
+        <v>7.979397891707816e-10</v>
       </c>
       <c r="G417" t="n">
         <v>54</v>
@@ -13388,10 +13388,10 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0.6843245082782972</v>
+        <v>0.7069516565853662</v>
       </c>
       <c r="F418" t="n">
-        <v>1.162010642315368e-08</v>
+        <v>2.306290772399066e-09</v>
       </c>
       <c r="G418" t="n">
         <v>54</v>
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.9693539165237277</v>
+        <v>0.9681145058839616</v>
       </c>
       <c r="F419" t="n">
-        <v>2.254346276465757e-33</v>
+        <v>6.224698048165651e-33</v>
       </c>
       <c r="G419" t="n">
         <v>54</v>
@@ -13450,10 +13450,10 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.9676767676767676</v>
+        <v>0.9665332570992946</v>
       </c>
       <c r="F420" t="n">
-        <v>8.825873711231137e-33</v>
+        <v>2.149078298290958e-32</v>
       </c>
       <c r="G420" t="n">
         <v>54</v>
@@ -13481,10 +13481,10 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.971031065370688</v>
+        <v>0.9692014484467313</v>
       </c>
       <c r="F421" t="n">
-        <v>5.326078140611039e-34</v>
+        <v>2.560059964435385e-33</v>
       </c>
       <c r="G421" t="n">
         <v>54</v>
@@ -13512,10 +13512,10 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.4303030303030303</v>
+        <v>0.4197064989517819</v>
       </c>
       <c r="F422" t="n">
-        <v>0.001163386008395411</v>
+        <v>0.001581426652287881</v>
       </c>
       <c r="G422" t="n">
         <v>54</v>
@@ -13543,10 +13543,10 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.9784257671050123</v>
+        <v>0.9819325328759289</v>
       </c>
       <c r="F423" t="n">
-        <v>2.739037545636063e-37</v>
+        <v>2.838640219904019e-39</v>
       </c>
       <c r="G423" t="n">
         <v>54</v>
@@ -13574,10 +13574,10 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-0.2536371252760264</v>
+        <v>-0.2603796643779225</v>
       </c>
       <c r="F424" t="n">
-        <v>0.07250712995551356</v>
+        <v>0.06498561575972886</v>
       </c>
       <c r="G424" t="n">
         <v>51</v>
@@ -13605,10 +13605,10 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-0.04982030384158897</v>
+        <v>-0.03065612986794632</v>
       </c>
       <c r="F425" t="n">
-        <v>0.7205237667518452</v>
+        <v>0.8258274622743329</v>
       </c>
       <c r="G425" t="n">
         <v>54</v>
@@ -13636,10 +13636,10 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.03126099339962509</v>
+        <v>0.06028063921277138</v>
       </c>
       <c r="F426" t="n">
-        <v>0.822446035761589</v>
+        <v>0.6650150835841194</v>
       </c>
       <c r="G426" t="n">
         <v>54</v>
@@ -13667,10 +13667,10 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.07730332408328913</v>
+        <v>0.1157565880439397</v>
       </c>
       <c r="F427" t="n">
-        <v>0.5784832230395753</v>
+        <v>0.4045418521774471</v>
       </c>
       <c r="G427" t="n">
         <v>54</v>
@@ -13698,10 +13698,10 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>0.3199923765961502</v>
+        <v>0.2966704149655435</v>
       </c>
       <c r="F428" t="n">
-        <v>0.01833293864231824</v>
+        <v>0.02937898533828858</v>
       </c>
       <c r="G428" t="n">
         <v>54</v>
@@ -13729,10 +13729,10 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>0.3192300362111683</v>
+        <v>0.2936916333142748</v>
       </c>
       <c r="F429" t="n">
-        <v>0.01862811673381868</v>
+        <v>0.03112531245784838</v>
       </c>
       <c r="G429" t="n">
         <v>54</v>
@@ -13760,10 +13760,10 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.3506384600724223</v>
+        <v>0.3315037164093768</v>
       </c>
       <c r="F430" t="n">
-        <v>0.00933686377323094</v>
+        <v>0.01433634804193678</v>
       </c>
       <c r="G430" t="n">
         <v>54</v>
@@ -13791,10 +13791,10 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.4303030303030303</v>
+        <v>0.4197064989517819</v>
       </c>
       <c r="F431" t="n">
-        <v>0.001163386008395411</v>
+        <v>0.001581426652287881</v>
       </c>
       <c r="G431" t="n">
         <v>54</v>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.4818372403278063</v>
+        <v>0.4675814751286449</v>
       </c>
       <c r="F432" t="n">
-        <v>0.0002251061683354961</v>
+        <v>0.0003639628072357619</v>
       </c>
       <c r="G432" t="n">
         <v>54</v>
@@ -13853,10 +13853,10 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-0.2668506918381316</v>
+        <v>-0.2831866422796384</v>
       </c>
       <c r="F433" t="n">
-        <v>0.05836652843721393</v>
+        <v>0.04404650230427765</v>
       </c>
       <c r="G433" t="n">
         <v>51</v>
@@ -13884,10 +13884,10 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-0.6575609126566626</v>
+        <v>-0.6579954550315702</v>
       </c>
       <c r="F434" t="n">
-        <v>6.596071436154738e-08</v>
+        <v>6.421589866475858e-08</v>
       </c>
       <c r="G434" t="n">
         <v>54</v>
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>0.6364753674656098</v>
+        <v>0.6811014897170523</v>
       </c>
       <c r="F435" t="n">
-        <v>2.303942360538836e-07</v>
+        <v>1.446060572624724e-08</v>
       </c>
       <c r="G435" t="n">
         <v>54</v>
@@ -13946,10 +13946,10 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>0.6400085440497252</v>
+        <v>0.6689443319728705</v>
       </c>
       <c r="F436" t="n">
-        <v>1.880752987561205e-07</v>
+        <v>3.220616746018687e-08</v>
       </c>
       <c r="G436" t="n">
         <v>54</v>
@@ -13977,10 +13977,10 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>0.9281875357347055</v>
+        <v>0.9304922908549251</v>
       </c>
       <c r="F437" t="n">
-        <v>5.597678240129068e-24</v>
+        <v>2.466760736144133e-24</v>
       </c>
       <c r="G437" t="n">
         <v>54</v>
@@ -14008,10 +14008,10 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>0.9267390890032398</v>
+        <v>0.9286449399656945</v>
       </c>
       <c r="F438" t="n">
-        <v>9.239672179088161e-24</v>
+        <v>4.767930472382751e-24</v>
       </c>
       <c r="G438" t="n">
         <v>54</v>
@@ -14039,10 +14039,10 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>0.9313893653516293</v>
+        <v>0.9326091099676004</v>
       </c>
       <c r="F439" t="n">
-        <v>1.779475612279073e-24</v>
+        <v>1.133261345068761e-24</v>
       </c>
       <c r="G439" t="n">
         <v>54</v>
@@ -14070,10 +14070,10 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>0.9784257671050123</v>
+        <v>0.9819325328759289</v>
       </c>
       <c r="F440" t="n">
-        <v>2.739037545636063e-37</v>
+        <v>2.838640219904019e-39</v>
       </c>
       <c r="G440" t="n">
         <v>54</v>
@@ -14101,10 +14101,10 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.4818372403278063</v>
+        <v>0.4675814751286449</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0002251061683354961</v>
+        <v>0.0003639628072357619</v>
       </c>
       <c r="G441" t="n">
         <v>54</v>
@@ -14132,10 +14132,10 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-0.1971627038051109</v>
+        <v>-0.2252641587197251</v>
       </c>
       <c r="F442" t="n">
-        <v>0.1655112022386371</v>
+        <v>0.1119861136694859</v>
       </c>
       <c r="G442" t="n">
         <v>51</v>
@@ -14163,10 +14163,10 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.02221726747177072</v>
+        <v>0.01066259443445853</v>
       </c>
       <c r="F443" t="n">
-        <v>0.8770195096428672</v>
+        <v>0.9408031348449666</v>
       </c>
       <c r="G443" t="n">
         <v>51</v>
@@ -14194,10 +14194,10 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-0.03184372936522048</v>
+        <v>-0.02184290619717483</v>
       </c>
       <c r="F444" t="n">
-        <v>0.8244476630353736</v>
+        <v>0.8790761524918784</v>
       </c>
       <c r="G444" t="n">
         <v>51</v>
@@ -14225,10 +14225,10 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-0.04797402396329539</v>
+        <v>-0.03762361526439461</v>
       </c>
       <c r="F445" t="n">
-        <v>0.7381516052308199</v>
+        <v>0.7932304095411635</v>
       </c>
       <c r="G445" t="n">
         <v>51</v>
@@ -14256,10 +14256,10 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-0.28210059571289</v>
+        <v>-0.2878088517744639</v>
       </c>
       <c r="F446" t="n">
-        <v>0.04489947846833169</v>
+        <v>0.04056319346662082</v>
       </c>
       <c r="G446" t="n">
         <v>51</v>
@@ -14287,10 +14287,10 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-0.2728239479552476</v>
+        <v>-0.2820553437726088</v>
       </c>
       <c r="F447" t="n">
-        <v>0.0527488367634982</v>
+        <v>0.04493530997345747</v>
       </c>
       <c r="G447" t="n">
         <v>51</v>
@@ -14318,10 +14318,10 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-0.2644070870629477</v>
+        <v>-0.2703803431800638</v>
       </c>
       <c r="F448" t="n">
-        <v>0.06079919604627153</v>
+        <v>0.05499161060373817</v>
       </c>
       <c r="G448" t="n">
         <v>51</v>
@@ -14349,10 +14349,10 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-0.2536371252760264</v>
+        <v>-0.2603796643779225</v>
       </c>
       <c r="F449" t="n">
-        <v>0.07250712995551356</v>
+        <v>0.06498561575972882</v>
       </c>
       <c r="G449" t="n">
         <v>51</v>
@@ -14380,10 +14380,10 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-0.2668506918381316</v>
+        <v>-0.2831866422796384</v>
       </c>
       <c r="F450" t="n">
-        <v>0.05836652843721393</v>
+        <v>0.04404650230427765</v>
       </c>
       <c r="G450" t="n">
         <v>51</v>
@@ -14411,10 +14411,10 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-0.197162703805111</v>
+        <v>-0.2252641587197251</v>
       </c>
       <c r="F451" t="n">
-        <v>0.1655112022386371</v>
+        <v>0.111986113669486</v>
       </c>
       <c r="G451" t="n">
         <v>51</v>
@@ -14442,10 +14442,10 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.2765743240036972</v>
+        <v>0.2585656162839483</v>
       </c>
       <c r="F452" t="n">
-        <v>0.04291652729316373</v>
+        <v>0.05904677898626796</v>
       </c>
       <c r="G452" t="n">
         <v>54</v>
@@ -14473,10 +14473,10 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-0.4614188274056317</v>
+        <v>-0.4518169469146765</v>
       </c>
       <c r="F453" t="n">
-        <v>0.0004451289974760397</v>
+        <v>0.0006046106131133168</v>
       </c>
       <c r="G453" t="n">
         <v>54</v>
@@ -14504,10 +14504,10 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-0.08333714527098914</v>
+        <v>-0.1263236926989468</v>
       </c>
       <c r="F454" t="n">
-        <v>0.5490964383699741</v>
+        <v>0.3627072452514802</v>
       </c>
       <c r="G454" t="n">
         <v>54</v>
@@ -14535,10 +14535,10 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-0.08373896371491869</v>
+        <v>-0.1261629755326631</v>
       </c>
       <c r="F455" t="n">
-        <v>0.5471651425460489</v>
+        <v>0.3633231088812431</v>
       </c>
       <c r="G455" t="n">
         <v>54</v>
@@ -14566,10 +14566,10 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-0.07919841529851476</v>
+        <v>-0.113024347188975</v>
       </c>
       <c r="F456" t="n">
-        <v>0.5691765262675563</v>
+        <v>0.4157972843596838</v>
       </c>
       <c r="G456" t="n">
         <v>54</v>
@@ -14597,10 +14597,10 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>0.001687637464504119</v>
+        <v>-0.001888426703832856</v>
       </c>
       <c r="F457" t="n">
-        <v>0.9903367601779308</v>
+        <v>0.9891871261922869</v>
       </c>
       <c r="G457" t="n">
         <v>54</v>
@@ -14628,10 +14628,10 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-0.1123886187670958</v>
+        <v>-0.1113368169429967</v>
       </c>
       <c r="F458" t="n">
-        <v>0.4184416625298345</v>
+        <v>0.4228377787128024</v>
       </c>
       <c r="G458" t="n">
         <v>54</v>
@@ -14659,10 +14659,10 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-0.0207338317067649</v>
+        <v>-0.04202753898317377</v>
       </c>
       <c r="F459" t="n">
-        <v>0.8817013810300953</v>
+        <v>0.7628464874584692</v>
       </c>
       <c r="G459" t="n">
         <v>54</v>
@@ -14690,10 +14690,10 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-0.008800676685423637</v>
+        <v>-0.1069870712497607</v>
       </c>
       <c r="F460" t="n">
-        <v>0.9511263131375609</v>
+        <v>0.4549140644113472</v>
       </c>
       <c r="G460" t="n">
         <v>51</v>
@@ -14721,10 +14721,10 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.2765743240036972</v>
+        <v>0.2585656162839483</v>
       </c>
       <c r="F461" t="n">
-        <v>0.04291652729316373</v>
+        <v>0.05904677898626796</v>
       </c>
       <c r="G461" t="n">
         <v>54</v>
@@ -14752,10 +14752,10 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0.6035817602819487</v>
+        <v>0.6157642276262497</v>
       </c>
       <c r="F462" t="n">
-        <v>1.356425369635698e-06</v>
+        <v>7.202480837913433e-07</v>
       </c>
       <c r="G462" t="n">
         <v>54</v>
@@ -14783,10 +14783,10 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-0.1475503564153811</v>
+        <v>-0.09309947347846394</v>
       </c>
       <c r="F463" t="n">
-        <v>0.2869937142696228</v>
+        <v>0.5031210382068884</v>
       </c>
       <c r="G463" t="n">
         <v>54</v>
@@ -14814,10 +14814,10 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-0.1751963853492865</v>
+        <v>-0.114141145522637</v>
       </c>
       <c r="F464" t="n">
-        <v>0.2051095963613795</v>
+        <v>0.4111751177655267</v>
       </c>
       <c r="G464" t="n">
         <v>54</v>
@@ -14845,10 +14845,10 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-0.1383874478213556</v>
+        <v>-0.08627085538110965</v>
       </c>
       <c r="F465" t="n">
-        <v>0.3183022139388484</v>
+        <v>0.53507150623468</v>
       </c>
       <c r="G465" t="n">
         <v>54</v>
@@ -14876,10 +14876,10 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-0.04137072893096506</v>
+        <v>0.03632666022720448</v>
       </c>
       <c r="F466" t="n">
-        <v>0.7664472786170327</v>
+        <v>0.7942581746880581</v>
       </c>
       <c r="G466" t="n">
         <v>54</v>
@@ -14907,10 +14907,10 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.1055110890891438</v>
+        <v>0.1035409069645347</v>
       </c>
       <c r="F467" t="n">
-        <v>0.4476575704791164</v>
+        <v>0.4562295617574263</v>
       </c>
       <c r="G467" t="n">
         <v>54</v>
@@ -14938,10 +14938,10 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-0.06661788479948177</v>
+        <v>-0.01135456265025189</v>
       </c>
       <c r="F468" t="n">
-        <v>0.6322110568890726</v>
+        <v>0.9350531784323629</v>
       </c>
       <c r="G468" t="n">
         <v>54</v>
@@ -14969,10 +14969,10 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>0.1315389373814476</v>
+        <v>0.08520531859497482</v>
       </c>
       <c r="F469" t="n">
-        <v>0.3575235606119076</v>
+        <v>0.5521875873500914</v>
       </c>
       <c r="G469" t="n">
         <v>51</v>
@@ -15000,10 +15000,10 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-0.4614188274056317</v>
+        <v>-0.4518169469146764</v>
       </c>
       <c r="F470" t="n">
-        <v>0.0004451289974760397</v>
+        <v>0.000604610613113317</v>
       </c>
       <c r="G470" t="n">
         <v>54</v>
@@ -15031,10 +15031,10 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0.6035817602819487</v>
+        <v>0.6157642276262497</v>
       </c>
       <c r="F471" t="n">
-        <v>1.356425369635698e-06</v>
+        <v>7.202480837913433e-07</v>
       </c>
       <c r="G471" t="n">
         <v>54</v>
@@ -15062,10 +15062,10 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>0.07956582319572929</v>
+        <v>0.1668278592667284</v>
       </c>
       <c r="F472" t="n">
-        <v>0.5673802714848682</v>
+        <v>0.2279272643449653</v>
       </c>
       <c r="G472" t="n">
         <v>54</v>
@@ -15093,10 +15093,10 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>0.05237923589656202</v>
+        <v>0.146900665029805</v>
       </c>
       <c r="F473" t="n">
-        <v>0.7067985316349678</v>
+        <v>0.2891446921028972</v>
       </c>
       <c r="G473" t="n">
         <v>54</v>
@@ -15124,10 +15124,10 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>0.06629846183393538</v>
+        <v>0.1393751735646086</v>
       </c>
       <c r="F474" t="n">
-        <v>0.6338484771950428</v>
+        <v>0.3148266341740742</v>
       </c>
       <c r="G474" t="n">
         <v>54</v>
@@ -15155,10 +15155,10 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>0.1148815452021228</v>
+        <v>0.1888284031930427</v>
       </c>
       <c r="F475" t="n">
-        <v>0.4081271713913324</v>
+        <v>0.1714781996740113</v>
       </c>
       <c r="G475" t="n">
         <v>54</v>
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>0.2967517617887946</v>
+        <v>0.2900385843270118</v>
       </c>
       <c r="F476" t="n">
-        <v>0.02933246751354475</v>
+        <v>0.03338414611748184</v>
       </c>
       <c r="G476" t="n">
         <v>54</v>
@@ -15217,10 +15217,10 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>0.09202794008180734</v>
+        <v>0.1474765954990803</v>
       </c>
       <c r="F477" t="n">
-        <v>0.5080690631228861</v>
+        <v>0.2872373904808946</v>
       </c>
       <c r="G477" t="n">
         <v>54</v>
@@ -15248,10 +15248,10 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>0.1740461220300207</v>
+        <v>0.2366411767557725</v>
       </c>
       <c r="F478" t="n">
-        <v>0.2219071716956752</v>
+        <v>0.09454403084575512</v>
       </c>
       <c r="G478" t="n">
         <v>51</v>
@@ -15279,10 +15279,10 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-0.08333714527098914</v>
+        <v>-0.1263236926989468</v>
       </c>
       <c r="F479" t="n">
-        <v>0.5490964383699741</v>
+        <v>0.3627072452514802</v>
       </c>
       <c r="G479" t="n">
         <v>54</v>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-0.1475503564153811</v>
+        <v>-0.09309947347846395</v>
       </c>
       <c r="F480" t="n">
-        <v>0.2869937142696228</v>
+        <v>0.5031210382068884</v>
       </c>
       <c r="G480" t="n">
         <v>54</v>
@@ -15341,10 +15341,10 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>0.07956582319572929</v>
+        <v>0.1668278592667284</v>
       </c>
       <c r="F481" t="n">
-        <v>0.5673802714848682</v>
+        <v>0.2279272643449653</v>
       </c>
       <c r="G481" t="n">
         <v>54</v>
@@ -15372,10 +15372,10 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.9984753192300361</v>
+        <v>0.998856489422527</v>
       </c>
       <c r="F482" t="n">
-        <v>4.200579066851529e-67</v>
+        <v>2.381748294386753e-70</v>
       </c>
       <c r="G482" t="n">
         <v>54</v>
@@ -15403,10 +15403,10 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>0.9701162569087095</v>
+        <v>0.9719458738326662</v>
       </c>
       <c r="F483" t="n">
-        <v>1.182015363570072e-33</v>
+        <v>2.338427237119684e-34</v>
       </c>
       <c r="G483" t="n">
         <v>54</v>
@@ -15434,10 +15434,10 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>0.90020964360587</v>
+        <v>0.9207165999618828</v>
       </c>
       <c r="F484" t="n">
-        <v>2.045439005882293e-20</v>
+        <v>6.684603638490468e-23</v>
       </c>
       <c r="G484" t="n">
         <v>54</v>
@@ -15465,10 +15465,10 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.4678101772441395</v>
+        <v>0.4539355822374689</v>
       </c>
       <c r="F485" t="n">
-        <v>0.0003612273929517416</v>
+        <v>0.0005655424587311337</v>
       </c>
       <c r="G485" t="n">
         <v>54</v>
@@ -15496,10 +15496,10 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.7577282256527539</v>
+        <v>0.7889079473985133</v>
       </c>
       <c r="F486" t="n">
-        <v>3.289841368783532e-11</v>
+        <v>1.391958182413048e-12</v>
       </c>
       <c r="G486" t="n">
         <v>54</v>
@@ -15527,10 +15527,10 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-0.1588795623272308</v>
+        <v>-0.1127225832404249</v>
       </c>
       <c r="F487" t="n">
-        <v>0.2654552838390401</v>
+        <v>0.4309551690784146</v>
       </c>
       <c r="G487" t="n">
         <v>51</v>
@@ -15558,10 +15558,10 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-0.08373896371491869</v>
+        <v>-0.1261629755326631</v>
       </c>
       <c r="F488" t="n">
-        <v>0.5471651425460489</v>
+        <v>0.3633231088812431</v>
       </c>
       <c r="G488" t="n">
         <v>54</v>
@@ -15589,10 +15589,10 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-0.1751963853492864</v>
+        <v>-0.114141145522637</v>
       </c>
       <c r="F489" t="n">
-        <v>0.2051095963613795</v>
+        <v>0.4111751177655267</v>
       </c>
       <c r="G489" t="n">
         <v>54</v>
@@ -15620,10 +15620,10 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>0.05237923589656202</v>
+        <v>0.1469006650298051</v>
       </c>
       <c r="F490" t="n">
-        <v>0.7067985316349678</v>
+        <v>0.2891446921028971</v>
       </c>
       <c r="G490" t="n">
         <v>54</v>
@@ -15651,10 +15651,10 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>0.9984753192300361</v>
+        <v>0.998856489422527</v>
       </c>
       <c r="F491" t="n">
-        <v>4.200579066851529e-67</v>
+        <v>2.381748294386753e-70</v>
       </c>
       <c r="G491" t="n">
         <v>54</v>
@@ -15682,10 +15682,10 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>0.9669144272917856</v>
+        <v>0.9692014484467313</v>
       </c>
       <c r="F492" t="n">
-        <v>1.602992973513184e-32</v>
+        <v>2.560059964435385e-33</v>
       </c>
       <c r="G492" t="n">
         <v>54</v>
@@ -15713,10 +15713,10 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>0.8943396226415093</v>
+        <v>0.9140842386125404</v>
       </c>
       <c r="F493" t="n">
-        <v>8.394162571641457e-20</v>
+        <v>4.96793811379402e-22</v>
       </c>
       <c r="G493" t="n">
         <v>54</v>
@@ -15744,10 +15744,10 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>0.4547741566609491</v>
+        <v>0.4415856680007623</v>
       </c>
       <c r="F494" t="n">
-        <v>0.0005507199553158948</v>
+        <v>0.0008297973863976829</v>
       </c>
       <c r="G494" t="n">
         <v>54</v>
@@ -15775,10 +15775,10 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>0.7500285877644367</v>
+        <v>0.7797598627787306</v>
       </c>
       <c r="F495" t="n">
-        <v>6.684112736820633e-11</v>
+        <v>3.71150777170123e-12</v>
       </c>
       <c r="G495" t="n">
         <v>54</v>
@@ -15806,10 +15806,10 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-0.1605991360579157</v>
+        <v>-0.1169310136865749</v>
       </c>
       <c r="F496" t="n">
-        <v>0.2602500220994522</v>
+        <v>0.4138363234227209</v>
       </c>
       <c r="G496" t="n">
         <v>51</v>
@@ -15837,10 +15837,10 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-0.07919841529851476</v>
+        <v>-0.113024347188975</v>
       </c>
       <c r="F497" t="n">
-        <v>0.5691765262675563</v>
+        <v>0.4157972843596838</v>
       </c>
       <c r="G497" t="n">
         <v>54</v>
@@ -15868,10 +15868,10 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-0.1383874478213556</v>
+        <v>-0.08627085538110967</v>
       </c>
       <c r="F498" t="n">
-        <v>0.3183022139388482</v>
+        <v>0.53507150623468</v>
       </c>
       <c r="G498" t="n">
         <v>54</v>
@@ -15899,10 +15899,10 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>0.06629846183393538</v>
+        <v>0.1393751735646086</v>
       </c>
       <c r="F499" t="n">
-        <v>0.6338484771950428</v>
+        <v>0.3148266341740742</v>
       </c>
       <c r="G499" t="n">
         <v>54</v>
@@ -15930,10 +15930,10 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.9701162569087095</v>
+        <v>0.9719458738326662</v>
       </c>
       <c r="F500" t="n">
-        <v>1.182015363570072e-33</v>
+        <v>2.338427237119684e-34</v>
       </c>
       <c r="G500" t="n">
         <v>54</v>
@@ -15961,10 +15961,10 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>0.9669144272917856</v>
+        <v>0.9692014484467313</v>
       </c>
       <c r="F501" t="n">
-        <v>1.602992973513184e-32</v>
+        <v>2.560059964435385e-33</v>
       </c>
       <c r="G501" t="n">
         <v>54</v>
@@ -15992,10 +15992,10 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.8678101772441393</v>
+        <v>0.8994473032208881</v>
       </c>
       <c r="F502" t="n">
-        <v>2.025937503272308e-17</v>
+        <v>2.469112477738788e-20</v>
       </c>
       <c r="G502" t="n">
         <v>54</v>
@@ -16023,10 +16023,10 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>0.4289308176100629</v>
+        <v>0.424585477415666</v>
       </c>
       <c r="F503" t="n">
-        <v>0.00121124392002487</v>
+        <v>0.001374656818457924</v>
       </c>
       <c r="G503" t="n">
         <v>54</v>
@@ -16054,10 +16054,10 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>0.7268534400609871</v>
+        <v>0.7741185439298647</v>
       </c>
       <c r="F504" t="n">
-        <v>4.879997418310116e-10</v>
+        <v>6.641397250096936e-12</v>
       </c>
       <c r="G504" t="n">
         <v>54</v>
@@ -16085,10 +16085,10 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-0.2004660954456373</v>
+        <v>-0.1529968100906771</v>
       </c>
       <c r="F505" t="n">
-        <v>0.158395950245776</v>
+        <v>0.2837853901529788</v>
       </c>
       <c r="G505" t="n">
         <v>51</v>
@@ -16116,10 +16116,10 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>0.00168763746450412</v>
+        <v>-0.001888426703832856</v>
       </c>
       <c r="F506" t="n">
-        <v>0.9903367601779308</v>
+        <v>0.9891871261922869</v>
       </c>
       <c r="G506" t="n">
         <v>54</v>
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-0.04137072893096506</v>
+        <v>0.03632666022720448</v>
       </c>
       <c r="F507" t="n">
-        <v>0.7664472786170327</v>
+        <v>0.7942581746880581</v>
       </c>
       <c r="G507" t="n">
         <v>54</v>
@@ -16178,10 +16178,10 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>0.1148815452021228</v>
+        <v>0.1888284031930427</v>
       </c>
       <c r="F508" t="n">
-        <v>0.4081271713913324</v>
+        <v>0.1714781996740113</v>
       </c>
       <c r="G508" t="n">
         <v>54</v>
@@ -16209,10 +16209,10 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>0.90020964360587</v>
+        <v>0.9207165999618828</v>
       </c>
       <c r="F509" t="n">
-        <v>2.045439005882293e-20</v>
+        <v>6.684603638490468e-23</v>
       </c>
       <c r="G509" t="n">
         <v>54</v>
@@ -16240,10 +16240,10 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>0.8943396226415093</v>
+        <v>0.9140842386125404</v>
       </c>
       <c r="F510" t="n">
-        <v>8.394162571641457e-20</v>
+        <v>4.96793811379402e-22</v>
       </c>
       <c r="G510" t="n">
         <v>54</v>
@@ -16271,10 +16271,10 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>0.8678101772441393</v>
+        <v>0.8994473032208881</v>
       </c>
       <c r="F511" t="n">
-        <v>2.025937503272308e-17</v>
+        <v>2.469112477738788e-20</v>
       </c>
       <c r="G511" t="n">
         <v>54</v>
@@ -16302,10 +16302,10 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>0.7009338669716028</v>
+        <v>0.6552696779111873</v>
       </c>
       <c r="F512" t="n">
-        <v>3.597658562473176e-09</v>
+        <v>7.59215265494854e-08</v>
       </c>
       <c r="G512" t="n">
         <v>54</v>
@@ -16333,10 +16333,10 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>0.9397751095864302</v>
+        <v>0.9377930245854772</v>
       </c>
       <c r="F513" t="n">
-        <v>6.660109778801833e-26</v>
+        <v>1.508190336797539e-25</v>
       </c>
       <c r="G513" t="n">
         <v>54</v>
@@ -16364,10 +16364,10 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-0.09987103220056917</v>
+        <v>-0.08453062444524839</v>
       </c>
       <c r="F514" t="n">
-        <v>0.4856234929231049</v>
+        <v>0.5553509884569656</v>
       </c>
       <c r="G514" t="n">
         <v>51</v>
@@ -16395,10 +16395,10 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-0.1123886187670958</v>
+        <v>-0.1113368169429967</v>
       </c>
       <c r="F515" t="n">
-        <v>0.4184416625298345</v>
+        <v>0.4228377787128025</v>
       </c>
       <c r="G515" t="n">
         <v>54</v>
@@ -16426,10 +16426,10 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0.1055110890891438</v>
+        <v>0.1035409069645347</v>
       </c>
       <c r="F516" t="n">
-        <v>0.4476575704791164</v>
+        <v>0.4562295617574263</v>
       </c>
       <c r="G516" t="n">
         <v>54</v>
@@ -16457,10 +16457,10 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>0.2967517617887947</v>
+        <v>0.2900385843270119</v>
       </c>
       <c r="F517" t="n">
-        <v>0.02933246751354469</v>
+        <v>0.03338414611748184</v>
       </c>
       <c r="G517" t="n">
         <v>54</v>
@@ -16488,10 +16488,10 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>0.4678101772441395</v>
+        <v>0.4539355822374689</v>
       </c>
       <c r="F518" t="n">
-        <v>0.0003612273929517416</v>
+        <v>0.0005655424587311337</v>
       </c>
       <c r="G518" t="n">
         <v>54</v>
@@ -16519,10 +16519,10 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>0.4547741566609491</v>
+        <v>0.4415856680007623</v>
       </c>
       <c r="F519" t="n">
-        <v>0.0005507199553158948</v>
+        <v>0.0008297973863976829</v>
       </c>
       <c r="G519" t="n">
         <v>54</v>
@@ -16550,10 +16550,10 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>0.4289308176100629</v>
+        <v>0.424585477415666</v>
       </c>
       <c r="F520" t="n">
-        <v>0.00121124392002487</v>
+        <v>0.001374656818457924</v>
       </c>
       <c r="G520" t="n">
         <v>54</v>
@@ -16581,10 +16581,10 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>0.7009338669716028</v>
+        <v>0.6552696779111873</v>
       </c>
       <c r="F521" t="n">
-        <v>3.597658562473176e-09</v>
+        <v>7.59215265494854e-08</v>
       </c>
       <c r="G521" t="n">
         <v>54</v>
@@ -16612,10 +16612,10 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>0.8379264341528491</v>
+        <v>0.8072803506765769</v>
       </c>
       <c r="F522" t="n">
-        <v>2.75640258133795e-15</v>
+        <v>1.664811241516785e-13</v>
       </c>
       <c r="G522" t="n">
         <v>54</v>
@@ -16643,10 +16643,10 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>0.266714936017288</v>
+        <v>0.2869425533229765</v>
       </c>
       <c r="F523" t="n">
-        <v>0.05849958881095355</v>
+        <v>0.04119821956900565</v>
       </c>
       <c r="G523" t="n">
         <v>51</v>
@@ -16674,10 +16674,10 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-0.0207338317067649</v>
+        <v>-0.04202753898317377</v>
       </c>
       <c r="F524" t="n">
-        <v>0.8817013810300953</v>
+        <v>0.7628464874584692</v>
       </c>
       <c r="G524" t="n">
         <v>54</v>
@@ -16705,10 +16705,10 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-0.06661788479948177</v>
+        <v>-0.01135456265025189</v>
       </c>
       <c r="F525" t="n">
-        <v>0.6322110568890726</v>
+        <v>0.9350531784323629</v>
       </c>
       <c r="G525" t="n">
         <v>54</v>
@@ -16736,10 +16736,10 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>0.09202794008180736</v>
+        <v>0.1474765954990803</v>
       </c>
       <c r="F526" t="n">
-        <v>0.5080690631228861</v>
+        <v>0.2872373904808946</v>
       </c>
       <c r="G526" t="n">
         <v>54</v>
@@ -16767,10 +16767,10 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>0.7577282256527539</v>
+        <v>0.7889079473985133</v>
       </c>
       <c r="F527" t="n">
-        <v>3.289841368783532e-11</v>
+        <v>1.391958182413048e-12</v>
       </c>
       <c r="G527" t="n">
         <v>54</v>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>0.7500285877644367</v>
+        <v>0.7797598627787306</v>
       </c>
       <c r="F528" t="n">
-        <v>6.684112736820633e-11</v>
+        <v>3.71150777170123e-12</v>
       </c>
       <c r="G528" t="n">
         <v>54</v>
@@ -16829,10 +16829,10 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>0.7268534400609871</v>
+        <v>0.7741185439298647</v>
       </c>
       <c r="F529" t="n">
-        <v>4.879997418310116e-10</v>
+        <v>6.641397250096936e-12</v>
       </c>
       <c r="G529" t="n">
         <v>54</v>
@@ -16860,10 +16860,10 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>0.9397751095864302</v>
+        <v>0.9377930245854772</v>
       </c>
       <c r="F530" t="n">
-        <v>6.660109778801833e-26</v>
+        <v>1.508190336797539e-25</v>
       </c>
       <c r="G530" t="n">
         <v>54</v>
@@ -16891,10 +16891,10 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>0.8379264341528491</v>
+        <v>0.8072803506765769</v>
       </c>
       <c r="F531" t="n">
-        <v>2.75640258133795e-15</v>
+        <v>1.664811241516785e-13</v>
       </c>
       <c r="G531" t="n">
         <v>54</v>
@@ -16922,10 +16922,10 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>0.002262597014059111</v>
+        <v>0.001945833432090835</v>
       </c>
       <c r="F532" t="n">
-        <v>0.9874277716338109</v>
+        <v>0.9891877707024552</v>
       </c>
       <c r="G532" t="n">
         <v>51</v>
@@ -16953,10 +16953,10 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-0.008800676685423638</v>
+        <v>-0.1069870712497606</v>
       </c>
       <c r="F533" t="n">
-        <v>0.9511263131375609</v>
+        <v>0.4549140644113471</v>
       </c>
       <c r="G533" t="n">
         <v>51</v>
@@ -16984,10 +16984,10 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>0.1315389373814477</v>
+        <v>0.08520531859497482</v>
       </c>
       <c r="F534" t="n">
-        <v>0.3575235606119076</v>
+        <v>0.5521875873500914</v>
       </c>
       <c r="G534" t="n">
         <v>51</v>
@@ -17015,10 +17015,10 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>0.1740461220300207</v>
+        <v>0.2366411767557725</v>
       </c>
       <c r="F535" t="n">
-        <v>0.2219071716956752</v>
+        <v>0.09454403084575522</v>
       </c>
       <c r="G535" t="n">
         <v>51</v>
@@ -17046,10 +17046,10 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-0.1588795623272308</v>
+        <v>-0.1127225832404249</v>
       </c>
       <c r="F536" t="n">
-        <v>0.2654552838390401</v>
+        <v>0.4309551690784146</v>
       </c>
       <c r="G536" t="n">
         <v>51</v>
@@ -17077,10 +17077,10 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-0.1605991360579157</v>
+        <v>-0.1169310136865749</v>
       </c>
       <c r="F537" t="n">
-        <v>0.2602500220994524</v>
+        <v>0.4138363234227209</v>
       </c>
       <c r="G537" t="n">
         <v>51</v>
@@ -17108,10 +17108,10 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-0.2004660954456373</v>
+        <v>-0.1529968100906771</v>
       </c>
       <c r="F538" t="n">
-        <v>0.158395950245776</v>
+        <v>0.2837853901529788</v>
       </c>
       <c r="G538" t="n">
         <v>51</v>
@@ -17139,10 +17139,10 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-0.09987103220056916</v>
+        <v>-0.08453062444524839</v>
       </c>
       <c r="F539" t="n">
-        <v>0.4856234929231049</v>
+        <v>0.5553509884569656</v>
       </c>
       <c r="G539" t="n">
         <v>51</v>
@@ -17170,10 +17170,10 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>0.266714936017288</v>
+        <v>0.2869425533229765</v>
       </c>
       <c r="F540" t="n">
-        <v>0.05849958881095355</v>
+        <v>0.04119821956900565</v>
       </c>
       <c r="G540" t="n">
         <v>51</v>
@@ -17201,10 +17201,10 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.002262597014059111</v>
+        <v>0.001945833432090836</v>
       </c>
       <c r="F541" t="n">
-        <v>0.9874277716338109</v>
+        <v>0.9891877707024552</v>
       </c>
       <c r="G541" t="n">
         <v>51</v>

--- a/Tester Results/CORRELATIONS_BY_SEX_DATE.xlsx
+++ b/Tester Results/CORRELATIONS_BY_SEX_DATE.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.1147072757380191</v>
+        <v>-0.09755658272663048</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4088433946915686</v>
+        <v>0.4828077401859805</v>
       </c>
       <c r="G2" t="n">
         <v>54</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.8108492471152043</v>
+        <v>-0.8084176445515988</v>
       </c>
       <c r="F3" t="n">
-        <v>1.073403332699949e-13</v>
+        <v>1.448963674061664e-13</v>
       </c>
       <c r="G3" t="n">
         <v>54</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.6060438751739555</v>
+        <v>-0.6332001839618925</v>
       </c>
       <c r="F4" t="n">
-        <v>1.19607357147525e-06</v>
+        <v>2.774499792199732e-07</v>
       </c>
       <c r="G4" t="n">
         <v>54</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.6085264440847995</v>
+        <v>-0.6354782247571885</v>
       </c>
       <c r="F5" t="n">
-        <v>1.052441868984258e-06</v>
+        <v>2.438625782160787e-07</v>
       </c>
       <c r="G5" t="n">
         <v>54</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.590893600562993</v>
+        <v>-0.6267725135680527</v>
       </c>
       <c r="F6" t="n">
-        <v>2.551759285524689e-06</v>
+        <v>3.970809836132787e-07</v>
       </c>
       <c r="G6" t="n">
         <v>54</v>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.6613863061337237</v>
+        <v>-0.6797419296477283</v>
       </c>
       <c r="F7" t="n">
-        <v>5.201631499650993e-08</v>
+        <v>1.584502255272803e-08</v>
       </c>
       <c r="G7" t="n">
         <v>54</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.2912899347582636</v>
+        <v>-0.290383833219843</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03259552876625069</v>
+        <v>0.033164999239499</v>
       </c>
       <c r="G8" t="n">
         <v>54</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.6791351552050159</v>
+        <v>-0.7035762322810958</v>
       </c>
       <c r="F9" t="n">
-        <v>1.650236478581612e-08</v>
+        <v>2.963581373385151e-09</v>
       </c>
       <c r="G9" t="n">
         <v>54</v>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.1147072757380191</v>
+        <v>-0.09755658272663048</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4088433946915686</v>
+        <v>0.4828077401859805</v>
       </c>
       <c r="G10" t="n">
         <v>54</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5774714575757699</v>
+        <v>0.5776229711921197</v>
       </c>
       <c r="F11" t="n">
-        <v>4.838710029206074e-06</v>
+        <v>4.804644126956747e-06</v>
       </c>
       <c r="G11" t="n">
         <v>54</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.01847632047732883</v>
+        <v>0.03338014303366481</v>
       </c>
       <c r="F12" t="n">
-        <v>0.894504193146118</v>
+        <v>0.8106247713421173</v>
       </c>
       <c r="G12" t="n">
         <v>54</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.01865889872247367</v>
+        <v>0.03203557464358047</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8934677174592276</v>
+        <v>0.818120498747801</v>
       </c>
       <c r="G13" t="n">
         <v>54</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.0421959409018032</v>
+        <v>0.0006920009770531994</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7619240660049236</v>
+        <v>0.9960375948240344</v>
       </c>
       <c r="G14" t="n">
         <v>54</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.08398536984886841</v>
+        <v>0.09048930423466249</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5459824352621201</v>
+        <v>0.5152171241316059</v>
       </c>
       <c r="G15" t="n">
         <v>54</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1766700955291298</v>
+        <v>0.1644927028395282</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2012646201947388</v>
+        <v>0.2345960170890373</v>
       </c>
       <c r="G16" t="n">
         <v>54</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1320757340943724</v>
+        <v>0.1416566705967726</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3410848731517471</v>
+        <v>0.3068915166324117</v>
       </c>
       <c r="G17" t="n">
         <v>54</v>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.8108492471152043</v>
+        <v>-0.8084176445515988</v>
       </c>
       <c r="F18" t="n">
-        <v>1.073403332699949e-13</v>
+        <v>1.448963674061664e-13</v>
       </c>
       <c r="G18" t="n">
         <v>54</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5774714575757699</v>
+        <v>0.5776229711921198</v>
       </c>
       <c r="F19" t="n">
-        <v>4.838710029206074e-06</v>
+        <v>4.804644126956729e-06</v>
       </c>
       <c r="G19" t="n">
         <v>54</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.5013397555463839</v>
+        <v>0.5358764600046356</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0001126430546746295</v>
+        <v>2.967526939499799e-05</v>
       </c>
       <c r="G20" t="n">
         <v>54</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5040346638331349</v>
+        <v>0.537474817563098</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0001020264101333588</v>
+        <v>2.779910370747038e-05</v>
       </c>
       <c r="G21" t="n">
         <v>54</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4695334408680122</v>
+        <v>0.5202463311198781</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0003412085417923039</v>
+        <v>5.525144986351399e-05</v>
       </c>
       <c r="G22" t="n">
         <v>54</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.5622578922860348</v>
+        <v>0.5885821397637915</v>
       </c>
       <c r="F23" t="n">
-        <v>9.664682538683457e-06</v>
+        <v>2.854866642157795e-06</v>
       </c>
       <c r="G23" t="n">
         <v>54</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3928425925076893</v>
+        <v>0.3897800523496315</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003299403072422453</v>
+        <v>0.003574509799531435</v>
       </c>
       <c r="G24" t="n">
         <v>54</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6015112433863311</v>
+        <v>0.6362591816659465</v>
       </c>
       <c r="F25" t="n">
-        <v>1.506572593393028e-06</v>
+        <v>2.332536496980518e-07</v>
       </c>
       <c r="G25" t="n">
         <v>54</v>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.6060438751739556</v>
+        <v>-0.6332001839618925</v>
       </c>
       <c r="F26" t="n">
-        <v>1.196073571475245e-06</v>
+        <v>2.774499792199732e-07</v>
       </c>
       <c r="G26" t="n">
         <v>54</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.01847632047732883</v>
+        <v>0.03338014303366481</v>
       </c>
       <c r="F27" t="n">
-        <v>0.894504193146118</v>
+        <v>0.8106247713421173</v>
       </c>
       <c r="G27" t="n">
         <v>54</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.5013397555463839</v>
+        <v>0.5358764600046356</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0001126430546746295</v>
+        <v>2.967526939499799e-05</v>
       </c>
       <c r="G28" t="n">
         <v>54</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.9998284703258649</v>
+        <v>0.9996950529485943</v>
       </c>
       <c r="F29" t="n">
-        <v>9.131761293014849e-92</v>
+        <v>2.863331232627529e-85</v>
       </c>
       <c r="G29" t="n">
         <v>54</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.9749375823684576</v>
+        <v>0.9821986741907431</v>
       </c>
       <c r="F30" t="n">
-        <v>1.292530112910958e-35</v>
+        <v>1.936178162470816e-39</v>
       </c>
       <c r="G30" t="n">
         <v>54</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9757761727743733</v>
+        <v>0.9804071059954947</v>
       </c>
       <c r="F31" t="n">
-        <v>5.390016379797268e-36</v>
+        <v>2.292449198857029e-38</v>
       </c>
       <c r="G31" t="n">
         <v>54</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.07478701710939178</v>
+        <v>0.07250133419920027</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5909468498790506</v>
+        <v>0.6023709395308028</v>
       </c>
       <c r="G32" t="n">
         <v>54</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9304160553634782</v>
+        <v>0.9441564388958947</v>
       </c>
       <c r="F33" t="n">
-        <v>2.535671566990708e-24</v>
+        <v>9.866076403582992e-27</v>
       </c>
       <c r="G33" t="n">
         <v>54</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.6085264440847995</v>
+        <v>-0.6354782247571885</v>
       </c>
       <c r="F34" t="n">
-        <v>1.052441868984258e-06</v>
+        <v>2.438625782160787e-07</v>
       </c>
       <c r="G34" t="n">
         <v>54</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.01865889872247367</v>
+        <v>0.03203557464358047</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8934677174592276</v>
+        <v>0.818120498747801</v>
       </c>
       <c r="G35" t="n">
         <v>54</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.5040346638331348</v>
+        <v>0.5374748175630981</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001020264101333588</v>
+        <v>2.779910370747033e-05</v>
       </c>
       <c r="G36" t="n">
         <v>54</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.9998284703258647</v>
+        <v>0.9996950529485943</v>
       </c>
       <c r="F37" t="n">
-        <v>9.13176129316876e-92</v>
+        <v>2.863331232627529e-85</v>
       </c>
       <c r="G37" t="n">
         <v>54</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.9741566609491136</v>
+        <v>0.9818562988374308</v>
       </c>
       <c r="F38" t="n">
-        <v>2.842998416039245e-35</v>
+        <v>3.164115515173558e-39</v>
       </c>
       <c r="G38" t="n">
         <v>54</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9761387459500666</v>
+        <v>0.9804078521059651</v>
       </c>
       <c r="F39" t="n">
-        <v>3.6578006806963e-36</v>
+        <v>2.290201288451873e-38</v>
       </c>
       <c r="G39" t="n">
         <v>54</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.07756813417190775</v>
+        <v>0.07383266628549646</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5771785896196067</v>
+        <v>0.5957050354027522</v>
       </c>
       <c r="G40" t="n">
         <v>54</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9316943015056222</v>
+        <v>0.9445778540118162</v>
       </c>
       <c r="F41" t="n">
-        <v>1.590894953347864e-24</v>
+        <v>8.144642090323908e-27</v>
       </c>
       <c r="G41" t="n">
         <v>54</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.590893600562993</v>
+        <v>-0.6267725135680527</v>
       </c>
       <c r="F42" t="n">
-        <v>2.551759285524689e-06</v>
+        <v>3.970809836132787e-07</v>
       </c>
       <c r="G42" t="n">
         <v>54</v>
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.0421959409018032</v>
+        <v>0.0006920009770531994</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7619240660049236</v>
+        <v>0.9960375948240344</v>
       </c>
       <c r="G43" t="n">
         <v>54</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.4695334408680122</v>
+        <v>0.5202463311198781</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0003412085417923039</v>
+        <v>5.525144986351399e-05</v>
       </c>
       <c r="G44" t="n">
         <v>54</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.9749375823684576</v>
+        <v>0.9821986741907431</v>
       </c>
       <c r="F45" t="n">
-        <v>1.292530112910958e-35</v>
+        <v>1.936178162470816e-39</v>
       </c>
       <c r="G45" t="n">
         <v>54</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.9741566609491136</v>
+        <v>0.9818562988374308</v>
       </c>
       <c r="F46" t="n">
-        <v>2.842998416039245e-35</v>
+        <v>3.164115515173558e-39</v>
       </c>
       <c r="G46" t="n">
         <v>54</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9459500667047835</v>
+        <v>0.9551743853630645</v>
       </c>
       <c r="F47" t="n">
-        <v>4.316583195899348e-27</v>
+        <v>3.728242438991514e-29</v>
       </c>
       <c r="G47" t="n">
         <v>54</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.05911949685534591</v>
+        <v>0.04532113588717361</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6710960490110992</v>
+        <v>0.7448666486246772</v>
       </c>
       <c r="G48" t="n">
         <v>54</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.8920526014865636</v>
+        <v>0.9085953878406707</v>
       </c>
       <c r="F49" t="n">
-        <v>1.422980409276759e-19</v>
+        <v>2.320211738248817e-21</v>
       </c>
       <c r="G49" t="n">
         <v>54</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.6613863061337237</v>
+        <v>-0.6797419296477282</v>
       </c>
       <c r="F50" t="n">
-        <v>5.201631499650993e-08</v>
+        <v>1.584502255272803e-08</v>
       </c>
       <c r="G50" t="n">
         <v>54</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.08398536984886841</v>
+        <v>0.09048930423466249</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5459824352621201</v>
+        <v>0.5152171241316059</v>
       </c>
       <c r="G51" t="n">
         <v>54</v>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.5622578922860348</v>
+        <v>0.5885821397637915</v>
       </c>
       <c r="F52" t="n">
-        <v>9.664682538683457e-06</v>
+        <v>2.854866642157795e-06</v>
       </c>
       <c r="G52" t="n">
         <v>54</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9757761727743733</v>
+        <v>0.9804071059954947</v>
       </c>
       <c r="F53" t="n">
-        <v>5.390016379797268e-36</v>
+        <v>2.292449198857029e-38</v>
       </c>
       <c r="G53" t="n">
         <v>54</v>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9761387459500666</v>
+        <v>0.9804078521059651</v>
       </c>
       <c r="F54" t="n">
-        <v>3.6578006806963e-36</v>
+        <v>2.290201288451873e-38</v>
       </c>
       <c r="G54" t="n">
         <v>54</v>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.9459500667047835</v>
+        <v>0.9551743853630645</v>
       </c>
       <c r="F55" t="n">
-        <v>4.316583195899348e-27</v>
+        <v>3.728242438991514e-29</v>
       </c>
       <c r="G55" t="n">
         <v>54</v>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1813226605679436</v>
+        <v>0.1642462359443491</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1894614988346374</v>
+        <v>0.2353076241199137</v>
       </c>
       <c r="G56" t="n">
         <v>54</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.9786544692205068</v>
+        <v>0.9817038307604344</v>
       </c>
       <c r="F57" t="n">
-        <v>2.08193469598647e-37</v>
+        <v>3.925905762910163e-39</v>
       </c>
       <c r="G57" t="n">
         <v>54</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-0.2912899347582636</v>
+        <v>-0.290383833219843</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03259552876625069</v>
+        <v>0.033164999239499</v>
       </c>
       <c r="G58" t="n">
         <v>54</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1766700955291298</v>
+        <v>0.1644927028395282</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2012646201947388</v>
+        <v>0.2345960170890373</v>
       </c>
       <c r="G59" t="n">
         <v>54</v>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.3928425925076894</v>
+        <v>0.3897800523496315</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003299403072422447</v>
+        <v>0.003574509799531443</v>
       </c>
       <c r="G60" t="n">
         <v>54</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.07478701710939178</v>
+        <v>0.07250133419920028</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5909468498790506</v>
+        <v>0.6023709395308028</v>
       </c>
       <c r="G61" t="n">
         <v>54</v>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.07756813417190775</v>
+        <v>0.07383266628549646</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5771785896196067</v>
+        <v>0.5957050354027522</v>
       </c>
       <c r="G62" t="n">
         <v>54</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.05911949685534591</v>
+        <v>0.04532113588717361</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6710960490110992</v>
+        <v>0.7448666486246772</v>
       </c>
       <c r="G63" t="n">
         <v>54</v>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1813226605679436</v>
+        <v>0.1642462359443491</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1894614988346374</v>
+        <v>0.2353076241199137</v>
       </c>
       <c r="G64" t="n">
         <v>54</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2741757194587383</v>
+        <v>0.2407089765580331</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04482906187522447</v>
+        <v>0.07954456741089778</v>
       </c>
       <c r="G65" t="n">
         <v>54</v>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-0.6791351552050159</v>
+        <v>-0.7035762322810957</v>
       </c>
       <c r="F66" t="n">
-        <v>1.650236478581612e-08</v>
+        <v>2.963581373385193e-09</v>
       </c>
       <c r="G66" t="n">
         <v>54</v>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.1320757340943725</v>
+        <v>0.1416566705967726</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3410848731517471</v>
+        <v>0.3068915166324118</v>
       </c>
       <c r="G67" t="n">
         <v>54</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.6015112433863311</v>
+        <v>0.6362591816659465</v>
       </c>
       <c r="F68" t="n">
-        <v>1.506572593393028e-06</v>
+        <v>2.332536496980518e-07</v>
       </c>
       <c r="G68" t="n">
         <v>54</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.9304160553634782</v>
+        <v>0.9441564388958946</v>
       </c>
       <c r="F69" t="n">
-        <v>2.535671566990708e-24</v>
+        <v>9.866076403583414e-27</v>
       </c>
       <c r="G69" t="n">
         <v>54</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.9316943015056222</v>
+        <v>0.9445778540118162</v>
       </c>
       <c r="F70" t="n">
-        <v>1.590894953347864e-24</v>
+        <v>8.144642090323908e-27</v>
       </c>
       <c r="G70" t="n">
         <v>54</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.8920526014865636</v>
+        <v>0.9085953878406707</v>
       </c>
       <c r="F71" t="n">
-        <v>1.422980409276759e-19</v>
+        <v>2.320211738248817e-21</v>
       </c>
       <c r="G71" t="n">
         <v>54</v>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.9786544692205068</v>
+        <v>0.9817038307604344</v>
       </c>
       <c r="F72" t="n">
-        <v>2.08193469598647e-37</v>
+        <v>3.925905762910163e-39</v>
       </c>
       <c r="G72" t="n">
         <v>54</v>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.2741757194587383</v>
+        <v>0.2407089765580331</v>
       </c>
       <c r="F73" t="n">
-        <v>0.04482906187522447</v>
+        <v>0.07954456741089778</v>
       </c>
       <c r="G73" t="n">
         <v>54</v>
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.08661513089441732</v>
+        <v>-0.1577270613826065</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5334372322015588</v>
+        <v>0.2546700551993977</v>
       </c>
       <c r="G74" t="n">
         <v>54</v>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-0.7989707542641168</v>
+        <v>-0.8114716851691869</v>
       </c>
       <c r="F75" t="n">
-        <v>4.46930134278483e-13</v>
+        <v>9.933664994360861e-14</v>
       </c>
       <c r="G75" t="n">
         <v>54</v>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-0.4752250647314447</v>
+        <v>-0.4981895553086759</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0002820372275323338</v>
+        <v>0.0001263300630769568</v>
       </c>
       <c r="G76" t="n">
         <v>54</v>
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-0.4759510520902678</v>
+        <v>-0.4989457472173677</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0002752023047897876</v>
+        <v>0.0001229125222185343</v>
       </c>
       <c r="G77" t="n">
         <v>54</v>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-0.4750894604547879</v>
+        <v>-0.4990232653945164</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0002833308734327162</v>
+        <v>0.0001225670086736881</v>
       </c>
       <c r="G78" t="n">
         <v>54</v>
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-0.4781441944351254</v>
+        <v>-0.4946047292970426</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0002554594137842701</v>
+        <v>0.0001437451275006006</v>
       </c>
       <c r="G79" t="n">
         <v>54</v>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.1284554801988051</v>
+        <v>-0.04496054274622439</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3545984336566856</v>
+        <v>0.7468287646950158</v>
       </c>
       <c r="G80" t="n">
         <v>54</v>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-0.4922821299082256</v>
+        <v>-0.4861940070764127</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0001561713653846376</v>
+        <v>0.000193541538102851</v>
       </c>
       <c r="G81" t="n">
         <v>54</v>
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.0866151308944173</v>
+        <v>-0.1577270613826066</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5334372322015588</v>
+        <v>0.2546700551993975</v>
       </c>
       <c r="G82" t="n">
         <v>54</v>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.583040752706401</v>
+        <v>0.6183515244555914</v>
       </c>
       <c r="F83" t="n">
-        <v>3.723289460648759e-06</v>
+        <v>6.274697323624238e-07</v>
       </c>
       <c r="G83" t="n">
         <v>54</v>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.1658413671394169</v>
+        <v>0.2161516805043809</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2307283167087541</v>
+        <v>0.1164524928098385</v>
       </c>
       <c r="G84" t="n">
         <v>54</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.1462115813269051</v>
+        <v>0.1880439538774715</v>
       </c>
       <c r="F85" t="n">
-        <v>0.291437581104541</v>
+        <v>0.1732974095512064</v>
       </c>
       <c r="G85" t="n">
         <v>54</v>
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.1668833076229087</v>
+        <v>0.2153874012695274</v>
       </c>
       <c r="F86" t="n">
-        <v>0.227770525188446</v>
+        <v>0.1177813577109111</v>
       </c>
       <c r="G86" t="n">
         <v>54</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.1527527360980543</v>
+        <v>0.2153453990461908</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2701486550959735</v>
+        <v>0.1178547210982763</v>
       </c>
       <c r="G87" t="n">
         <v>54</v>
@@ -3158,10 +3158,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.1262946036583419</v>
+        <v>0.1142880496985928</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3628186665726714</v>
+        <v>0.4105693277467599</v>
       </c>
       <c r="G88" t="n">
         <v>54</v>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.1031070486042041</v>
+        <v>0.1774173913733392</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4581291834567802</v>
+        <v>0.1993345165711949</v>
       </c>
       <c r="G89" t="n">
         <v>54</v>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-0.7989707542641168</v>
+        <v>-0.8114716851691869</v>
       </c>
       <c r="F90" t="n">
-        <v>4.46930134278483e-13</v>
+        <v>9.933664994360861e-14</v>
       </c>
       <c r="G90" t="n">
         <v>54</v>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.583040752706401</v>
+        <v>0.6183515244555914</v>
       </c>
       <c r="F91" t="n">
-        <v>3.723289460648759e-06</v>
+        <v>6.274697323624238e-07</v>
       </c>
       <c r="G91" t="n">
         <v>54</v>
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.4713363939257486</v>
+        <v>0.5140245831338056</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0003213469160702562</v>
+        <v>7.017244105026012e-05</v>
       </c>
       <c r="G92" t="n">
         <v>54</v>
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.4549402706896568</v>
+        <v>0.4914071548089404</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0005478257681333807</v>
+        <v>0.0001611015749285907</v>
       </c>
       <c r="G93" t="n">
         <v>54</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.4731040883680739</v>
+        <v>0.5182181453285239</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0003028990789028992</v>
+        <v>5.975997469649469e-05</v>
       </c>
       <c r="G94" t="n">
         <v>54</v>
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.4621597161939748</v>
+        <v>0.5076852561958304</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0004345719487357415</v>
+        <v>8.910427496033633e-05</v>
       </c>
       <c r="G95" t="n">
         <v>54</v>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.1198120743269798</v>
+        <v>0.05289425415363574</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3881657117294882</v>
+        <v>0.7040471370730997</v>
       </c>
       <c r="G96" t="n">
         <v>54</v>
@@ -3437,10 +3437,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.4394261431165479</v>
+        <v>0.4752056562521062</v>
       </c>
       <c r="F97" t="n">
-        <v>0.000886035550421835</v>
+        <v>0.0002822220517749314</v>
       </c>
       <c r="G97" t="n">
         <v>54</v>
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-0.4752250647314447</v>
+        <v>-0.4981895553086759</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0002820372275323338</v>
+        <v>0.0001263300630769568</v>
       </c>
       <c r="G98" t="n">
         <v>54</v>
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.1658413671394169</v>
+        <v>0.2161516805043808</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2307283167087541</v>
+        <v>0.1164524928098385</v>
       </c>
       <c r="G99" t="n">
         <v>54</v>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.4713363939257486</v>
+        <v>0.5140245831338056</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0003213469160702576</v>
+        <v>7.017244105026012e-05</v>
       </c>
       <c r="G100" t="n">
         <v>54</v>
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.9982846694757392</v>
+        <v>0.9977128923921493</v>
       </c>
       <c r="F101" t="n">
-        <v>8.968152592306029e-66</v>
+        <v>1.578045482705376e-62</v>
       </c>
       <c r="G101" t="n">
         <v>54</v>
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.9869253647484197</v>
+        <v>0.9863917061370691</v>
       </c>
       <c r="F102" t="n">
-        <v>6.718023798924345e-43</v>
+        <v>1.888690803197593e-42</v>
       </c>
       <c r="G102" t="n">
         <v>54</v>
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.9911946336392243</v>
+        <v>0.9936342158625413</v>
       </c>
       <c r="F103" t="n">
-        <v>2.431856446173676e-47</v>
+        <v>5.438169627876402e-51</v>
       </c>
       <c r="G103" t="n">
         <v>54</v>
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.09819318448850679</v>
+        <v>-0.102881756573944</v>
       </c>
       <c r="F104" t="n">
-        <v>0.479942162761785</v>
+        <v>0.4591173070163644</v>
       </c>
       <c r="G104" t="n">
         <v>54</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9507509345932982</v>
+        <v>0.9562018761235219</v>
       </c>
       <c r="F105" t="n">
-        <v>4.078760930496208e-28</v>
+        <v>2.066089302101297e-29</v>
       </c>
       <c r="G105" t="n">
         <v>54</v>
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-0.4759510520902678</v>
+        <v>-0.4989457472173677</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0002752023047897876</v>
+        <v>0.0001229125222185343</v>
       </c>
       <c r="G106" t="n">
         <v>54</v>
@@ -3747,10 +3747,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.1462115813269052</v>
+        <v>0.1880439538774715</v>
       </c>
       <c r="F107" t="n">
-        <v>0.2914375811045409</v>
+        <v>0.1732974095512063</v>
       </c>
       <c r="G107" t="n">
         <v>54</v>
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.4549402706896568</v>
+        <v>0.4914071548089403</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0005478257681333807</v>
+        <v>0.0001611015749285911</v>
       </c>
       <c r="G108" t="n">
         <v>54</v>
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9982846694757392</v>
+        <v>0.9977128923921493</v>
       </c>
       <c r="F109" t="n">
-        <v>8.968152592306029e-66</v>
+        <v>1.578045482705376e-62</v>
       </c>
       <c r="G109" t="n">
         <v>54</v>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9861254049933293</v>
+        <v>0.9834572136458928</v>
       </c>
       <c r="F110" t="n">
-        <v>3.115963215955554e-42</v>
+        <v>2.921740192373814e-40</v>
       </c>
       <c r="G110" t="n">
         <v>54</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.9897084048027442</v>
+        <v>0.9915380217267008</v>
       </c>
       <c r="F111" t="n">
-        <v>1.378004743069751e-45</v>
+        <v>8.681137791267904e-48</v>
       </c>
       <c r="G111" t="n">
         <v>54</v>
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-0.0981513245664189</v>
+        <v>-0.09632170764246235</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4801303125841596</v>
+        <v>0.4883919918296228</v>
       </c>
       <c r="G112" t="n">
         <v>54</v>
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9521250238231369</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="F113" t="n">
-        <v>1.987707165478244e-28</v>
+        <v>2.645135245357339e-30</v>
       </c>
       <c r="G113" t="n">
         <v>54</v>
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-0.475089460454788</v>
+        <v>-0.4990232653945164</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0002833308734327155</v>
+        <v>0.0001225670086736881</v>
       </c>
       <c r="G114" t="n">
         <v>54</v>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.1668833076229087</v>
+        <v>0.2153874012695274</v>
       </c>
       <c r="F115" t="n">
-        <v>0.227770525188446</v>
+        <v>0.1177813577109111</v>
       </c>
       <c r="G115" t="n">
         <v>54</v>
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.4731040883680739</v>
+        <v>0.5182181453285239</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0003028990789028992</v>
+        <v>5.975997469649469e-05</v>
       </c>
       <c r="G116" t="n">
         <v>54</v>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9869253647484197</v>
+        <v>0.9863917061370691</v>
       </c>
       <c r="F117" t="n">
-        <v>6.718023798924345e-43</v>
+        <v>1.888690803197593e-42</v>
       </c>
       <c r="G117" t="n">
         <v>54</v>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9861254049933293</v>
+        <v>0.9834572136458928</v>
       </c>
       <c r="F118" t="n">
-        <v>3.115963215955554e-42</v>
+        <v>2.921740192373814e-40</v>
       </c>
       <c r="G118" t="n">
         <v>54</v>
@@ -4119,10 +4119,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.9792643415284923</v>
+        <v>0.9800266819134742</v>
       </c>
       <c r="F119" t="n">
-        <v>9.871189637079919e-38</v>
+        <v>3.762139510886577e-38</v>
       </c>
       <c r="G119" t="n">
         <v>54</v>
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-0.1158376214979988</v>
+        <v>-0.1152277491900133</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4042107612144887</v>
+        <v>0.4067064757125569</v>
       </c>
       <c r="G120" t="n">
         <v>54</v>
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.932456641890604</v>
+        <v>0.9348961311225461</v>
       </c>
       <c r="F121" t="n">
-        <v>1.199568673278407e-24</v>
+        <v>4.751286307188935e-25</v>
       </c>
       <c r="G121" t="n">
         <v>54</v>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-0.4781441944351254</v>
+        <v>-0.4946047292970426</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0002554594137842701</v>
+        <v>0.0001437451275006006</v>
       </c>
       <c r="G122" t="n">
         <v>54</v>
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.1527527360980543</v>
+        <v>0.2153453990461908</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2701486550959734</v>
+        <v>0.1178547210982764</v>
       </c>
       <c r="G123" t="n">
         <v>54</v>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.4621597161939748</v>
+        <v>0.5076852561958304</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0004345719487357415</v>
+        <v>8.910427496033633e-05</v>
       </c>
       <c r="G124" t="n">
         <v>54</v>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.9911946336392244</v>
+        <v>0.9936342158625413</v>
       </c>
       <c r="F125" t="n">
-        <v>2.431856446172847e-47</v>
+        <v>5.438169627876402e-51</v>
       </c>
       <c r="G125" t="n">
         <v>54</v>
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.9897084048027442</v>
+        <v>0.9915380217267008</v>
       </c>
       <c r="F126" t="n">
-        <v>1.378004743069751e-45</v>
+        <v>8.681137791267904e-48</v>
       </c>
       <c r="G126" t="n">
         <v>54</v>
@@ -4367,10 +4367,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9792643415284923</v>
+        <v>0.9800266819134742</v>
       </c>
       <c r="F127" t="n">
-        <v>9.871189637079919e-38</v>
+        <v>3.762139510886577e-38</v>
       </c>
       <c r="G127" t="n">
         <v>54</v>
@@ -4398,10 +4398,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-0.04227177434724604</v>
+        <v>-0.05683247570040022</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7615087954521161</v>
+        <v>0.6831343365418305</v>
       </c>
       <c r="G128" t="n">
         <v>54</v>
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.9700400228702114</v>
+        <v>0.9699637888317132</v>
       </c>
       <c r="F129" t="n">
-        <v>1.26179133516004e-33</v>
+        <v>1.346724732520576e-33</v>
       </c>
       <c r="G129" t="n">
         <v>54</v>
@@ -4460,10 +4460,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-0.1284554801988051</v>
+        <v>-0.04496054274622439</v>
       </c>
       <c r="F130" t="n">
-        <v>0.3545984336566856</v>
+        <v>0.7468287646950158</v>
       </c>
       <c r="G130" t="n">
         <v>54</v>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.1262946036583419</v>
+        <v>0.1142880496985928</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3628186665726716</v>
+        <v>0.4105693277467599</v>
       </c>
       <c r="G131" t="n">
         <v>54</v>
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.1198120743269798</v>
+        <v>0.05289425415363574</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3881657117294882</v>
+        <v>0.7040471370730997</v>
       </c>
       <c r="G132" t="n">
         <v>54</v>
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>-0.09819318448850679</v>
+        <v>-0.102881756573944</v>
       </c>
       <c r="F133" t="n">
-        <v>0.479942162761785</v>
+        <v>0.4591173070163644</v>
       </c>
       <c r="G133" t="n">
         <v>54</v>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-0.0981513245664189</v>
+        <v>-0.09632170764246235</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4801303125841596</v>
+        <v>0.4883919918296228</v>
       </c>
       <c r="G134" t="n">
         <v>54</v>
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>-0.1158376214979988</v>
+        <v>-0.1152277491900133</v>
       </c>
       <c r="F135" t="n">
-        <v>0.4042107612144887</v>
+        <v>0.4067064757125569</v>
       </c>
       <c r="G135" t="n">
         <v>54</v>
@@ -4646,10 +4646,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-0.04227177434724604</v>
+        <v>-0.05683247570040022</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7615087954521161</v>
+        <v>0.6831343365418305</v>
       </c>
       <c r="G136" t="n">
         <v>54</v>
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.1115685153421002</v>
+        <v>0.1023441966838193</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4218671225360192</v>
+        <v>0.4614797032847169</v>
       </c>
       <c r="G137" t="n">
         <v>54</v>
@@ -4708,10 +4708,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-0.4922821299082257</v>
+        <v>-0.4861940070764127</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0001561713653846376</v>
+        <v>0.000193541538102851</v>
       </c>
       <c r="G138" t="n">
         <v>54</v>
@@ -4739,10 +4739,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.1031070486042041</v>
+        <v>0.1774173913733392</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4581291834567806</v>
+        <v>0.1993345165711949</v>
       </c>
       <c r="G139" t="n">
         <v>54</v>
@@ -4770,10 +4770,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.4394261431165478</v>
+        <v>0.4752056562521062</v>
       </c>
       <c r="F140" t="n">
-        <v>0.000886035550421835</v>
+        <v>0.0002822220517749314</v>
       </c>
       <c r="G140" t="n">
         <v>54</v>
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9507509345932982</v>
+        <v>0.956201876123522</v>
       </c>
       <c r="F141" t="n">
-        <v>4.078760930496208e-28</v>
+        <v>2.06608930210118e-29</v>
       </c>
       <c r="G141" t="n">
         <v>54</v>
@@ -4832,10 +4832,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.9521250238231369</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="F142" t="n">
-        <v>1.987707165478244e-28</v>
+        <v>2.645135245357339e-30</v>
       </c>
       <c r="G142" t="n">
         <v>54</v>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.932456641890604</v>
+        <v>0.9348961311225461</v>
       </c>
       <c r="F143" t="n">
-        <v>1.199568673278407e-24</v>
+        <v>4.751286307188935e-25</v>
       </c>
       <c r="G143" t="n">
         <v>54</v>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.9700400228702114</v>
+        <v>0.9699637888317132</v>
       </c>
       <c r="F144" t="n">
-        <v>1.26179133516004e-33</v>
+        <v>1.346724732520576e-33</v>
       </c>
       <c r="G144" t="n">
         <v>54</v>
@@ -4925,10 +4925,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.1115685153421002</v>
+        <v>0.1023441966838193</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4218671225360192</v>
+        <v>0.4614797032847169</v>
       </c>
       <c r="G145" t="n">
         <v>54</v>
@@ -4956,10 +4956,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.2061461779928763</v>
+        <v>0.2418767936602473</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1347766721866883</v>
+        <v>0.07805197273755435</v>
       </c>
       <c r="G146" t="n">
         <v>54</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-0.6754793708565289</v>
+        <v>-0.6650024107546901</v>
       </c>
       <c r="F147" t="n">
-        <v>2.10393355856169e-08</v>
+        <v>4.142552427928043e-08</v>
       </c>
       <c r="G147" t="n">
         <v>54</v>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-0.3699638687343152</v>
+        <v>-0.3944855509191491</v>
       </c>
       <c r="F148" t="n">
-        <v>0.005896258694224334</v>
+        <v>0.003159673538973794</v>
       </c>
       <c r="G148" t="n">
         <v>54</v>
@@ -5049,10 +5049,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-0.377275407642108</v>
+        <v>-0.3980928634102868</v>
       </c>
       <c r="F149" t="n">
-        <v>0.004919337048444358</v>
+        <v>0.002871099921261882</v>
       </c>
       <c r="G149" t="n">
         <v>54</v>
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-0.40240401241468</v>
+        <v>-0.4220507318322931</v>
       </c>
       <c r="F150" t="n">
-        <v>0.002557032884536421</v>
+        <v>0.00147884361495673</v>
       </c>
       <c r="G150" t="n">
         <v>54</v>
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-0.3641531193918062</v>
+        <v>-0.3772883580871642</v>
       </c>
       <c r="F151" t="n">
-        <v>0.006789731665960817</v>
+        <v>0.004917741180329008</v>
       </c>
       <c r="G151" t="n">
         <v>54</v>
@@ -5142,10 +5142,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.3568800622677387</v>
+        <v>0.4152825378639575</v>
       </c>
       <c r="F152" t="n">
-        <v>0.008072766153633344</v>
+        <v>0.001792481896142164</v>
       </c>
       <c r="G152" t="n">
         <v>54</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-0.1722059821703828</v>
+        <v>-0.1992387099428802</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2130703575961676</v>
+        <v>0.1486356725771158</v>
       </c>
       <c r="G153" t="n">
         <v>54</v>
@@ -5204,10 +5204,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.2061461779928763</v>
+        <v>0.2418767936602473</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1347766721866882</v>
+        <v>0.07805197273755436</v>
       </c>
       <c r="G154" t="n">
         <v>54</v>
@@ -5235,10 +5235,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.403968993132417</v>
+        <v>0.4037915851666374</v>
       </c>
       <c r="F155" t="n">
-        <v>0.002450805673261245</v>
+        <v>0.002462647433756875</v>
       </c>
       <c r="G155" t="n">
         <v>54</v>
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-0.4563556727212412</v>
+        <v>-0.3924727073602638</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0005237175379356781</v>
+        <v>0.00333160414235271</v>
       </c>
       <c r="G156" t="n">
         <v>54</v>
@@ -5297,10 +5297,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-0.4727104755048287</v>
+        <v>-0.4088630572271273</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0003069214871610402</v>
+        <v>0.002143448440599267</v>
       </c>
       <c r="G157" t="n">
         <v>54</v>
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.4134040743217702</v>
+        <v>-0.3597286233879886</v>
       </c>
       <c r="F158" t="n">
-        <v>0.001889452464250057</v>
+        <v>0.007547129903039074</v>
       </c>
       <c r="G158" t="n">
         <v>54</v>
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-0.4012999009745111</v>
+        <v>-0.3445315949729986</v>
       </c>
       <c r="F159" t="n">
-        <v>0.002634416430250981</v>
+        <v>0.01073609460261227</v>
       </c>
       <c r="G159" t="n">
         <v>54</v>
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.2261334860126722</v>
+        <v>0.3009877778046595</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1001290972423182</v>
+        <v>0.02699371027223033</v>
       </c>
       <c r="G160" t="n">
         <v>54</v>
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-0.3429245900489341</v>
+        <v>-0.2441760886781554</v>
       </c>
       <c r="F161" t="n">
-        <v>0.01113307199858376</v>
+        <v>0.07517797940715702</v>
       </c>
       <c r="G161" t="n">
         <v>54</v>
@@ -5452,10 +5452,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-0.6754793708565289</v>
+        <v>-0.6650024107546901</v>
       </c>
       <c r="F162" t="n">
-        <v>2.10393355856169e-08</v>
+        <v>4.142552427928043e-08</v>
       </c>
       <c r="G162" t="n">
         <v>54</v>
@@ -5483,10 +5483,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.403968993132417</v>
+        <v>0.4037915851666374</v>
       </c>
       <c r="F163" t="n">
-        <v>0.002450805673261245</v>
+        <v>0.002462647433756875</v>
       </c>
       <c r="G163" t="n">
         <v>54</v>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.1270644180893825</v>
+        <v>0.1663924891575802</v>
       </c>
       <c r="F164" t="n">
-        <v>0.3598770166647232</v>
+        <v>0.2291605436053857</v>
       </c>
       <c r="G164" t="n">
         <v>54</v>
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.1183808503578432</v>
+        <v>0.1571955835602251</v>
       </c>
       <c r="F165" t="n">
-        <v>0.3938997138706507</v>
+        <v>0.2562946590204088</v>
       </c>
       <c r="G165" t="n">
         <v>54</v>
@@ -5576,10 +5576,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.1813559278445374</v>
+        <v>0.2155441273969875</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1893789262186862</v>
+        <v>0.1175079182976364</v>
       </c>
       <c r="G166" t="n">
         <v>54</v>
@@ -5607,10 +5607,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.1255659263127009</v>
+        <v>0.160420108351204</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3656165425857637</v>
+        <v>0.2465450327142233</v>
       </c>
       <c r="G167" t="n">
         <v>54</v>
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-0.2783736646681512</v>
+        <v>-0.242146456922564</v>
       </c>
       <c r="F168" t="n">
-        <v>0.04152620459682583</v>
+        <v>0.07771048039083159</v>
       </c>
       <c r="G168" t="n">
         <v>54</v>
@@ -5669,10 +5669,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-0.08629775719043031</v>
+        <v>0.004529689587327609</v>
       </c>
       <c r="F169" t="n">
-        <v>0.5349437152736325</v>
+        <v>0.9740672784792185</v>
       </c>
       <c r="G169" t="n">
         <v>54</v>
@@ -5700,10 +5700,10 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.3699638687343152</v>
+        <v>-0.3944855509191491</v>
       </c>
       <c r="F170" t="n">
-        <v>0.005896258694224315</v>
+        <v>0.003159673538973794</v>
       </c>
       <c r="G170" t="n">
         <v>54</v>
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-0.4563556727212412</v>
+        <v>-0.3924727073602638</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0005237175379356781</v>
+        <v>0.00333160414235271</v>
       </c>
       <c r="G171" t="n">
         <v>54</v>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.1270644180893825</v>
+        <v>0.1663924891575802</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3598770166647232</v>
+        <v>0.2291605436053857</v>
       </c>
       <c r="G172" t="n">
         <v>54</v>
@@ -5793,10 +5793,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.9981703830760433</v>
+        <v>0.9990661154113959</v>
       </c>
       <c r="F173" t="n">
-        <v>4.791000600886147e-65</v>
+        <v>1.234158159601008e-72</v>
       </c>
       <c r="G173" t="n">
         <v>54</v>
@@ -5824,10 +5824,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.9840670859538783</v>
+        <v>0.9864872593226603</v>
       </c>
       <c r="F174" t="n">
-        <v>1.108420143224207e-40</v>
+        <v>1.57433590046064e-42</v>
       </c>
       <c r="G174" t="n">
         <v>54</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9759862778730702</v>
+        <v>0.9771865293661406</v>
       </c>
       <c r="F175" t="n">
-        <v>4.308594638528625e-36</v>
+        <v>1.152678132048346e-36</v>
       </c>
       <c r="G175" t="n">
         <v>54</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-0.7171717171717171</v>
+        <v>-0.754960071798478</v>
       </c>
       <c r="F176" t="n">
-        <v>1.056036198939556e-09</v>
+        <v>4.257513854217455e-11</v>
       </c>
       <c r="G176" t="n">
         <v>54</v>
@@ -5917,10 +5917,10 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.6826376977320372</v>
+        <v>0.7161562066520147</v>
       </c>
       <c r="F177" t="n">
-        <v>1.303367181232191e-08</v>
+        <v>1.142994553768548e-09</v>
       </c>
       <c r="G177" t="n">
         <v>54</v>
@@ -5948,10 +5948,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-0.377275407642108</v>
+        <v>-0.3980928634102868</v>
       </c>
       <c r="F178" t="n">
-        <v>0.004919337048444371</v>
+        <v>0.002871099921261882</v>
       </c>
       <c r="G178" t="n">
         <v>54</v>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-0.4727104755048286</v>
+        <v>-0.4088630572271273</v>
       </c>
       <c r="F179" t="n">
-        <v>0.000306921487161041</v>
+        <v>0.002143448440599267</v>
       </c>
       <c r="G179" t="n">
         <v>54</v>
@@ -6010,10 +6010,10 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.1183808503578432</v>
+        <v>0.1571955835602251</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3938997138706507</v>
+        <v>0.2562946590204088</v>
       </c>
       <c r="G180" t="n">
         <v>54</v>
@@ -6041,10 +6041,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.9981703830760433</v>
+        <v>0.9990661154113959</v>
       </c>
       <c r="F181" t="n">
-        <v>4.791000600886147e-65</v>
+        <v>1.234158159601008e-72</v>
       </c>
       <c r="G181" t="n">
         <v>54</v>
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.9815513626834379</v>
+        <v>0.9852868305698492</v>
       </c>
       <c r="F182" t="n">
-        <v>4.86231603770672e-39</v>
+        <v>1.418447163178072e-41</v>
       </c>
       <c r="G182" t="n">
         <v>54</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.974690299218601</v>
+        <v>0.9759862778730702</v>
       </c>
       <c r="F183" t="n">
-        <v>1.663404581826098e-35</v>
+        <v>4.308594638528625e-36</v>
       </c>
       <c r="G183" t="n">
         <v>54</v>
@@ -6134,10 +6134,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-0.7140461215932913</v>
+        <v>-0.7520106727653897</v>
       </c>
       <c r="F184" t="n">
-        <v>1.345795549629431e-09</v>
+        <v>5.582884722113063e-11</v>
       </c>
       <c r="G184" t="n">
         <v>54</v>
@@ -6165,10 +6165,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.6854583571564702</v>
+        <v>0.7159519725557461</v>
       </c>
       <c r="F185" t="n">
-        <v>1.075253921966091e-08</v>
+        <v>1.161281902866523e-09</v>
       </c>
       <c r="G185" t="n">
         <v>54</v>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-0.4024040124146801</v>
+        <v>-0.4220507318322931</v>
       </c>
       <c r="F186" t="n">
-        <v>0.002557032884536415</v>
+        <v>0.00147884361495673</v>
       </c>
       <c r="G186" t="n">
         <v>54</v>
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-0.4134040743217702</v>
+        <v>-0.3597286233879886</v>
       </c>
       <c r="F187" t="n">
-        <v>0.001889452464250057</v>
+        <v>0.007547129903039074</v>
       </c>
       <c r="G187" t="n">
         <v>54</v>
@@ -6258,10 +6258,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.1813559278445374</v>
+        <v>0.2155441273969875</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1893789262186862</v>
+        <v>0.1175079182976363</v>
       </c>
       <c r="G188" t="n">
         <v>54</v>
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.9840670859538783</v>
+        <v>0.9864872593226603</v>
       </c>
       <c r="F189" t="n">
-        <v>1.108420143224207e-40</v>
+        <v>1.57433590046064e-42</v>
       </c>
       <c r="G189" t="n">
         <v>54</v>
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.9815513626834379</v>
+        <v>0.9852868305698492</v>
       </c>
       <c r="F190" t="n">
-        <v>4.86231603770672e-39</v>
+        <v>1.418447163178072e-41</v>
       </c>
       <c r="G190" t="n">
         <v>54</v>
@@ -6351,10 +6351,10 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.9653135124833238</v>
+        <v>0.9667619592147892</v>
       </c>
       <c r="F191" t="n">
-        <v>5.370218702018281e-32</v>
+        <v>1.803174846072134e-32</v>
       </c>
       <c r="G191" t="n">
         <v>54</v>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-0.7126739089003239</v>
+        <v>-0.7609300552696778</v>
       </c>
       <c r="F192" t="n">
-        <v>1.495446464654748e-09</v>
+        <v>2.430974215246775e-11</v>
       </c>
       <c r="G192" t="n">
         <v>54</v>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.6691442729178577</v>
+        <v>0.6956737183152277</v>
       </c>
       <c r="F193" t="n">
-        <v>3.179435328117683e-08</v>
+        <v>5.259780389233268e-09</v>
       </c>
       <c r="G193" t="n">
         <v>54</v>
@@ -6444,10 +6444,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-0.3641531193918062</v>
+        <v>-0.3772883580871642</v>
       </c>
       <c r="F194" t="n">
-        <v>0.006789731665960817</v>
+        <v>0.004917741180329008</v>
       </c>
       <c r="G194" t="n">
         <v>54</v>
@@ -6475,10 +6475,10 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-0.4012999009745111</v>
+        <v>-0.3445315949729986</v>
       </c>
       <c r="F195" t="n">
-        <v>0.002634416430250981</v>
+        <v>0.01073609460261228</v>
       </c>
       <c r="G195" t="n">
         <v>54</v>
@@ -6506,10 +6506,10 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.1255659263127009</v>
+        <v>0.160420108351204</v>
       </c>
       <c r="F196" t="n">
-        <v>0.3656165425857637</v>
+        <v>0.2465450327142233</v>
       </c>
       <c r="G196" t="n">
         <v>54</v>
@@ -6537,10 +6537,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.9759862778730702</v>
+        <v>0.9771865293661406</v>
       </c>
       <c r="F197" t="n">
-        <v>4.308594638528625e-36</v>
+        <v>1.152678132048346e-36</v>
       </c>
       <c r="G197" t="n">
         <v>54</v>
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.974690299218601</v>
+        <v>0.9759862778730702</v>
       </c>
       <c r="F198" t="n">
-        <v>1.663404581826098e-35</v>
+        <v>4.308594638528625e-36</v>
       </c>
       <c r="G198" t="n">
         <v>54</v>
@@ -6599,10 +6599,10 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.9653135124833238</v>
+        <v>0.9667619592147892</v>
       </c>
       <c r="F199" t="n">
-        <v>5.370218702018281e-32</v>
+        <v>1.803174846072134e-32</v>
       </c>
       <c r="G199" t="n">
         <v>54</v>
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.6132647226986848</v>
+        <v>-0.6548122736801981</v>
       </c>
       <c r="F200" t="n">
-        <v>8.219229814153606e-07</v>
+        <v>7.807218896716945e-08</v>
       </c>
       <c r="G200" t="n">
         <v>54</v>
@@ -6661,10 +6661,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.7829616923956545</v>
+        <v>0.8078139889460644</v>
       </c>
       <c r="F201" t="n">
-        <v>2.647322214221166e-12</v>
+        <v>1.55997406393211e-13</v>
       </c>
       <c r="G201" t="n">
         <v>54</v>
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.3568800622677387</v>
+        <v>0.4152825378639575</v>
       </c>
       <c r="F202" t="n">
-        <v>0.008072766153633344</v>
+        <v>0.001792481896142164</v>
       </c>
       <c r="G202" t="n">
         <v>54</v>
@@ -6723,10 +6723,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.2261334860126721</v>
+        <v>0.3009877778046595</v>
       </c>
       <c r="F203" t="n">
-        <v>0.1001290972423183</v>
+        <v>0.02699371027223033</v>
       </c>
       <c r="G203" t="n">
         <v>54</v>
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-0.2783736646681512</v>
+        <v>-0.242146456922564</v>
       </c>
       <c r="F204" t="n">
-        <v>0.04152620459682583</v>
+        <v>0.07771048039083159</v>
       </c>
       <c r="G204" t="n">
         <v>54</v>
@@ -6785,10 +6785,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-0.7171717171717171</v>
+        <v>-0.754960071798478</v>
       </c>
       <c r="F205" t="n">
-        <v>1.056036198939556e-09</v>
+        <v>4.257513854217455e-11</v>
       </c>
       <c r="G205" t="n">
         <v>54</v>
@@ -6816,10 +6816,10 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-0.7140461215932913</v>
+        <v>-0.7520106727653897</v>
       </c>
       <c r="F206" t="n">
-        <v>1.345795549629431e-09</v>
+        <v>5.582884722113063e-11</v>
       </c>
       <c r="G206" t="n">
         <v>54</v>
@@ -6847,10 +6847,10 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-0.7126739089003239</v>
+        <v>-0.7609300552696778</v>
       </c>
       <c r="F207" t="n">
-        <v>1.495446464654748e-09</v>
+        <v>2.430974215246775e-11</v>
       </c>
       <c r="G207" t="n">
         <v>54</v>
@@ -6878,10 +6878,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-0.6132647226986848</v>
+        <v>-0.6548122736801981</v>
       </c>
       <c r="F208" t="n">
-        <v>8.219229814153606e-07</v>
+        <v>7.807218896716945e-08</v>
       </c>
       <c r="G208" t="n">
         <v>54</v>
@@ -6909,10 +6909,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-0.1126357918810749</v>
+        <v>-0.1827711072994092</v>
       </c>
       <c r="F209" t="n">
-        <v>0.4174123803606032</v>
+        <v>0.1858901230887528</v>
       </c>
       <c r="G209" t="n">
         <v>54</v>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-0.1722059821703828</v>
+        <v>-0.1992387099428802</v>
       </c>
       <c r="F210" t="n">
-        <v>0.2130703575961676</v>
+        <v>0.1486356725771158</v>
       </c>
       <c r="G210" t="n">
         <v>54</v>
@@ -6971,10 +6971,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-0.3429245900489341</v>
+        <v>-0.2441760886781554</v>
       </c>
       <c r="F211" t="n">
-        <v>0.01113307199858376</v>
+        <v>0.07517797940715702</v>
       </c>
       <c r="G211" t="n">
         <v>54</v>
@@ -7002,10 +7002,10 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-0.08629775719043031</v>
+        <v>0.004529689587327609</v>
       </c>
       <c r="F212" t="n">
-        <v>0.5349437152736325</v>
+        <v>0.9740672784792185</v>
       </c>
       <c r="G212" t="n">
         <v>54</v>
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.6826376977320372</v>
+        <v>0.7161562066520148</v>
       </c>
       <c r="F213" t="n">
-        <v>1.303367181232191e-08</v>
+        <v>1.14299455376854e-09</v>
       </c>
       <c r="G213" t="n">
         <v>54</v>
@@ -7064,10 +7064,10 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.6854583571564702</v>
+        <v>0.7159519725557461</v>
       </c>
       <c r="F214" t="n">
-        <v>1.075253921966091e-08</v>
+        <v>1.161281902866523e-09</v>
       </c>
       <c r="G214" t="n">
         <v>54</v>
@@ -7095,10 +7095,10 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.6691442729178577</v>
+        <v>0.6956737183152277</v>
       </c>
       <c r="F215" t="n">
-        <v>3.179435328117683e-08</v>
+        <v>5.259780389233268e-09</v>
       </c>
       <c r="G215" t="n">
         <v>54</v>
@@ -7126,10 +7126,10 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.7829616923956545</v>
+        <v>0.8078139889460644</v>
       </c>
       <c r="F216" t="n">
-        <v>2.647322214221166e-12</v>
+        <v>1.55997406393211e-13</v>
       </c>
       <c r="G216" t="n">
         <v>54</v>
@@ -7157,10 +7157,10 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-0.1126357918810749</v>
+        <v>-0.1827711072994092</v>
       </c>
       <c r="F217" t="n">
-        <v>0.4174123803606032</v>
+        <v>0.1858901230887528</v>
       </c>
       <c r="G217" t="n">
         <v>54</v>
@@ -7188,10 +7188,10 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-0.1124447116570004</v>
+        <v>-0.1960477200570746</v>
       </c>
       <c r="F218" t="n">
-        <v>0.4182079524913841</v>
+        <v>0.1553834873560665</v>
       </c>
       <c r="G218" t="n">
         <v>54</v>
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-0.5610976410256777</v>
+        <v>-0.5699622993071386</v>
       </c>
       <c r="F219" t="n">
-        <v>1.017409167535299e-05</v>
+        <v>6.837543743401507e-06</v>
       </c>
       <c r="G219" t="n">
         <v>54</v>
@@ -7250,10 +7250,10 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-0.2425384884732905</v>
+        <v>-0.2100944046831836</v>
       </c>
       <c r="F220" t="n">
-        <v>0.07721613316183232</v>
+        <v>0.1273034461823657</v>
       </c>
       <c r="G220" t="n">
         <v>54</v>
@@ -7281,10 +7281,10 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-0.2477731321094047</v>
+        <v>-0.2165361614577327</v>
       </c>
       <c r="F221" t="n">
-        <v>0.07085080196055843</v>
+        <v>0.1157883272913114</v>
       </c>
       <c r="G221" t="n">
         <v>54</v>
@@ -7312,10 +7312,10 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-0.2495567884594881</v>
+        <v>-0.2081929222617806</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0687798933466847</v>
+        <v>0.1308625272964468</v>
       </c>
       <c r="G222" t="n">
         <v>54</v>
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.1495944825787298</v>
+        <v>-0.1079964403829516</v>
       </c>
       <c r="F223" t="n">
-        <v>0.2802946465246774</v>
+        <v>0.4369720857938791</v>
       </c>
       <c r="G223" t="n">
         <v>54</v>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.2340855083794172</v>
+        <v>0.2535956657932407</v>
       </c>
       <c r="F224" t="n">
-        <v>0.08844079219906943</v>
+        <v>0.064268903002278</v>
       </c>
       <c r="G224" t="n">
         <v>54</v>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.01167131655163237</v>
+        <v>0.06348622941663989</v>
       </c>
       <c r="F225" t="n">
-        <v>0.9332454359025035</v>
+        <v>0.6483389422413909</v>
       </c>
       <c r="G225" t="n">
         <v>54</v>
@@ -7436,10 +7436,10 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-0.1124447116570004</v>
+        <v>-0.1960477200570746</v>
       </c>
       <c r="F226" t="n">
-        <v>0.4182079524913839</v>
+        <v>0.1553834873560665</v>
       </c>
       <c r="G226" t="n">
         <v>54</v>
@@ -7467,10 +7467,10 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.8206527377703978</v>
+        <v>0.8666336325119417</v>
       </c>
       <c r="F227" t="n">
-        <v>3.060842131058644e-14</v>
+        <v>2.512626725824348e-17</v>
       </c>
       <c r="G227" t="n">
         <v>54</v>
@@ -7498,10 +7498,10 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.2600555051009776</v>
+        <v>0.2266917233887988</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0575497230949104</v>
+        <v>0.09927142165647436</v>
       </c>
       <c r="G228" t="n">
         <v>54</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.2267469461603802</v>
+        <v>0.1990218846662656</v>
       </c>
       <c r="F229" t="n">
-        <v>0.09918688770753195</v>
+        <v>0.149087185173608</v>
       </c>
       <c r="G229" t="n">
         <v>54</v>
@@ -7560,10 +7560,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.1993849560854903</v>
+        <v>0.1832160689714107</v>
       </c>
       <c r="F230" t="n">
-        <v>0.1483317054827964</v>
+        <v>0.1848027639100408</v>
       </c>
       <c r="G230" t="n">
         <v>54</v>
@@ -7591,10 +7591,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.2501834234546396</v>
+        <v>0.218769493028297</v>
       </c>
       <c r="F231" t="n">
-        <v>0.06806390947902403</v>
+        <v>0.1119874079254225</v>
       </c>
       <c r="G231" t="n">
         <v>54</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.1695355123674286</v>
+        <v>0.002280056542778576</v>
       </c>
       <c r="F232" t="n">
-        <v>0.2203603045831969</v>
+        <v>0.9869448847363009</v>
       </c>
       <c r="G232" t="n">
         <v>54</v>
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.1777752025604352</v>
+        <v>0.07102955806147497</v>
       </c>
       <c r="F233" t="n">
-        <v>0.1984150306119919</v>
+        <v>0.60977775020627</v>
       </c>
       <c r="G233" t="n">
         <v>54</v>
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-0.5610976410256777</v>
+        <v>-0.5699622993071387</v>
       </c>
       <c r="F234" t="n">
-        <v>1.017409167535299e-05</v>
+        <v>6.837543743401471e-06</v>
       </c>
       <c r="G234" t="n">
         <v>54</v>
@@ -7715,10 +7715,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.8206527377703978</v>
+        <v>0.8666336325119417</v>
       </c>
       <c r="F235" t="n">
-        <v>3.060842131058644e-14</v>
+        <v>2.512626725824348e-17</v>
       </c>
       <c r="G235" t="n">
         <v>54</v>
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.301652668783314</v>
+        <v>0.2389599590844723</v>
       </c>
       <c r="F236" t="n">
-        <v>0.02664120565314283</v>
+        <v>0.08182202714821057</v>
       </c>
       <c r="G236" t="n">
         <v>54</v>
@@ -7777,10 +7777,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.2775970654822447</v>
+        <v>0.217871885956634</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0421216605651406</v>
+        <v>0.113503400809949</v>
       </c>
       <c r="G237" t="n">
         <v>54</v>
@@ -7808,10 +7808,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.272962148285701</v>
+        <v>0.2200494587252695</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0458229670433558</v>
+        <v>0.1098525180718422</v>
       </c>
       <c r="G238" t="n">
         <v>54</v>
@@ -7839,10 +7839,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.2382577269628207</v>
+        <v>0.1776822973144494</v>
       </c>
       <c r="F239" t="n">
-        <v>0.08275074889888523</v>
+        <v>0.1986534841210605</v>
       </c>
       <c r="G239" t="n">
         <v>54</v>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-0.05435493803219334</v>
+        <v>-0.145668157312405</v>
       </c>
       <c r="F240" t="n">
-        <v>0.6962642254612352</v>
+        <v>0.2932541409075213</v>
       </c>
       <c r="G240" t="n">
         <v>54</v>
@@ -7901,10 +7901,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.08507562887209402</v>
+        <v>-0.01822284580068638</v>
       </c>
       <c r="F241" t="n">
-        <v>0.540764194208964</v>
+        <v>0.8959434293018811</v>
       </c>
       <c r="G241" t="n">
         <v>54</v>
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-0.2425384884732905</v>
+        <v>-0.2100944046831836</v>
       </c>
       <c r="F242" t="n">
-        <v>0.07721613316183232</v>
+        <v>0.1273034461823656</v>
       </c>
       <c r="G242" t="n">
         <v>54</v>
@@ -7963,10 +7963,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.2600555051009776</v>
+        <v>0.2266917233887988</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0575497230949104</v>
+        <v>0.09927142165647436</v>
       </c>
       <c r="G243" t="n">
         <v>54</v>
@@ -7994,10 +7994,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.301652668783314</v>
+        <v>0.2389599590844724</v>
       </c>
       <c r="F244" t="n">
-        <v>0.02664120565314283</v>
+        <v>0.08182202714821048</v>
       </c>
       <c r="G244" t="n">
         <v>54</v>
@@ -8025,10 +8025,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.9956546598056031</v>
+        <v>0.9957308938441012</v>
       </c>
       <c r="F245" t="n">
-        <v>2.719631192284694e-55</v>
+        <v>1.718113267344678e-55</v>
       </c>
       <c r="G245" t="n">
         <v>54</v>
@@ -8056,10 +8056,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.9747665332570992</v>
+        <v>0.9798742138364779</v>
       </c>
       <c r="F246" t="n">
-        <v>1.539355115385187e-35</v>
+        <v>4.576135437367016e-38</v>
       </c>
       <c r="G246" t="n">
         <v>54</v>
@@ -8087,10 +8087,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.9794168096054887</v>
+        <v>0.9733943205641318</v>
       </c>
       <c r="F247" t="n">
-        <v>8.162827897689493e-38</v>
+        <v>5.998064302720991e-35</v>
       </c>
       <c r="G247" t="n">
         <v>54</v>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.1865828092243186</v>
+        <v>0.16378883171336</v>
       </c>
       <c r="F248" t="n">
-        <v>0.176723196859128</v>
+        <v>0.236632183466214</v>
       </c>
       <c r="G248" t="n">
         <v>54</v>
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.8842767295597482</v>
+        <v>0.8654469220506954</v>
       </c>
       <c r="F249" t="n">
-        <v>7.86586837354123e-19</v>
+        <v>3.11561478477484e-17</v>
       </c>
       <c r="G249" t="n">
         <v>54</v>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-0.2477731321094047</v>
+        <v>-0.2165361614577327</v>
       </c>
       <c r="F250" t="n">
-        <v>0.07085080196055843</v>
+        <v>0.1157883272913114</v>
       </c>
       <c r="G250" t="n">
         <v>54</v>
@@ -8211,10 +8211,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.2267469461603802</v>
+        <v>0.1990218846662656</v>
       </c>
       <c r="F251" t="n">
-        <v>0.09918688770753195</v>
+        <v>0.149087185173608</v>
       </c>
       <c r="G251" t="n">
         <v>54</v>
@@ -8242,10 +8242,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.2775970654822447</v>
+        <v>0.217871885956634</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0421216605651406</v>
+        <v>0.113503400809949</v>
       </c>
       <c r="G252" t="n">
         <v>54</v>
@@ -8273,10 +8273,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.9956546598056031</v>
+        <v>0.9957308938441012</v>
       </c>
       <c r="F253" t="n">
-        <v>2.719631192284694e-55</v>
+        <v>1.718113267344678e-55</v>
       </c>
       <c r="G253" t="n">
         <v>54</v>
@@ -8304,10 +8304,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.9748427672955974</v>
+        <v>0.9796455117209832</v>
       </c>
       <c r="F254" t="n">
-        <v>1.424218646241006e-35</v>
+        <v>6.12184926110036e-38</v>
       </c>
       <c r="G254" t="n">
         <v>54</v>
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.9742328949876118</v>
+        <v>0.9667619592147892</v>
       </c>
       <c r="F255" t="n">
-        <v>2.635251303798919e-35</v>
+        <v>1.803174846072134e-32</v>
       </c>
       <c r="G255" t="n">
         <v>54</v>
@@ -8366,10 +8366,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.1806365542214599</v>
+        <v>0.1570040022870212</v>
       </c>
       <c r="F256" t="n">
-        <v>0.1911702289125112</v>
+        <v>0.2568819879323485</v>
       </c>
       <c r="G256" t="n">
         <v>54</v>
@@ -8397,10 +8397,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.8835143891747664</v>
+        <v>0.8619401562797789</v>
       </c>
       <c r="F257" t="n">
-        <v>9.240080642317427e-19</v>
+        <v>5.814236462972496e-17</v>
       </c>
       <c r="G257" t="n">
         <v>54</v>
@@ -8428,10 +8428,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-0.2495567884594881</v>
+        <v>-0.2081929222617806</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0687798933466847</v>
+        <v>0.1308625272964466</v>
       </c>
       <c r="G258" t="n">
         <v>54</v>
@@ -8459,10 +8459,10 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.1993849560854903</v>
+        <v>0.1832160689714107</v>
       </c>
       <c r="F259" t="n">
-        <v>0.1483317054827964</v>
+        <v>0.1848027639100408</v>
       </c>
       <c r="G259" t="n">
         <v>54</v>
@@ -8490,10 +8490,10 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.272962148285701</v>
+        <v>0.2200494587252695</v>
       </c>
       <c r="F260" t="n">
-        <v>0.0458229670433558</v>
+        <v>0.1098525180718422</v>
       </c>
       <c r="G260" t="n">
         <v>54</v>
@@ -8521,10 +8521,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.9747665332570992</v>
+        <v>0.9798742138364779</v>
       </c>
       <c r="F261" t="n">
-        <v>1.539355115385187e-35</v>
+        <v>4.576135437367016e-38</v>
       </c>
       <c r="G261" t="n">
         <v>54</v>
@@ -8552,10 +8552,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.9748427672955974</v>
+        <v>0.9796455117209832</v>
       </c>
       <c r="F262" t="n">
-        <v>1.424218646241006e-35</v>
+        <v>6.12184926110036e-38</v>
       </c>
       <c r="G262" t="n">
         <v>54</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.9503716409376786</v>
+        <v>0.9455688965122926</v>
       </c>
       <c r="F263" t="n">
-        <v>4.955971312033414e-28</v>
+        <v>5.157596428139026e-27</v>
       </c>
       <c r="G263" t="n">
         <v>54</v>
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.1588336192109777</v>
+        <v>0.1398513436249285</v>
       </c>
       <c r="F264" t="n">
-        <v>0.2513099166322599</v>
+        <v>0.3131597859841352</v>
       </c>
       <c r="G264" t="n">
         <v>54</v>
@@ -8645,10 +8645,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.8662854964741756</v>
+        <v>0.8502001143510577</v>
       </c>
       <c r="F265" t="n">
-        <v>2.676855936019695e-17</v>
+        <v>4.171394366221053e-16</v>
       </c>
       <c r="G265" t="n">
         <v>54</v>
@@ -8676,10 +8676,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-0.1495944825787298</v>
+        <v>-0.1079964403829516</v>
       </c>
       <c r="F266" t="n">
-        <v>0.2802946465246776</v>
+        <v>0.4369720857938791</v>
       </c>
       <c r="G266" t="n">
         <v>54</v>
@@ -8707,10 +8707,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.2501834234546396</v>
+        <v>0.218769493028297</v>
       </c>
       <c r="F267" t="n">
-        <v>0.06806390947902403</v>
+        <v>0.1119874079254225</v>
       </c>
       <c r="G267" t="n">
         <v>54</v>
@@ -8738,10 +8738,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.2382577269628207</v>
+        <v>0.1776822973144494</v>
       </c>
       <c r="F268" t="n">
-        <v>0.08275074889888523</v>
+        <v>0.1986534841210605</v>
       </c>
       <c r="G268" t="n">
         <v>54</v>
@@ -8769,10 +8769,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.9794168096054887</v>
+        <v>0.9733943205641318</v>
       </c>
       <c r="F269" t="n">
-        <v>8.162827897689493e-38</v>
+        <v>5.998064302720991e-35</v>
       </c>
       <c r="G269" t="n">
         <v>54</v>
@@ -8800,10 +8800,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.9742328949876118</v>
+        <v>0.9667619592147892</v>
       </c>
       <c r="F270" t="n">
-        <v>2.635251303798919e-35</v>
+        <v>1.803174846072134e-32</v>
       </c>
       <c r="G270" t="n">
         <v>54</v>
@@ -8831,10 +8831,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.9503716409376786</v>
+        <v>0.9455688965122926</v>
       </c>
       <c r="F271" t="n">
-        <v>4.955971312033414e-28</v>
+        <v>5.157596428139026e-27</v>
       </c>
       <c r="G271" t="n">
         <v>54</v>
@@ -8862,10 +8862,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.3064989517819706</v>
+        <v>0.3097007813988945</v>
       </c>
       <c r="F272" t="n">
-        <v>0.02418664905822717</v>
+        <v>0.02267168837886161</v>
       </c>
       <c r="G272" t="n">
         <v>54</v>
@@ -8893,10 +8893,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.9427482370878597</v>
+        <v>0.9370306842004954</v>
       </c>
       <c r="F273" t="n">
-        <v>1.852652468526764e-26</v>
+        <v>2.050636342026631e-25</v>
       </c>
       <c r="G273" t="n">
         <v>54</v>
@@ -8924,10 +8924,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.2340855083794172</v>
+        <v>0.2535956657932407</v>
       </c>
       <c r="F274" t="n">
-        <v>0.08844079219906943</v>
+        <v>0.064268903002278</v>
       </c>
       <c r="G274" t="n">
         <v>54</v>
@@ -8955,10 +8955,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.1695355123674286</v>
+        <v>0.002280056542778577</v>
       </c>
       <c r="F275" t="n">
-        <v>0.2203603045831969</v>
+        <v>0.9869448847363009</v>
       </c>
       <c r="G275" t="n">
         <v>54</v>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-0.05435493803219334</v>
+        <v>-0.145668157312405</v>
       </c>
       <c r="F276" t="n">
-        <v>0.6962642254612352</v>
+        <v>0.2932541409075213</v>
       </c>
       <c r="G276" t="n">
         <v>54</v>
@@ -9017,10 +9017,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.1865828092243186</v>
+        <v>0.16378883171336</v>
       </c>
       <c r="F277" t="n">
-        <v>0.176723196859128</v>
+        <v>0.236632183466214</v>
       </c>
       <c r="G277" t="n">
         <v>54</v>
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.1806365542214599</v>
+        <v>0.1570040022870212</v>
       </c>
       <c r="F278" t="n">
-        <v>0.1911702289125112</v>
+        <v>0.2568819879323485</v>
       </c>
       <c r="G278" t="n">
         <v>54</v>
@@ -9079,10 +9079,10 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.1588336192109777</v>
+        <v>0.1398513436249285</v>
       </c>
       <c r="F279" t="n">
-        <v>0.2513099166322599</v>
+        <v>0.3131597859841352</v>
       </c>
       <c r="G279" t="n">
         <v>54</v>
@@ -9110,10 +9110,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.3064989517819706</v>
+        <v>0.3097007813988945</v>
       </c>
       <c r="F280" t="n">
-        <v>0.02418664905822717</v>
+        <v>0.02267168837886161</v>
       </c>
       <c r="G280" t="n">
         <v>54</v>
@@ -9141,10 +9141,10 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.469258623975605</v>
+        <v>0.4856489422527158</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0003443319757796937</v>
+        <v>0.0001972563769004793</v>
       </c>
       <c r="G281" t="n">
         <v>54</v>
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.01167131655163237</v>
+        <v>0.06348622941663989</v>
       </c>
       <c r="F282" t="n">
-        <v>0.9332454359025035</v>
+        <v>0.6483389422413909</v>
       </c>
       <c r="G282" t="n">
         <v>54</v>
@@ -9203,10 +9203,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.1777752025604352</v>
+        <v>0.07102955806147497</v>
       </c>
       <c r="F283" t="n">
-        <v>0.1984150306119919</v>
+        <v>0.60977775020627</v>
       </c>
       <c r="G283" t="n">
         <v>54</v>
@@ -9234,10 +9234,10 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.08507562887209402</v>
+        <v>-0.01822284580068638</v>
       </c>
       <c r="F284" t="n">
-        <v>0.540764194208964</v>
+        <v>0.8959434293018811</v>
       </c>
       <c r="G284" t="n">
         <v>54</v>
@@ -9265,10 +9265,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.8842767295597482</v>
+        <v>0.8654469220506954</v>
       </c>
       <c r="F285" t="n">
-        <v>7.86586837354123e-19</v>
+        <v>3.11561478477484e-17</v>
       </c>
       <c r="G285" t="n">
         <v>54</v>
@@ -9296,10 +9296,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.8835143891747664</v>
+        <v>0.8619401562797789</v>
       </c>
       <c r="F286" t="n">
-        <v>9.240080642317427e-19</v>
+        <v>5.814236462972496e-17</v>
       </c>
       <c r="G286" t="n">
         <v>54</v>
@@ -9327,10 +9327,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.8662854964741756</v>
+        <v>0.8502001143510577</v>
       </c>
       <c r="F287" t="n">
-        <v>2.676855936019695e-17</v>
+        <v>4.171394366221053e-16</v>
       </c>
       <c r="G287" t="n">
         <v>54</v>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.9427482370878597</v>
+        <v>0.9370306842004954</v>
       </c>
       <c r="F288" t="n">
-        <v>1.852652468526764e-26</v>
+        <v>2.050636342026631e-25</v>
       </c>
       <c r="G288" t="n">
         <v>54</v>
@@ -9389,10 +9389,10 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.469258623975605</v>
+        <v>0.4856489422527158</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0003443319757796937</v>
+        <v>0.0001972563769004793</v>
       </c>
       <c r="G289" t="n">
         <v>54</v>
@@ -9420,10 +9420,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-0.6113917182265741</v>
+        <v>-0.6004831677288262</v>
       </c>
       <c r="F290" t="n">
-        <v>9.067384232523167e-07</v>
+        <v>1.586755333900353e-06</v>
       </c>
       <c r="G290" t="n">
         <v>54</v>
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-0.7556880338474177</v>
+        <v>-0.7428161186168747</v>
       </c>
       <c r="F291" t="n">
-        <v>3.979704245772298e-11</v>
+        <v>1.269213514639116e-10</v>
       </c>
       <c r="G291" t="n">
         <v>54</v>
@@ -9482,10 +9482,10 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-0.6736718572707597</v>
+        <v>-0.6659901054783455</v>
       </c>
       <c r="F292" t="n">
-        <v>2.36940564210724e-08</v>
+        <v>3.890696863788802e-08</v>
       </c>
       <c r="G292" t="n">
         <v>54</v>
@@ -9513,10 +9513,10 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-0.6730089905893332</v>
+        <v>-0.6659901054783455</v>
       </c>
       <c r="F293" t="n">
-        <v>2.474432590473922e-08</v>
+        <v>3.890696863788802e-08</v>
       </c>
       <c r="G293" t="n">
         <v>54</v>
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-0.6640344190548043</v>
+        <v>-0.6522769410371</v>
       </c>
       <c r="F294" t="n">
-        <v>4.404198314383199e-08</v>
+        <v>9.10685855741499e-08</v>
       </c>
       <c r="G294" t="n">
         <v>54</v>
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-0.6551437220205982</v>
+        <v>-0.6534930932352533</v>
       </c>
       <c r="F295" t="n">
-        <v>7.650813675753759e-08</v>
+        <v>8.459980009023358e-08</v>
       </c>
       <c r="G295" t="n">
         <v>54</v>
@@ -9606,10 +9606,10 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-0.03065612986794632</v>
+        <v>-0.04982030384158898</v>
       </c>
       <c r="F296" t="n">
-        <v>0.8258274622743329</v>
+        <v>0.720523766751845</v>
       </c>
       <c r="G296" t="n">
         <v>54</v>
@@ -9637,10 +9637,10 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-0.6579954550315702</v>
+        <v>-0.6575609126566626</v>
       </c>
       <c r="F297" t="n">
-        <v>6.421589866475858e-08</v>
+        <v>6.596071436154738e-08</v>
       </c>
       <c r="G297" t="n">
         <v>54</v>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-0.611391718226574</v>
+        <v>-0.6004831677288262</v>
       </c>
       <c r="F298" t="n">
-        <v>9.067384232523201e-07</v>
+        <v>1.586755333900353e-06</v>
       </c>
       <c r="G298" t="n">
         <v>54</v>
@@ -9699,10 +9699,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.9530384278283515</v>
+        <v>0.9644346473533949</v>
       </c>
       <c r="F299" t="n">
-        <v>1.218205207641699e-28</v>
+        <v>1.018258341617995e-31</v>
       </c>
       <c r="G299" t="n">
         <v>54</v>
@@ -9730,10 +9730,10 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.7056378461054427</v>
+        <v>0.6766405402429333</v>
       </c>
       <c r="F300" t="n">
-        <v>2.543797798123676e-09</v>
+        <v>1.948447050534509e-08</v>
       </c>
       <c r="G300" t="n">
         <v>54</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.7007430604631162</v>
+        <v>0.6627638970569097</v>
       </c>
       <c r="F301" t="n">
-        <v>3.648086431198865e-09</v>
+        <v>4.771247092023262e-08</v>
       </c>
       <c r="G301" t="n">
         <v>54</v>
@@ -9792,10 +9792,10 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.7072515099411016</v>
+        <v>0.6756768844661259</v>
       </c>
       <c r="F302" t="n">
-        <v>2.255101353581473e-09</v>
+        <v>2.076686243642408e-08</v>
       </c>
       <c r="G302" t="n">
         <v>54</v>
@@ -9823,10 +9823,10 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.7207332981455006</v>
+        <v>0.683848685453451</v>
       </c>
       <c r="F303" t="n">
-        <v>7.979397891707816e-10</v>
+        <v>1.200348411195898e-08</v>
       </c>
       <c r="G303" t="n">
         <v>54</v>
@@ -9854,10 +9854,10 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.06028063921277137</v>
+        <v>0.03126099339962509</v>
       </c>
       <c r="F304" t="n">
-        <v>0.6650150835841194</v>
+        <v>0.822446035761589</v>
       </c>
       <c r="G304" t="n">
         <v>54</v>
@@ -9885,10 +9885,10 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.6811014897170523</v>
+        <v>0.6364753674656097</v>
       </c>
       <c r="F305" t="n">
-        <v>1.446060572624724e-08</v>
+        <v>2.303942360538848e-07</v>
       </c>
       <c r="G305" t="n">
         <v>54</v>
@@ -9916,10 +9916,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-0.7556880338474177</v>
+        <v>-0.7428161186168747</v>
       </c>
       <c r="F306" t="n">
-        <v>3.979704245772298e-11</v>
+        <v>1.269213514639116e-10</v>
       </c>
       <c r="G306" t="n">
         <v>54</v>
@@ -9947,10 +9947,10 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.9530384278283516</v>
+        <v>0.9644346473533949</v>
       </c>
       <c r="F307" t="n">
-        <v>1.218205207641612e-28</v>
+        <v>1.018258341617995e-31</v>
       </c>
       <c r="G307" t="n">
         <v>54</v>
@@ -9978,10 +9978,10 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.6920471639230952</v>
+        <v>0.6748008001945138</v>
       </c>
       <c r="F308" t="n">
-        <v>6.802454198957313e-09</v>
+        <v>2.200130313761877e-08</v>
       </c>
       <c r="G308" t="n">
         <v>54</v>
@@ -10009,10 +10009,10 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.6866373968786874</v>
+        <v>0.661129670848438</v>
       </c>
       <c r="F309" t="n">
-        <v>9.915367509784749e-09</v>
+        <v>5.28573764532679e-08</v>
       </c>
       <c r="G309" t="n">
         <v>54</v>
@@ -10040,10 +10040,10 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.6960043135935318</v>
+        <v>0.6756072432177376</v>
       </c>
       <c r="F310" t="n">
-        <v>5.136934059594189e-09</v>
+        <v>2.086255216708529e-08</v>
       </c>
       <c r="G310" t="n">
         <v>54</v>
@@ -10071,10 +10071,10 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.7069516565853662</v>
+        <v>0.6843245082782972</v>
       </c>
       <c r="F311" t="n">
-        <v>2.306290772399066e-09</v>
+        <v>1.162010642315368e-08</v>
       </c>
       <c r="G311" t="n">
         <v>54</v>
@@ -10102,10 +10102,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.1157565880439397</v>
+        <v>0.07730332408328913</v>
       </c>
       <c r="F312" t="n">
-        <v>0.4045418521774471</v>
+        <v>0.5784832230395753</v>
       </c>
       <c r="G312" t="n">
         <v>54</v>
@@ -10133,10 +10133,10 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.6689443319728704</v>
+        <v>0.6400085440497251</v>
       </c>
       <c r="F313" t="n">
-        <v>3.220616746018705e-08</v>
+        <v>1.880752987561216e-07</v>
       </c>
       <c r="G313" t="n">
         <v>54</v>
@@ -10164,10 +10164,10 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-0.6736718572707598</v>
+        <v>-0.6659901054783455</v>
       </c>
       <c r="F314" t="n">
-        <v>2.369405642107228e-08</v>
+        <v>3.890696863788802e-08</v>
       </c>
       <c r="G314" t="n">
         <v>54</v>
@@ -10195,10 +10195,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.7056378461054426</v>
+        <v>0.6766405402429332</v>
       </c>
       <c r="F315" t="n">
-        <v>2.543797798123713e-09</v>
+        <v>1.948447050534509e-08</v>
       </c>
       <c r="G315" t="n">
         <v>54</v>
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.6920471639230952</v>
+        <v>0.6748008001945139</v>
       </c>
       <c r="F316" t="n">
-        <v>6.802454198957313e-09</v>
+        <v>2.200130313761873e-08</v>
       </c>
       <c r="G316" t="n">
         <v>54</v>
@@ -10257,10 +10257,10 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.9995235283600773</v>
+        <v>0.998856489422527</v>
       </c>
       <c r="F317" t="n">
-        <v>3.126819569378448e-80</v>
+        <v>2.381748294386753e-70</v>
       </c>
       <c r="G317" t="n">
         <v>54</v>
@@ -10288,10 +10288,10 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.9875545562029167</v>
+        <v>0.9883361921097767</v>
       </c>
       <c r="F318" t="n">
-        <v>1.877808562009361e-43</v>
+        <v>3.510263238975373e-44</v>
       </c>
       <c r="G318" t="n">
         <v>54</v>
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.9681145058839616</v>
+        <v>0.9693539165237277</v>
       </c>
       <c r="F319" t="n">
-        <v>6.224698048165651e-33</v>
+        <v>2.254346276465757e-33</v>
       </c>
       <c r="G319" t="n">
         <v>54</v>
@@ -10350,10 +10350,10 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.2966704149655435</v>
+        <v>0.3199923765961502</v>
       </c>
       <c r="F320" t="n">
-        <v>0.02937898533828858</v>
+        <v>0.01833293864231824</v>
       </c>
       <c r="G320" t="n">
         <v>54</v>
@@ -10381,10 +10381,10 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.930492290854925</v>
+        <v>0.9281875357347055</v>
       </c>
       <c r="F321" t="n">
-        <v>2.46676073614422e-24</v>
+        <v>5.597678240129068e-24</v>
       </c>
       <c r="G321" t="n">
         <v>54</v>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-0.6730089905893331</v>
+        <v>-0.6659901054783455</v>
       </c>
       <c r="F322" t="n">
-        <v>2.474432590473922e-08</v>
+        <v>3.890696863788802e-08</v>
       </c>
       <c r="G322" t="n">
         <v>54</v>
@@ -10443,10 +10443,10 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.7007430604631161</v>
+        <v>0.6627638970569096</v>
       </c>
       <c r="F323" t="n">
-        <v>3.648086431198892e-09</v>
+        <v>4.771247092023305e-08</v>
       </c>
       <c r="G323" t="n">
         <v>54</v>
@@ -10474,10 +10474,10 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.6866373968786874</v>
+        <v>0.661129670848438</v>
       </c>
       <c r="F324" t="n">
-        <v>9.915367509784749e-09</v>
+        <v>5.28573764532679e-08</v>
       </c>
       <c r="G324" t="n">
         <v>54</v>
@@ -10505,10 +10505,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.9995235283600772</v>
+        <v>0.998856489422527</v>
       </c>
       <c r="F325" t="n">
-        <v>3.126819569397378e-80</v>
+        <v>2.381748294386753e-70</v>
       </c>
       <c r="G325" t="n">
         <v>54</v>
@@ -10536,10 +10536,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.9874976176862968</v>
+        <v>0.9874213836477986</v>
       </c>
       <c r="F326" t="n">
-        <v>2.112973221035227e-43</v>
+        <v>2.472496190334804e-43</v>
       </c>
       <c r="G326" t="n">
         <v>54</v>
@@ -10567,10 +10567,10 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.9665332570992946</v>
+        <v>0.9676767676767676</v>
       </c>
       <c r="F327" t="n">
-        <v>2.149078298290958e-32</v>
+        <v>8.825873711231137e-33</v>
       </c>
       <c r="G327" t="n">
         <v>54</v>
@@ -10598,10 +10598,10 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.2936916333142748</v>
+        <v>0.3192300362111683</v>
       </c>
       <c r="F328" t="n">
-        <v>0.03112531245784838</v>
+        <v>0.01862811673381868</v>
       </c>
       <c r="G328" t="n">
         <v>54</v>
@@ -10629,10 +10629,10 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.9286449399656945</v>
+        <v>0.9267390890032398</v>
       </c>
       <c r="F329" t="n">
-        <v>4.767930472382751e-24</v>
+        <v>9.239672179088161e-24</v>
       </c>
       <c r="G329" t="n">
         <v>54</v>
@@ -10660,10 +10660,10 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-0.6640344190548043</v>
+        <v>-0.6522769410371</v>
       </c>
       <c r="F330" t="n">
-        <v>4.404198314383199e-08</v>
+        <v>9.10685855741499e-08</v>
       </c>
       <c r="G330" t="n">
         <v>54</v>
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.7072515099411016</v>
+        <v>0.6756768844661259</v>
       </c>
       <c r="F331" t="n">
-        <v>2.255101353581473e-09</v>
+        <v>2.076686243642408e-08</v>
       </c>
       <c r="G331" t="n">
         <v>54</v>
@@ -10722,10 +10722,10 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.6960043135935318</v>
+        <v>0.6756072432177375</v>
       </c>
       <c r="F332" t="n">
-        <v>5.136934059594189e-09</v>
+        <v>2.086255216708549e-08</v>
       </c>
       <c r="G332" t="n">
         <v>54</v>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.9875545562029167</v>
+        <v>0.9883361921097767</v>
       </c>
       <c r="F333" t="n">
-        <v>1.877808562009361e-43</v>
+        <v>3.510263238975373e-44</v>
       </c>
       <c r="G333" t="n">
         <v>54</v>
@@ -10784,10 +10784,10 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.9874976176862968</v>
+        <v>0.9874213836477986</v>
       </c>
       <c r="F334" t="n">
-        <v>2.112973221035227e-43</v>
+        <v>2.472496190334804e-43</v>
       </c>
       <c r="G334" t="n">
         <v>54</v>
@@ -10815,10 +10815,10 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.9692014484467313</v>
+        <v>0.971031065370688</v>
       </c>
       <c r="F335" t="n">
-        <v>2.560059964435385e-33</v>
+        <v>5.326078140611039e-34</v>
       </c>
       <c r="G335" t="n">
         <v>54</v>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.3315037164093768</v>
+        <v>0.3506384600724223</v>
       </c>
       <c r="F336" t="n">
-        <v>0.01433634804193678</v>
+        <v>0.00933686377323094</v>
       </c>
       <c r="G336" t="n">
         <v>54</v>
@@ -10877,10 +10877,10 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.9326091099676004</v>
+        <v>0.9313893653516293</v>
       </c>
       <c r="F337" t="n">
-        <v>1.133261345068761e-24</v>
+        <v>1.779475612279073e-24</v>
       </c>
       <c r="G337" t="n">
         <v>54</v>
@@ -10908,10 +10908,10 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-0.6551437220205983</v>
+        <v>-0.6534930932352533</v>
       </c>
       <c r="F338" t="n">
-        <v>7.650813675753679e-08</v>
+        <v>8.459980009023358e-08</v>
       </c>
       <c r="G338" t="n">
         <v>54</v>
@@ -10939,10 +10939,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.7207332981455006</v>
+        <v>0.6838486854534509</v>
       </c>
       <c r="F339" t="n">
-        <v>7.979397891707816e-10</v>
+        <v>1.200348411195911e-08</v>
       </c>
       <c r="G339" t="n">
         <v>54</v>
@@ -10970,10 +10970,10 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.7069516565853662</v>
+        <v>0.6843245082782972</v>
       </c>
       <c r="F340" t="n">
-        <v>2.306290772399066e-09</v>
+        <v>1.162010642315368e-08</v>
       </c>
       <c r="G340" t="n">
         <v>54</v>
@@ -11001,10 +11001,10 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.9681145058839616</v>
+        <v>0.9693539165237277</v>
       </c>
       <c r="F341" t="n">
-        <v>6.224698048165651e-33</v>
+        <v>2.254346276465757e-33</v>
       </c>
       <c r="G341" t="n">
         <v>54</v>
@@ -11032,10 +11032,10 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.9665332570992946</v>
+        <v>0.9676767676767676</v>
       </c>
       <c r="F342" t="n">
-        <v>2.149078298290958e-32</v>
+        <v>8.825873711231137e-33</v>
       </c>
       <c r="G342" t="n">
         <v>54</v>
@@ -11063,10 +11063,10 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.9692014484467313</v>
+        <v>0.971031065370688</v>
       </c>
       <c r="F343" t="n">
-        <v>2.560059964435385e-33</v>
+        <v>5.326078140611039e-34</v>
       </c>
       <c r="G343" t="n">
         <v>54</v>
@@ -11094,10 +11094,10 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.4197064989517819</v>
+        <v>0.4303030303030303</v>
       </c>
       <c r="F344" t="n">
-        <v>0.001581426652287881</v>
+        <v>0.001163386008395411</v>
       </c>
       <c r="G344" t="n">
         <v>54</v>
@@ -11125,10 +11125,10 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.9819325328759289</v>
+        <v>0.9784257671050123</v>
       </c>
       <c r="F345" t="n">
-        <v>2.838640219904019e-39</v>
+        <v>2.739037545636063e-37</v>
       </c>
       <c r="G345" t="n">
         <v>54</v>
@@ -11156,10 +11156,10 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.03065612986794632</v>
+        <v>-0.04982030384158897</v>
       </c>
       <c r="F346" t="n">
-        <v>0.8258274622743329</v>
+        <v>0.7205237667518452</v>
       </c>
       <c r="G346" t="n">
         <v>54</v>
@@ -11187,10 +11187,10 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.06028063921277138</v>
+        <v>0.03126099339962509</v>
       </c>
       <c r="F347" t="n">
-        <v>0.6650150835841194</v>
+        <v>0.822446035761589</v>
       </c>
       <c r="G347" t="n">
         <v>54</v>
@@ -11218,10 +11218,10 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.1157565880439397</v>
+        <v>0.07730332408328913</v>
       </c>
       <c r="F348" t="n">
-        <v>0.4045418521774471</v>
+        <v>0.5784832230395753</v>
       </c>
       <c r="G348" t="n">
         <v>54</v>
@@ -11249,10 +11249,10 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.2966704149655435</v>
+        <v>0.3199923765961502</v>
       </c>
       <c r="F349" t="n">
-        <v>0.02937898533828858</v>
+        <v>0.01833293864231824</v>
       </c>
       <c r="G349" t="n">
         <v>54</v>
@@ -11280,10 +11280,10 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.2936916333142748</v>
+        <v>0.3192300362111683</v>
       </c>
       <c r="F350" t="n">
-        <v>0.03112531245784838</v>
+        <v>0.01862811673381868</v>
       </c>
       <c r="G350" t="n">
         <v>54</v>
@@ -11311,10 +11311,10 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.3315037164093768</v>
+        <v>0.3506384600724223</v>
       </c>
       <c r="F351" t="n">
-        <v>0.01433634804193678</v>
+        <v>0.00933686377323094</v>
       </c>
       <c r="G351" t="n">
         <v>54</v>
@@ -11342,10 +11342,10 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.4197064989517819</v>
+        <v>0.4303030303030303</v>
       </c>
       <c r="F352" t="n">
-        <v>0.001581426652287881</v>
+        <v>0.001163386008395411</v>
       </c>
       <c r="G352" t="n">
         <v>54</v>
@@ -11373,10 +11373,10 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.4675814751286449</v>
+        <v>0.4818372403278063</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0003639628072357619</v>
+        <v>0.0002251061683354961</v>
       </c>
       <c r="G353" t="n">
         <v>54</v>
@@ -11404,10 +11404,10 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-0.6579954550315702</v>
+        <v>-0.6575609126566626</v>
       </c>
       <c r="F354" t="n">
-        <v>6.421589866475858e-08</v>
+        <v>6.596071436154738e-08</v>
       </c>
       <c r="G354" t="n">
         <v>54</v>
@@ -11435,10 +11435,10 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.6811014897170523</v>
+        <v>0.6364753674656098</v>
       </c>
       <c r="F355" t="n">
-        <v>1.446060572624724e-08</v>
+        <v>2.303942360538836e-07</v>
       </c>
       <c r="G355" t="n">
         <v>54</v>
@@ -11466,10 +11466,10 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.6689443319728705</v>
+        <v>0.6400085440497252</v>
       </c>
       <c r="F356" t="n">
-        <v>3.220616746018687e-08</v>
+        <v>1.880752987561205e-07</v>
       </c>
       <c r="G356" t="n">
         <v>54</v>
@@ -11497,10 +11497,10 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.9304922908549251</v>
+        <v>0.9281875357347055</v>
       </c>
       <c r="F357" t="n">
-        <v>2.466760736144133e-24</v>
+        <v>5.597678240129068e-24</v>
       </c>
       <c r="G357" t="n">
         <v>54</v>
@@ -11528,10 +11528,10 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.9286449399656945</v>
+        <v>0.9267390890032398</v>
       </c>
       <c r="F358" t="n">
-        <v>4.767930472382751e-24</v>
+        <v>9.239672179088161e-24</v>
       </c>
       <c r="G358" t="n">
         <v>54</v>
@@ -11559,10 +11559,10 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.9326091099676004</v>
+        <v>0.9313893653516293</v>
       </c>
       <c r="F359" t="n">
-        <v>1.133261345068761e-24</v>
+        <v>1.779475612279073e-24</v>
       </c>
       <c r="G359" t="n">
         <v>54</v>
@@ -11590,10 +11590,10 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.9819325328759289</v>
+        <v>0.9784257671050123</v>
       </c>
       <c r="F360" t="n">
-        <v>2.838640219904019e-39</v>
+        <v>2.739037545636063e-37</v>
       </c>
       <c r="G360" t="n">
         <v>54</v>
@@ -11621,10 +11621,10 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.4675814751286449</v>
+        <v>0.4818372403278063</v>
       </c>
       <c r="F361" t="n">
-        <v>0.0003639628072357619</v>
+        <v>0.0002251061683354961</v>
       </c>
       <c r="G361" t="n">
         <v>54</v>
@@ -11652,10 +11652,10 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.2585656162839483</v>
+        <v>0.2765743240036972</v>
       </c>
       <c r="F362" t="n">
-        <v>0.05904677898626796</v>
+        <v>0.04291652729316373</v>
       </c>
       <c r="G362" t="n">
         <v>54</v>
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-0.4518169469146765</v>
+        <v>-0.4614188274056317</v>
       </c>
       <c r="F363" t="n">
-        <v>0.0006046106131133168</v>
+        <v>0.0004451289974760397</v>
       </c>
       <c r="G363" t="n">
         <v>54</v>
@@ -11714,10 +11714,10 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-0.1263236926989468</v>
+        <v>-0.08333714527098914</v>
       </c>
       <c r="F364" t="n">
-        <v>0.3627072452514802</v>
+        <v>0.5490964383699741</v>
       </c>
       <c r="G364" t="n">
         <v>54</v>
@@ -11745,10 +11745,10 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.1261629755326631</v>
+        <v>-0.08373896371491869</v>
       </c>
       <c r="F365" t="n">
-        <v>0.3633231088812431</v>
+        <v>0.5471651425460489</v>
       </c>
       <c r="G365" t="n">
         <v>54</v>
@@ -11776,10 +11776,10 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-0.113024347188975</v>
+        <v>-0.07919841529851476</v>
       </c>
       <c r="F366" t="n">
-        <v>0.4157972843596838</v>
+        <v>0.5691765262675563</v>
       </c>
       <c r="G366" t="n">
         <v>54</v>
@@ -11807,10 +11807,10 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-0.001888426703832856</v>
+        <v>0.001687637464504119</v>
       </c>
       <c r="F367" t="n">
-        <v>0.9891871261922869</v>
+        <v>0.9903367601779308</v>
       </c>
       <c r="G367" t="n">
         <v>54</v>
@@ -11838,10 +11838,10 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-0.1113368169429967</v>
+        <v>-0.1123886187670958</v>
       </c>
       <c r="F368" t="n">
-        <v>0.4228377787128024</v>
+        <v>0.4184416625298345</v>
       </c>
       <c r="G368" t="n">
         <v>54</v>
@@ -11869,10 +11869,10 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-0.04202753898317377</v>
+        <v>-0.0207338317067649</v>
       </c>
       <c r="F369" t="n">
-        <v>0.7628464874584692</v>
+        <v>0.8817013810300953</v>
       </c>
       <c r="G369" t="n">
         <v>54</v>
@@ -11900,10 +11900,10 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.2585656162839483</v>
+        <v>0.2765743240036972</v>
       </c>
       <c r="F370" t="n">
-        <v>0.05904677898626796</v>
+        <v>0.04291652729316373</v>
       </c>
       <c r="G370" t="n">
         <v>54</v>
@@ -11931,10 +11931,10 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.6157642276262497</v>
+        <v>0.6035817602819487</v>
       </c>
       <c r="F371" t="n">
-        <v>7.202480837913433e-07</v>
+        <v>1.356425369635698e-06</v>
       </c>
       <c r="G371" t="n">
         <v>54</v>
@@ -11962,10 +11962,10 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-0.09309947347846394</v>
+        <v>-0.1475503564153811</v>
       </c>
       <c r="F372" t="n">
-        <v>0.5031210382068884</v>
+        <v>0.2869937142696228</v>
       </c>
       <c r="G372" t="n">
         <v>54</v>
@@ -11993,10 +11993,10 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-0.114141145522637</v>
+        <v>-0.1751963853492865</v>
       </c>
       <c r="F373" t="n">
-        <v>0.4111751177655267</v>
+        <v>0.2051095963613795</v>
       </c>
       <c r="G373" t="n">
         <v>54</v>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-0.08627085538110965</v>
+        <v>-0.1383874478213556</v>
       </c>
       <c r="F374" t="n">
-        <v>0.53507150623468</v>
+        <v>0.3183022139388484</v>
       </c>
       <c r="G374" t="n">
         <v>54</v>
@@ -12055,10 +12055,10 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.03632666022720448</v>
+        <v>-0.04137072893096506</v>
       </c>
       <c r="F375" t="n">
-        <v>0.7942581746880581</v>
+        <v>0.7664472786170327</v>
       </c>
       <c r="G375" t="n">
         <v>54</v>
@@ -12086,10 +12086,10 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.1035409069645347</v>
+        <v>0.1055110890891438</v>
       </c>
       <c r="F376" t="n">
-        <v>0.4562295617574263</v>
+        <v>0.4476575704791164</v>
       </c>
       <c r="G376" t="n">
         <v>54</v>
@@ -12117,10 +12117,10 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-0.01135456265025189</v>
+        <v>-0.06661788479948177</v>
       </c>
       <c r="F377" t="n">
-        <v>0.9350531784323629</v>
+        <v>0.6322110568890726</v>
       </c>
       <c r="G377" t="n">
         <v>54</v>
@@ -12148,10 +12148,10 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-0.4518169469146764</v>
+        <v>-0.4614188274056317</v>
       </c>
       <c r="F378" t="n">
-        <v>0.000604610613113317</v>
+        <v>0.0004451289974760397</v>
       </c>
       <c r="G378" t="n">
         <v>54</v>
@@ -12179,10 +12179,10 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.6157642276262497</v>
+        <v>0.6035817602819487</v>
       </c>
       <c r="F379" t="n">
-        <v>7.202480837913433e-07</v>
+        <v>1.356425369635698e-06</v>
       </c>
       <c r="G379" t="n">
         <v>54</v>
@@ -12210,10 +12210,10 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.1668278592667284</v>
+        <v>0.07956582319572929</v>
       </c>
       <c r="F380" t="n">
-        <v>0.2279272643449653</v>
+        <v>0.5673802714848682</v>
       </c>
       <c r="G380" t="n">
         <v>54</v>
@@ -12241,10 +12241,10 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.146900665029805</v>
+        <v>0.05237923589656202</v>
       </c>
       <c r="F381" t="n">
-        <v>0.2891446921028972</v>
+        <v>0.7067985316349678</v>
       </c>
       <c r="G381" t="n">
         <v>54</v>
@@ -12272,10 +12272,10 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.1393751735646086</v>
+        <v>0.06629846183393538</v>
       </c>
       <c r="F382" t="n">
-        <v>0.3148266341740742</v>
+        <v>0.6338484771950428</v>
       </c>
       <c r="G382" t="n">
         <v>54</v>
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.1888284031930427</v>
+        <v>0.1148815452021228</v>
       </c>
       <c r="F383" t="n">
-        <v>0.1714781996740113</v>
+        <v>0.4081271713913324</v>
       </c>
       <c r="G383" t="n">
         <v>54</v>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.2900385843270118</v>
+        <v>0.2967517617887946</v>
       </c>
       <c r="F384" t="n">
-        <v>0.03338414611748184</v>
+        <v>0.02933246751354475</v>
       </c>
       <c r="G384" t="n">
         <v>54</v>
@@ -12365,10 +12365,10 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.1474765954990803</v>
+        <v>0.09202794008180734</v>
       </c>
       <c r="F385" t="n">
-        <v>0.2872373904808946</v>
+        <v>0.5080690631228861</v>
       </c>
       <c r="G385" t="n">
         <v>54</v>
@@ -12396,10 +12396,10 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-0.1263236926989468</v>
+        <v>-0.08333714527098914</v>
       </c>
       <c r="F386" t="n">
-        <v>0.3627072452514802</v>
+        <v>0.5490964383699741</v>
       </c>
       <c r="G386" t="n">
         <v>54</v>
@@ -12427,10 +12427,10 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-0.09309947347846395</v>
+        <v>-0.1475503564153811</v>
       </c>
       <c r="F387" t="n">
-        <v>0.5031210382068884</v>
+        <v>0.2869937142696228</v>
       </c>
       <c r="G387" t="n">
         <v>54</v>
@@ -12458,10 +12458,10 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.1668278592667284</v>
+        <v>0.07956582319572929</v>
       </c>
       <c r="F388" t="n">
-        <v>0.2279272643449653</v>
+        <v>0.5673802714848682</v>
       </c>
       <c r="G388" t="n">
         <v>54</v>
@@ -12489,10 +12489,10 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.998856489422527</v>
+        <v>0.9984753192300361</v>
       </c>
       <c r="F389" t="n">
-        <v>2.381748294386753e-70</v>
+        <v>4.200579066851529e-67</v>
       </c>
       <c r="G389" t="n">
         <v>54</v>
@@ -12520,10 +12520,10 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.9719458738326662</v>
+        <v>0.9701162569087095</v>
       </c>
       <c r="F390" t="n">
-        <v>2.338427237119684e-34</v>
+        <v>1.182015363570072e-33</v>
       </c>
       <c r="G390" t="n">
         <v>54</v>
@@ -12551,10 +12551,10 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.9207165999618828</v>
+        <v>0.90020964360587</v>
       </c>
       <c r="F391" t="n">
-        <v>6.684603638490468e-23</v>
+        <v>2.045439005882293e-20</v>
       </c>
       <c r="G391" t="n">
         <v>54</v>
@@ -12582,10 +12582,10 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.4539355822374689</v>
+        <v>0.4678101772441395</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0005655424587311337</v>
+        <v>0.0003612273929517416</v>
       </c>
       <c r="G392" t="n">
         <v>54</v>
@@ -12613,10 +12613,10 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.7889079473985133</v>
+        <v>0.7577282256527539</v>
       </c>
       <c r="F393" t="n">
-        <v>1.391958182413048e-12</v>
+        <v>3.289841368783532e-11</v>
       </c>
       <c r="G393" t="n">
         <v>54</v>
@@ -12644,10 +12644,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-0.1261629755326631</v>
+        <v>-0.08373896371491869</v>
       </c>
       <c r="F394" t="n">
-        <v>0.3633231088812431</v>
+        <v>0.5471651425460489</v>
       </c>
       <c r="G394" t="n">
         <v>54</v>
@@ -12675,10 +12675,10 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-0.114141145522637</v>
+        <v>-0.1751963853492864</v>
       </c>
       <c r="F395" t="n">
-        <v>0.4111751177655267</v>
+        <v>0.2051095963613795</v>
       </c>
       <c r="G395" t="n">
         <v>54</v>
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.1469006650298051</v>
+        <v>0.05237923589656202</v>
       </c>
       <c r="F396" t="n">
-        <v>0.2891446921028971</v>
+        <v>0.7067985316349678</v>
       </c>
       <c r="G396" t="n">
         <v>54</v>
@@ -12737,10 +12737,10 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.998856489422527</v>
+        <v>0.9984753192300361</v>
       </c>
       <c r="F397" t="n">
-        <v>2.381748294386753e-70</v>
+        <v>4.200579066851529e-67</v>
       </c>
       <c r="G397" t="n">
         <v>54</v>
@@ -12768,10 +12768,10 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.9692014484467313</v>
+        <v>0.9669144272917856</v>
       </c>
       <c r="F398" t="n">
-        <v>2.560059964435385e-33</v>
+        <v>1.602992973513184e-32</v>
       </c>
       <c r="G398" t="n">
         <v>54</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.9140842386125404</v>
+        <v>0.8943396226415093</v>
       </c>
       <c r="F399" t="n">
-        <v>4.96793811379402e-22</v>
+        <v>8.394162571641457e-20</v>
       </c>
       <c r="G399" t="n">
         <v>54</v>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.4415856680007623</v>
+        <v>0.4547741566609491</v>
       </c>
       <c r="F400" t="n">
-        <v>0.0008297973863976829</v>
+        <v>0.0005507199553158948</v>
       </c>
       <c r="G400" t="n">
         <v>54</v>
@@ -12861,10 +12861,10 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.7797598627787306</v>
+        <v>0.7500285877644367</v>
       </c>
       <c r="F401" t="n">
-        <v>3.71150777170123e-12</v>
+        <v>6.684112736820633e-11</v>
       </c>
       <c r="G401" t="n">
         <v>54</v>
@@ -12892,10 +12892,10 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-0.113024347188975</v>
+        <v>-0.07919841529851476</v>
       </c>
       <c r="F402" t="n">
-        <v>0.4157972843596838</v>
+        <v>0.5691765262675563</v>
       </c>
       <c r="G402" t="n">
         <v>54</v>
@@ -12923,10 +12923,10 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-0.08627085538110967</v>
+        <v>-0.1383874478213556</v>
       </c>
       <c r="F403" t="n">
-        <v>0.53507150623468</v>
+        <v>0.3183022139388482</v>
       </c>
       <c r="G403" t="n">
         <v>54</v>
@@ -12954,10 +12954,10 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>0.1393751735646086</v>
+        <v>0.06629846183393538</v>
       </c>
       <c r="F404" t="n">
-        <v>0.3148266341740742</v>
+        <v>0.6338484771950428</v>
       </c>
       <c r="G404" t="n">
         <v>54</v>
@@ -12985,10 +12985,10 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>0.9719458738326662</v>
+        <v>0.9701162569087095</v>
       </c>
       <c r="F405" t="n">
-        <v>2.338427237119684e-34</v>
+        <v>1.182015363570072e-33</v>
       </c>
       <c r="G405" t="n">
         <v>54</v>
@@ -13016,10 +13016,10 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.9692014484467313</v>
+        <v>0.9669144272917856</v>
       </c>
       <c r="F406" t="n">
-        <v>2.560059964435385e-33</v>
+        <v>1.602992973513184e-32</v>
       </c>
       <c r="G406" t="n">
         <v>54</v>
@@ -13047,10 +13047,10 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0.8994473032208881</v>
+        <v>0.8678101772441393</v>
       </c>
       <c r="F407" t="n">
-        <v>2.469112477738788e-20</v>
+        <v>2.025937503272308e-17</v>
       </c>
       <c r="G407" t="n">
         <v>54</v>
@@ -13078,10 +13078,10 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>0.424585477415666</v>
+        <v>0.4289308176100629</v>
       </c>
       <c r="F408" t="n">
-        <v>0.001374656818457924</v>
+        <v>0.00121124392002487</v>
       </c>
       <c r="G408" t="n">
         <v>54</v>
@@ -13109,10 +13109,10 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.7741185439298647</v>
+        <v>0.7268534400609871</v>
       </c>
       <c r="F409" t="n">
-        <v>6.641397250096936e-12</v>
+        <v>4.879997418310116e-10</v>
       </c>
       <c r="G409" t="n">
         <v>54</v>
@@ -13140,10 +13140,10 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-0.001888426703832856</v>
+        <v>0.00168763746450412</v>
       </c>
       <c r="F410" t="n">
-        <v>0.9891871261922869</v>
+        <v>0.9903367601779308</v>
       </c>
       <c r="G410" t="n">
         <v>54</v>
@@ -13171,10 +13171,10 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.03632666022720448</v>
+        <v>-0.04137072893096506</v>
       </c>
       <c r="F411" t="n">
-        <v>0.7942581746880581</v>
+        <v>0.7664472786170327</v>
       </c>
       <c r="G411" t="n">
         <v>54</v>
@@ -13202,10 +13202,10 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.1888284031930427</v>
+        <v>0.1148815452021228</v>
       </c>
       <c r="F412" t="n">
-        <v>0.1714781996740113</v>
+        <v>0.4081271713913324</v>
       </c>
       <c r="G412" t="n">
         <v>54</v>
@@ -13233,10 +13233,10 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.9207165999618828</v>
+        <v>0.90020964360587</v>
       </c>
       <c r="F413" t="n">
-        <v>6.684603638490468e-23</v>
+        <v>2.045439005882293e-20</v>
       </c>
       <c r="G413" t="n">
         <v>54</v>
@@ -13264,10 +13264,10 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.9140842386125404</v>
+        <v>0.8943396226415093</v>
       </c>
       <c r="F414" t="n">
-        <v>4.96793811379402e-22</v>
+        <v>8.394162571641457e-20</v>
       </c>
       <c r="G414" t="n">
         <v>54</v>
@@ -13295,10 +13295,10 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0.8994473032208881</v>
+        <v>0.8678101772441393</v>
       </c>
       <c r="F415" t="n">
-        <v>2.469112477738788e-20</v>
+        <v>2.025937503272308e-17</v>
       </c>
       <c r="G415" t="n">
         <v>54</v>
@@ -13326,10 +13326,10 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>0.6552696779111873</v>
+        <v>0.7009338669716028</v>
       </c>
       <c r="F416" t="n">
-        <v>7.59215265494854e-08</v>
+        <v>3.597658562473176e-09</v>
       </c>
       <c r="G416" t="n">
         <v>54</v>
@@ -13357,10 +13357,10 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.9377930245854772</v>
+        <v>0.9397751095864302</v>
       </c>
       <c r="F417" t="n">
-        <v>1.508190336797539e-25</v>
+        <v>6.660109778801833e-26</v>
       </c>
       <c r="G417" t="n">
         <v>54</v>
@@ -13388,10 +13388,10 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-0.1113368169429967</v>
+        <v>-0.1123886187670958</v>
       </c>
       <c r="F418" t="n">
-        <v>0.4228377787128025</v>
+        <v>0.4184416625298345</v>
       </c>
       <c r="G418" t="n">
         <v>54</v>
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.1035409069645347</v>
+        <v>0.1055110890891438</v>
       </c>
       <c r="F419" t="n">
-        <v>0.4562295617574263</v>
+        <v>0.4476575704791164</v>
       </c>
       <c r="G419" t="n">
         <v>54</v>
@@ -13450,10 +13450,10 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.2900385843270119</v>
+        <v>0.2967517617887947</v>
       </c>
       <c r="F420" t="n">
-        <v>0.03338414611748184</v>
+        <v>0.02933246751354469</v>
       </c>
       <c r="G420" t="n">
         <v>54</v>
@@ -13481,10 +13481,10 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.4539355822374689</v>
+        <v>0.4678101772441395</v>
       </c>
       <c r="F421" t="n">
-        <v>0.0005655424587311337</v>
+        <v>0.0003612273929517416</v>
       </c>
       <c r="G421" t="n">
         <v>54</v>
@@ -13512,10 +13512,10 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.4415856680007623</v>
+        <v>0.4547741566609491</v>
       </c>
       <c r="F422" t="n">
-        <v>0.0008297973863976829</v>
+        <v>0.0005507199553158948</v>
       </c>
       <c r="G422" t="n">
         <v>54</v>
@@ -13543,10 +13543,10 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.424585477415666</v>
+        <v>0.4289308176100629</v>
       </c>
       <c r="F423" t="n">
-        <v>0.001374656818457924</v>
+        <v>0.00121124392002487</v>
       </c>
       <c r="G423" t="n">
         <v>54</v>
@@ -13574,10 +13574,10 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.6552696779111873</v>
+        <v>0.7009338669716028</v>
       </c>
       <c r="F424" t="n">
-        <v>7.59215265494854e-08</v>
+        <v>3.597658562473176e-09</v>
       </c>
       <c r="G424" t="n">
         <v>54</v>
@@ -13605,10 +13605,10 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>0.8072803506765769</v>
+        <v>0.8379264341528491</v>
       </c>
       <c r="F425" t="n">
-        <v>1.664811241516785e-13</v>
+        <v>2.75640258133795e-15</v>
       </c>
       <c r="G425" t="n">
         <v>54</v>
@@ -13636,10 +13636,10 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.04202753898317377</v>
+        <v>-0.0207338317067649</v>
       </c>
       <c r="F426" t="n">
-        <v>0.7628464874584692</v>
+        <v>0.8817013810300953</v>
       </c>
       <c r="G426" t="n">
         <v>54</v>
@@ -13667,10 +13667,10 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-0.01135456265025189</v>
+        <v>-0.06661788479948177</v>
       </c>
       <c r="F427" t="n">
-        <v>0.9350531784323629</v>
+        <v>0.6322110568890726</v>
       </c>
       <c r="G427" t="n">
         <v>54</v>
@@ -13698,10 +13698,10 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>0.1474765954990803</v>
+        <v>0.09202794008180736</v>
       </c>
       <c r="F428" t="n">
-        <v>0.2872373904808946</v>
+        <v>0.5080690631228861</v>
       </c>
       <c r="G428" t="n">
         <v>54</v>
@@ -13729,10 +13729,10 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>0.7889079473985133</v>
+        <v>0.7577282256527539</v>
       </c>
       <c r="F429" t="n">
-        <v>1.391958182413048e-12</v>
+        <v>3.289841368783532e-11</v>
       </c>
       <c r="G429" t="n">
         <v>54</v>
@@ -13760,10 +13760,10 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.7797598627787306</v>
+        <v>0.7500285877644367</v>
       </c>
       <c r="F430" t="n">
-        <v>3.71150777170123e-12</v>
+        <v>6.684112736820633e-11</v>
       </c>
       <c r="G430" t="n">
         <v>54</v>
@@ -13791,10 +13791,10 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.7741185439298647</v>
+        <v>0.7268534400609871</v>
       </c>
       <c r="F431" t="n">
-        <v>6.641397250096936e-12</v>
+        <v>4.879997418310116e-10</v>
       </c>
       <c r="G431" t="n">
         <v>54</v>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.9377930245854772</v>
+        <v>0.9397751095864302</v>
       </c>
       <c r="F432" t="n">
-        <v>1.508190336797539e-25</v>
+        <v>6.660109778801833e-26</v>
       </c>
       <c r="G432" t="n">
         <v>54</v>
@@ -13853,10 +13853,10 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>0.8072803506765769</v>
+        <v>0.8379264341528491</v>
       </c>
       <c r="F433" t="n">
-        <v>1.664811241516785e-13</v>
+        <v>2.75640258133795e-15</v>
       </c>
       <c r="G433" t="n">
         <v>54</v>
